--- a/Results/Excel Sheets/First Comparison.xlsx
+++ b/Results/Excel Sheets/First Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\IST\Master Thesis\MADCoM\Results\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0061082-9141-4059-A29F-80DA0E28D3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253B368-2C40-460D-B2F1-64506086B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
   <si>
     <t>Instance</t>
   </si>
@@ -97,6 +97,21 @@
   <si>
     <t>MADCoM (HD + RCO)</t>
   </si>
+  <si>
+    <t>MADCoM (Python)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADCoM </t>
+  </si>
+  <si>
+    <t>madcom</t>
+  </si>
+  <si>
+    <t>madcom_hd</t>
+  </si>
+  <si>
+    <t>gencarp</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -287,12 +302,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -324,11 +428,36 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,23 +468,232 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,542 +1003,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEBC759-3513-4B3C-9D29-C75598F3A089}">
-  <dimension ref="A2:P17"/>
+  <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="27" t="s">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="27" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="25" t="s">
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="48"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="50"/>
+      <c r="J4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="50"/>
+      <c r="L4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="50"/>
+      <c r="N4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="str">
-        <f>UHGS!C6</f>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="50"/>
+      <c r="T4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="50"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="str">
+        <f>UHGS!C3</f>
         <v>Instance</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f>UHGS!D6</f>
+      <c r="D5" s="1" t="str">
+        <f>UHGS!D3</f>
         <v>Nº Tasks</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <f>UHGS!E6</f>
+      <c r="E5" s="1" t="str">
+        <f>UHGS!E3</f>
         <v>UB</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="18" t="s">
+      <c r="R5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D6" s="10">
         <v>375</v>
       </c>
-      <c r="D6" s="16">
+      <c r="E6" s="16">
         <v>1602229</v>
       </c>
-      <c r="E6" s="5">
-        <f>UHGS!P7</f>
+      <c r="F6" s="23">
+        <f>UHGS!P4</f>
         <v>1614739</v>
       </c>
-      <c r="F6" s="14">
-        <f>UHGS!Q7</f>
+      <c r="G6" s="14">
+        <f>UHGS!Q4</f>
         <v>7.8078726574042356E-3</v>
       </c>
-      <c r="G6" s="5">
-        <f>UHGS!R7</f>
+      <c r="H6" s="23">
+        <f>UHGS!R4</f>
         <v>1625758.6</v>
       </c>
-      <c r="H6" s="12">
-        <f>UHGS!S7</f>
+      <c r="I6" s="12">
+        <f>UHGS!S4</f>
         <v>1.4685541205408326E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="23">
         <f>'MADCoM (Only HD)'!P4</f>
         <v>1609826</v>
       </c>
-      <c r="J6" s="14">
+      <c r="K6" s="14">
         <f>'MADCoM (Only HD)'!Q4</f>
         <v>4.7415194706874608E-3</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="23">
         <f>'MADCoM (Only HD)'!R4</f>
         <v>1617199.3</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <f>'MADCoM (Only HD)'!S4</f>
         <v>9.3434209466936036E-3</v>
       </c>
-      <c r="M6" s="5" t="e">
-        <f>'MADCoM (HD+RCO)'!T4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="12">
-        <f>'MADCoM (HD+RCO)'!U4</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <f>'MADCoM (HD+RCO)'!V4</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <f>'MADCoM (HD+RCO)'!W4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="19" t="s">
+      <c r="N6" s="23">
+        <f>'MADCoM (HD+RCO)'!P4</f>
+        <v>1615420</v>
+      </c>
+      <c r="O6" s="14">
+        <f>'MADCoM (HD+RCO)'!Q4</f>
+        <v>8.2329055334786627E-3</v>
+      </c>
+      <c r="P6" s="23">
+        <f>'MADCoM (HD+RCO)'!R4</f>
+        <v>1621760.4</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>'MADCoM (HD+RCO)'!S4</f>
+        <v>1.2190142607579668E-2</v>
+      </c>
+      <c r="R6" s="23">
+        <v>1675262</v>
+      </c>
+      <c r="S6" s="14">
+        <v>4.5582000000000004E-2</v>
+      </c>
+      <c r="T6" s="23">
+        <v>1683165</v>
+      </c>
+      <c r="U6" s="12">
+        <v>5.0514799999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11">
+        <v>780</v>
+      </c>
+      <c r="E7" s="17">
+        <v>474809</v>
+      </c>
+      <c r="F7" s="22">
+        <f>UHGS!P5</f>
+        <v>444061</v>
+      </c>
+      <c r="G7" s="15">
+        <f>UHGS!Q5</f>
+        <v>-6.4758671381545008E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <f>UHGS!R5</f>
+        <v>444809.5</v>
+      </c>
+      <c r="I7" s="13">
+        <f>UHGS!S5</f>
+        <v>-6.3182248019730047E-2</v>
+      </c>
+      <c r="J7" s="22">
+        <f>'MADCoM (Only HD)'!P5</f>
+        <v>439439</v>
+      </c>
+      <c r="K7" s="15">
+        <f>'MADCoM (Only HD)'!Q5</f>
+        <v>-7.4493111967127823E-2</v>
+      </c>
+      <c r="L7" s="22">
+        <f>'MADCoM (Only HD)'!R5</f>
+        <v>441578.5</v>
+      </c>
+      <c r="M7" s="13">
+        <f>'MADCoM (Only HD)'!S5</f>
+        <v>-6.9987089545480385E-2</v>
+      </c>
+      <c r="N7" s="22">
+        <f>'MADCoM (HD+RCO)'!P5</f>
+        <v>439830</v>
+      </c>
+      <c r="O7" s="15">
+        <f>'MADCoM (HD+RCO)'!Q5</f>
+        <v>-7.3669622943120294E-2</v>
+      </c>
+      <c r="P7" s="22">
+        <f>'MADCoM (HD+RCO)'!R5</f>
+        <v>441952.2</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>'MADCoM (HD+RCO)'!S5</f>
+        <v>-6.9200036225092632E-2</v>
+      </c>
+      <c r="R7" s="22">
+        <v>460267</v>
+      </c>
+      <c r="S7" s="15">
+        <v>-3.0627000000000001E-2</v>
+      </c>
+      <c r="T7" s="22">
+        <v>461224</v>
+      </c>
+      <c r="U7" s="13">
+        <v>-2.86106E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1075</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1534878</v>
+      </c>
+      <c r="F8" s="22">
+        <f>UHGS!P6</f>
+        <v>1541368</v>
+      </c>
+      <c r="G8" s="15">
+        <f>UHGS!Q6</f>
+        <v>4.2283490935435264E-3</v>
+      </c>
+      <c r="H8" s="22">
+        <f>UHGS!R6</f>
+        <v>1546766.9</v>
+      </c>
+      <c r="I8" s="13">
+        <f>UHGS!S6</f>
+        <v>7.7458273556594293E-3</v>
+      </c>
+      <c r="J8" s="22">
+        <f>'MADCoM (Only HD)'!P6</f>
+        <v>1538368</v>
+      </c>
+      <c r="K8" s="15">
+        <f>'MADCoM (Only HD)'!Q6</f>
+        <v>2.2737963538470574E-3</v>
+      </c>
+      <c r="L8" s="22">
+        <f>'MADCoM (Only HD)'!R6</f>
+        <v>1544921.3</v>
+      </c>
+      <c r="M8" s="13">
+        <f>'MADCoM (Only HD)'!S6</f>
+        <v>6.5433865101982569E-3</v>
+      </c>
+      <c r="N8" s="22">
+        <f>'MADCoM (HD+RCO)'!P6</f>
+        <v>1540668</v>
+      </c>
+      <c r="O8" s="15">
+        <f>'MADCoM (HD+RCO)'!Q6</f>
+        <v>3.7722867876144317E-3</v>
+      </c>
+      <c r="P8" s="22">
+        <f>'MADCoM (HD+RCO)'!R6</f>
+        <v>1543291.1</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>'MADCoM (HD+RCO)'!S6</f>
+        <v>5.4812825514471974E-3</v>
+      </c>
+      <c r="R8" s="22">
+        <v>1628115</v>
+      </c>
+      <c r="S8" s="15">
+        <v>6.0746000000000001E-2</v>
+      </c>
+      <c r="T8" s="22">
+        <v>1648438</v>
+      </c>
+      <c r="U8" s="13">
+        <v>7.3986400000000008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D9" s="11">
         <v>1212</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E9" s="17">
         <v>1748829</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F9" s="22">
+        <f>UHGS!P7</f>
+        <v>1759294</v>
+      </c>
+      <c r="G9" s="15">
+        <f>UHGS!Q7</f>
+        <v>5.9840041536365352E-3</v>
+      </c>
+      <c r="H9" s="22">
+        <f>UHGS!R7</f>
+        <v>1770684</v>
+      </c>
+      <c r="I9" s="13">
+        <f>UHGS!S7</f>
+        <v>1.2496933662467846E-2</v>
+      </c>
+      <c r="J9" s="22">
+        <f>'MADCoM (Only HD)'!P7</f>
+        <v>1751271</v>
+      </c>
+      <c r="K9" s="15">
+        <f>'MADCoM (Only HD)'!Q7</f>
+        <v>1.3963629377142794E-3</v>
+      </c>
+      <c r="L9" s="22">
+        <f>'MADCoM (Only HD)'!R7</f>
+        <v>1759686.3</v>
+      </c>
+      <c r="M9" s="13">
+        <f>'MADCoM (Only HD)'!S7</f>
+        <v>6.2083256853586732E-3</v>
+      </c>
+      <c r="N9" s="22">
+        <f>'MADCoM (HD+RCO)'!P7</f>
+        <v>1757911</v>
+      </c>
+      <c r="O9" s="15">
+        <f>'MADCoM (HD+RCO)'!Q7</f>
+        <v>5.1931892712209216E-3</v>
+      </c>
+      <c r="P9" s="22">
+        <f>'MADCoM (HD+RCO)'!R7</f>
+        <v>1765520.7</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>'MADCoM (HD+RCO)'!S7</f>
+        <v>9.5445009203301012E-3</v>
+      </c>
+      <c r="R9" s="22">
+        <v>1839707</v>
+      </c>
+      <c r="S9" s="15">
+        <v>5.1965000000000004E-2</v>
+      </c>
+      <c r="T9" s="22">
+        <v>1846897</v>
+      </c>
+      <c r="U9" s="13">
+        <v>5.60762E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1792</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2199275</v>
+      </c>
+      <c r="F10" s="32">
         <f>UHGS!P8</f>
-        <v>1759294</v>
-      </c>
-      <c r="F7" s="15">
+        <v>2220606</v>
+      </c>
+      <c r="G10" s="33">
         <f>UHGS!Q8</f>
-        <v>5.9840041536365352E-3</v>
-      </c>
-      <c r="G7" s="5">
+        <v>9.6991053870025823E-3</v>
+      </c>
+      <c r="H10" s="32">
         <f>UHGS!R8</f>
-        <v>1770684</v>
-      </c>
-      <c r="H7" s="13">
+        <v>2225175.7999999998</v>
+      </c>
+      <c r="I10" s="34">
         <f>UHGS!S8</f>
-        <v>1.2496933662467846E-2</v>
-      </c>
-      <c r="I7" s="5">
-        <f>'MADCoM (Only HD)'!P5</f>
-        <v>1751271</v>
-      </c>
-      <c r="J7" s="15">
-        <f>'MADCoM (Only HD)'!Q5</f>
-        <v>1.3963629377142794E-3</v>
-      </c>
-      <c r="K7" s="5">
-        <f>'MADCoM (Only HD)'!R5</f>
-        <v>1759686.3</v>
-      </c>
-      <c r="L7" s="13">
-        <f>'MADCoM (Only HD)'!S5</f>
-        <v>6.2083256853586732E-3</v>
-      </c>
-      <c r="M7" s="5" t="e">
-        <f>'MADCoM (HD+RCO)'!T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="13">
-        <f>'MADCoM (HD+RCO)'!U5</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <f>'MADCoM (HD+RCO)'!V5</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <f>'MADCoM (HD+RCO)'!W5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11">
-        <v>780</v>
-      </c>
-      <c r="D8" s="17">
-        <v>474809</v>
-      </c>
-      <c r="E8" s="5">
-        <f>UHGS!P9</f>
-        <v>444061</v>
-      </c>
-      <c r="F8" s="15">
-        <f>UHGS!Q9</f>
-        <v>-6.4758671381545008E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <f>UHGS!R9</f>
-        <v>444809.5</v>
-      </c>
-      <c r="H8" s="13">
-        <f>UHGS!S9</f>
-        <v>-6.3182248019730047E-2</v>
-      </c>
-      <c r="I8" s="5">
-        <f>'MADCoM (Only HD)'!P6</f>
-        <v>439439</v>
-      </c>
-      <c r="J8" s="15">
-        <f>'MADCoM (Only HD)'!Q6</f>
-        <v>-7.4493111967127823E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <f>'MADCoM (Only HD)'!R6</f>
-        <v>441578.5</v>
-      </c>
-      <c r="L8" s="13">
-        <f>'MADCoM (Only HD)'!S6</f>
-        <v>-6.9987089545480385E-2</v>
-      </c>
-      <c r="M8" s="5" t="e">
-        <f>'MADCoM (HD+RCO)'!T6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="13">
-        <f>'MADCoM (HD+RCO)'!U6</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <f>'MADCoM (HD+RCO)'!V6</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <f>'MADCoM (HD+RCO)'!W6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1075</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1534878</v>
-      </c>
-      <c r="E9" s="5">
-        <f>UHGS!P10</f>
-        <v>1541368</v>
-      </c>
-      <c r="F9" s="15">
-        <f>UHGS!Q10</f>
-        <v>4.2283490935435264E-3</v>
-      </c>
-      <c r="G9" s="5">
-        <f>UHGS!R10</f>
-        <v>1546766.9</v>
-      </c>
-      <c r="H9" s="13">
-        <f>UHGS!S10</f>
-        <v>7.7458273556594293E-3</v>
-      </c>
-      <c r="I9" s="5">
-        <f>'MADCoM (Only HD)'!P7</f>
-        <v>1538368</v>
-      </c>
-      <c r="J9" s="15">
-        <f>'MADCoM (Only HD)'!Q7</f>
-        <v>2.2737963538470574E-3</v>
-      </c>
-      <c r="K9" s="5">
-        <f>'MADCoM (Only HD)'!R7</f>
-        <v>1544921.3</v>
-      </c>
-      <c r="L9" s="13">
-        <f>'MADCoM (Only HD)'!S7</f>
-        <v>6.5433865101982569E-3</v>
-      </c>
-      <c r="M9" s="5" t="e">
-        <f>'MADCoM (HD+RCO)'!T7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="13">
-        <f>'MADCoM (HD+RCO)'!U7</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <f>'MADCoM (HD+RCO)'!V7</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <f>'MADCoM (HD+RCO)'!W7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1792</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2199275</v>
-      </c>
-      <c r="E10" s="5">
-        <f>UHGS!P11</f>
-        <v>2220606</v>
-      </c>
-      <c r="F10" s="15">
-        <f>UHGS!Q11</f>
-        <v>9.6991053870025823E-3</v>
-      </c>
-      <c r="G10" s="5">
-        <f>UHGS!R11</f>
-        <v>2225175.7999999998</v>
-      </c>
-      <c r="H10" s="13">
-        <f>UHGS!S11</f>
         <v>1.1776971956667381E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="32">
         <f>'MADCoM (Only HD)'!P8</f>
         <v>2202023</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="33">
         <f>'MADCoM (Only HD)'!Q8</f>
         <v>1.2495026770185103E-3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="32">
         <f>'MADCoM (Only HD)'!R8</f>
         <v>2215326.9</v>
       </c>
-      <c r="L10" s="13">
+      <c r="M10" s="34">
         <f>'MADCoM (Only HD)'!S8</f>
         <v>7.2987234429526815E-3</v>
       </c>
-      <c r="M10" s="5" t="e">
-        <f>'MADCoM (HD+RCO)'!T8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="13">
-        <f>'MADCoM (HD+RCO)'!U8</f>
+      <c r="N10" s="32">
+        <f>'MADCoM (HD+RCO)'!P8</f>
+        <v>2204970</v>
+      </c>
+      <c r="O10" s="33">
+        <f>'MADCoM (HD+RCO)'!Q8</f>
+        <v>2.5894897182026089E-3</v>
+      </c>
+      <c r="P10" s="32">
+        <f>'MADCoM (HD+RCO)'!R8</f>
+        <v>2215325.7000000002</v>
+      </c>
+      <c r="Q10" s="34">
+        <f>'MADCoM (HD+RCO)'!S8</f>
+        <v>7.2981778085960958E-3</v>
+      </c>
+      <c r="R10" s="32">
+        <v>2347314</v>
+      </c>
+      <c r="S10" s="33">
+        <v>6.7312999999999998E-2</v>
+      </c>
+      <c r="T10" s="32">
+        <v>2361021</v>
+      </c>
+      <c r="U10" s="34">
+        <v>7.3544999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="29"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="29"/>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="F13" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="F14" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="50"/>
+      <c r="P14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="C15" s="1">
+        <f>UHGS!C13</f>
         <v>0</v>
       </c>
-      <c r="O10" s="5">
-        <f>'MADCoM (HD+RCO)'!V8</f>
+      <c r="D15" s="1">
+        <f>UHGS!D13</f>
         <v>0</v>
       </c>
-      <c r="P10" s="13">
-        <f>'MADCoM (HD+RCO)'!W8</f>
+      <c r="E15" s="1">
+        <f>UHGS!E13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="13"/>
-    </row>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>375</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1602229</v>
+      </c>
+      <c r="F16" s="23">
+        <f>UHGS!P18</f>
+        <v>1609029</v>
+      </c>
+      <c r="G16" s="14">
+        <f>UHGS!Q18</f>
+        <v>4.2440874556632924E-3</v>
+      </c>
+      <c r="H16" s="23">
+        <f>UHGS!R18</f>
+        <v>1619020.4</v>
+      </c>
+      <c r="I16" s="12">
+        <f>UHGS!S18</f>
+        <v>1.0480025015150662E-2</v>
+      </c>
+      <c r="J16" s="23">
+        <f>'MADCoM (Only HD)'!P19</f>
+        <v>1611124</v>
+      </c>
+      <c r="K16" s="14">
+        <f>'MADCoM (Only HD)'!Q19</f>
+        <v>5.5516408703124576E-3</v>
+      </c>
+      <c r="L16" s="23">
+        <f>'MADCoM (Only HD)'!R19</f>
+        <v>1617724.3</v>
+      </c>
+      <c r="M16" s="12">
+        <f>'MADCoM (Only HD)'!S19</f>
+        <v>9.671089463491267E-3</v>
+      </c>
+      <c r="N16" s="23">
+        <f>'MADCoM (HD+RCO)'!P19</f>
+        <v>1616141</v>
+      </c>
+      <c r="O16" s="14">
+        <f>'MADCoM (HD+RCO)'!Q19</f>
+        <v>8.6829036298805562E-3</v>
+      </c>
+      <c r="P16" s="23">
+        <f>'MADCoM (HD+RCO)'!R19</f>
+        <v>1619840</v>
+      </c>
+      <c r="Q16" s="12">
+        <f>'MADCoM (HD+RCO)'!S19</f>
+        <v>1.0991562379659925E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11">
+        <v>780</v>
+      </c>
+      <c r="E17" s="17">
+        <v>474809</v>
+      </c>
+      <c r="F17" s="22">
+        <f>UHGS!P19</f>
+        <v>441014</v>
+      </c>
+      <c r="G17" s="15">
+        <f>UHGS!Q19</f>
+        <v>-7.1175988660703515E-2</v>
+      </c>
+      <c r="H17" s="22">
+        <f>UHGS!R19</f>
+        <v>442877.6</v>
+      </c>
+      <c r="I17" s="13">
+        <f>UHGS!S19</f>
+        <v>-6.7251041997940297E-2</v>
+      </c>
+      <c r="J17" s="22">
+        <f>'MADCoM (Only HD)'!P20</f>
+        <v>437617</v>
+      </c>
+      <c r="K17" s="15">
+        <f>'MADCoM (Only HD)'!Q20</f>
+        <v>-7.8330444452400894E-2</v>
+      </c>
+      <c r="L17" s="22">
+        <f>'MADCoM (Only HD)'!R20</f>
+        <v>439209</v>
+      </c>
+      <c r="M17" s="13">
+        <f>'MADCoM (Only HD)'!S20</f>
+        <v>-7.4977517275367611E-2</v>
+      </c>
+      <c r="N17" s="22">
+        <f>'MADCoM (HD+RCO)'!P20</f>
+        <v>438152</v>
+      </c>
+      <c r="O17" s="15">
+        <f>'MADCoM (HD+RCO)'!Q20</f>
+        <v>-7.7203675583234488E-2</v>
+      </c>
+      <c r="P17" s="22">
+        <f>'MADCoM (HD+RCO)'!R20</f>
+        <v>440548.8</v>
+      </c>
+      <c r="Q17" s="13">
+        <f>'MADCoM (HD+RCO)'!S20</f>
+        <v>-7.2155751049369332E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="C18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1075</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1534878</v>
+      </c>
+      <c r="F18" s="22">
+        <f>UHGS!P20</f>
+        <v>1537164</v>
+      </c>
+      <c r="G18" s="15">
+        <f>UHGS!Q20</f>
+        <v>1.489369187648748E-3</v>
+      </c>
+      <c r="H18" s="22">
+        <f>UHGS!R20</f>
+        <v>1540668</v>
+      </c>
+      <c r="I18" s="13">
+        <f>UHGS!S20</f>
+        <v>3.7722867876144317E-3</v>
+      </c>
+      <c r="J18" s="22">
+        <f>'MADCoM (Only HD)'!P21</f>
+        <v>1537202</v>
+      </c>
+      <c r="K18" s="15">
+        <f>'MADCoM (Only HD)'!Q21</f>
+        <v>1.5141268556848608E-3</v>
+      </c>
+      <c r="L18" s="22">
+        <f>'MADCoM (Only HD)'!R21</f>
+        <v>1541072.1</v>
+      </c>
+      <c r="M18" s="13">
+        <f>'MADCoM (Only HD)'!S21</f>
+        <v>4.0355650416514788E-3</v>
+      </c>
+      <c r="N18" s="22">
+        <f>'MADCoM (HD+RCO)'!P21</f>
+        <v>1536020</v>
+      </c>
+      <c r="O18" s="15">
+        <f>'MADCoM (HD+RCO)'!Q21</f>
+        <v>7.44033076244488E-4</v>
+      </c>
+      <c r="P18" s="22">
+        <f>'MADCoM (HD+RCO)'!R21</f>
+        <v>1537170</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>'MADCoM (HD+RCO)'!S21</f>
+        <v>1.4932782931282862E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1748829</v>
+      </c>
+      <c r="F19" s="22">
+        <f>UHGS!P21</f>
+        <v>1759289</v>
+      </c>
+      <c r="G19" s="15">
+        <f>UHGS!Q21</f>
+        <v>5.9811450976625657E-3</v>
+      </c>
+      <c r="H19" s="22">
+        <f>UHGS!R21</f>
+        <v>1760673.4</v>
+      </c>
+      <c r="I19" s="13">
+        <f>UHGS!S21</f>
+        <v>6.7727605157508197E-3</v>
+      </c>
+      <c r="J19" s="22">
+        <f>'MADCoM (Only HD)'!P22</f>
+        <v>1741687</v>
+      </c>
+      <c r="K19" s="15">
+        <f>'MADCoM (Only HD)'!Q22</f>
+        <v>-4.0838755532988102E-3</v>
+      </c>
+      <c r="L19" s="22">
+        <f>'MADCoM (Only HD)'!R22</f>
+        <v>1748918.3</v>
+      </c>
+      <c r="M19" s="13">
+        <f>'MADCoM (Only HD)'!S22</f>
+        <v>5.106273969612829E-5</v>
+      </c>
+      <c r="N19" s="22">
+        <f>'MADCoM (HD+RCO)'!P22</f>
+        <v>1743514</v>
+      </c>
+      <c r="O19" s="15">
+        <f>'MADCoM (HD+RCO)'!Q22</f>
+        <v>-3.0391765003896509E-3</v>
+      </c>
+      <c r="P19" s="22">
+        <f>'MADCoM (HD+RCO)'!R22</f>
+        <v>1751851.8</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>'MADCoM (HD+RCO)'!S22</f>
+        <v>1.7284708796572179E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
+      <c r="C20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1792</v>
+      </c>
+      <c r="E20" s="31">
+        <v>2199275</v>
+      </c>
+      <c r="F20" s="32">
+        <f>UHGS!P22</f>
+        <v>2207166</v>
+      </c>
+      <c r="G20" s="33">
+        <f>UHGS!Q22</f>
+        <v>3.5880005911039792E-3</v>
+      </c>
+      <c r="H20" s="32">
+        <f>UHGS!R22</f>
+        <v>2212587.4</v>
+      </c>
+      <c r="I20" s="34">
+        <f>UHGS!S22</f>
+        <v>6.0530856759613005E-3</v>
+      </c>
+      <c r="J20" s="32">
+        <f>'MADCoM (Only HD)'!P23</f>
+        <v>2199267</v>
+      </c>
+      <c r="K20" s="33">
+        <f>'MADCoM (Only HD)'!Q23</f>
+        <v>-3.6375623785334099E-6</v>
+      </c>
+      <c r="L20" s="32">
+        <f>'MADCoM (Only HD)'!R23</f>
+        <v>2207338.7000000002</v>
+      </c>
+      <c r="M20" s="34">
+        <f>'MADCoM (Only HD)'!S23</f>
+        <v>3.6665264689501598E-3</v>
+      </c>
+      <c r="N20" s="32">
+        <f>'MADCoM (HD+RCO)'!P23</f>
+        <v>2200799</v>
+      </c>
+      <c r="O20" s="33">
+        <f>'MADCoM (HD+RCO)'!Q23</f>
+        <v>6.9295563310634023E-4</v>
+      </c>
+      <c r="P20" s="32">
+        <f>'MADCoM (HD+RCO)'!R23</f>
+        <v>2208411.6</v>
+      </c>
+      <c r="Q20" s="34">
+        <f>'MADCoM (HD+RCO)'!S23</f>
+        <v>4.1543690534380229E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+  <mergeCells count="23">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
+  <conditionalFormatting sqref="G6 K6 O6">
+    <cfRule type="top10" dxfId="14" priority="14" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 K7 O7">
+    <cfRule type="top10" dxfId="13" priority="15" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 K8 O8">
+    <cfRule type="top10" dxfId="12" priority="13" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9 K9 O9">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 K10 O10">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16 K16 O16">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17 K17 O17">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18 K18 O18">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19 K19 O19">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20 K20 O20">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16 M16 Q16">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17 M17 Q17">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18 M18 Q18">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19 M19 Q19">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20 M20 Q20">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1208,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DDFC1-B6AB-4CF0-8361-830B07542BB7}">
-  <dimension ref="A4:T30"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,471 +2041,487 @@
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="24"/>
+      <c r="F2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="50"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I3" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J3" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K3" s="4">
         <v>6</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L3" s="4">
         <v>7</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M3" s="4">
         <v>8</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N3" s="4">
         <v>9</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O3" s="4">
         <v>10</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="9" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>Comparison!C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D4" s="21">
+        <f>Comparison!D6</f>
+        <v>375</v>
+      </c>
+      <c r="E4" s="17">
+        <f>Comparison!E6</f>
+        <v>1602229</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1632217</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1629122</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1622745</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1627171</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1622945</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1622541</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1614739</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1630598</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1627268</v>
+      </c>
+      <c r="O4" s="16">
+        <v>1628240</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P7" si="0">MIN(F4:O4)</f>
+        <v>1614739</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" ref="Q4:Q7" si="1">P4/E4-1</f>
+        <v>7.8078726574042356E-3</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4:R7" si="2">AVERAGE(F4:O4)</f>
+        <v>1625758.6</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" ref="S4:S7" si="3">R4/E4-1</f>
+        <v>1.4685541205408326E-2</v>
+      </c>
+      <c r="T4" s="21">
+        <f t="shared" ref="T4:T7" si="4">_xlfn.STDEV.P(F4:O4)</f>
+        <v>4854.4449157447443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="11" t="str">
+        <f>Comparison!C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D5" s="21">
+        <f>Comparison!D7</f>
+        <v>780</v>
+      </c>
+      <c r="E5" s="17">
+        <f>Comparison!E7</f>
+        <v>474809</v>
+      </c>
+      <c r="F5" s="5">
+        <v>445604</v>
+      </c>
+      <c r="G5" s="5">
+        <v>444138</v>
+      </c>
+      <c r="H5" s="5">
+        <v>444061</v>
+      </c>
+      <c r="I5" s="5">
+        <v>444136</v>
+      </c>
+      <c r="J5" s="22">
+        <v>445286</v>
+      </c>
+      <c r="K5" s="5">
+        <v>444137</v>
+      </c>
+      <c r="L5" s="5">
+        <v>444552</v>
+      </c>
+      <c r="M5" s="5">
+        <v>445200</v>
+      </c>
+      <c r="N5" s="5">
+        <v>445707</v>
+      </c>
+      <c r="O5" s="17">
+        <v>445274</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
+        <v>444061</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="1"/>
+        <v>-6.4758671381545008E-2</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="2"/>
+        <v>444809.5</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="3"/>
+        <v>-6.3182248019730047E-2</v>
+      </c>
+      <c r="T5" s="21">
+        <f t="shared" si="4"/>
+        <v>633.66935384315377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="11" t="str">
+        <f>Comparison!C8</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D6" s="21">
+        <f>Comparison!D8</f>
+        <v>1075</v>
+      </c>
+      <c r="E6" s="17">
+        <f>Comparison!E8</f>
+        <v>1534878</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1541420</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1546027</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1550195</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1546617</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1543849</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1551528</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1548142</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1546299</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1541368</v>
+      </c>
+      <c r="O6" s="17">
+        <v>1552224</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>1541368</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2283490935435264E-3</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="2"/>
+        <v>1546766.9</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="3"/>
+        <v>7.7458273556594293E-3</v>
+      </c>
+      <c r="T6" s="21">
+        <f t="shared" si="4"/>
+        <v>3648.7153478998607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="34" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="44"/>
       <c r="C7" s="11" t="str">
-        <f>Comparison!B6</f>
-        <v>egl-g2-E</v>
+        <f>Comparison!C9</f>
+        <v>Hefei-10</v>
       </c>
       <c r="D7" s="21">
-        <f>Comparison!C6</f>
-        <v>375</v>
+        <f>Comparison!D9</f>
+        <v>1212</v>
       </c>
       <c r="E7" s="17">
-        <f>Comparison!D6</f>
-        <v>1602229</v>
+        <f>Comparison!E9</f>
+        <v>1748829</v>
       </c>
       <c r="F7" s="5">
-        <v>1632217</v>
+        <v>1774126</v>
       </c>
       <c r="G7" s="5">
-        <v>1629122</v>
+        <v>1774995</v>
       </c>
       <c r="H7" s="5">
-        <v>1622745</v>
+        <v>1759294</v>
       </c>
       <c r="I7" s="5">
-        <v>1627171</v>
-      </c>
-      <c r="J7" s="23">
-        <v>1622945</v>
+        <v>1769869</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1772879</v>
       </c>
       <c r="K7" s="5">
-        <v>1622541</v>
+        <v>1763650</v>
       </c>
       <c r="L7" s="5">
-        <v>1614739</v>
+        <v>1776479</v>
       </c>
       <c r="M7" s="5">
-        <v>1630598</v>
+        <v>1775310</v>
       </c>
       <c r="N7" s="5">
-        <v>1627268</v>
-      </c>
-      <c r="O7" s="16">
-        <v>1628240</v>
+        <v>1764049</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1776189</v>
       </c>
       <c r="P7" s="5">
-        <f>MIN(F7:O7)</f>
-        <v>1614739</v>
+        <f t="shared" si="0"/>
+        <v>1759294</v>
       </c>
       <c r="Q7" s="13">
-        <f>P7/E7-1</f>
-        <v>7.8078726574042356E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.9840041536365352E-3</v>
       </c>
       <c r="R7" s="5">
-        <f>AVERAGE(F7:O7)</f>
-        <v>1625758.6</v>
+        <f t="shared" si="2"/>
+        <v>1770684</v>
       </c>
       <c r="S7" s="13">
-        <f>R7/E7-1</f>
-        <v>1.4685541205408326E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2496933662467846E-2</v>
       </c>
       <c r="T7" s="21">
-        <f>_xlfn.STDEV.P(F7:O7)</f>
-        <v>4854.4449157447443</v>
+        <f t="shared" si="4"/>
+        <v>5868.8477744783941</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="31"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="11" t="str">
-        <f>Comparison!B7</f>
-        <v>Hefei-10</v>
+        <f>Comparison!C10</f>
+        <v>Beijing-5</v>
       </c>
       <c r="D8" s="21">
-        <f>Comparison!C7</f>
-        <v>1212</v>
+        <f>Comparison!D10</f>
+        <v>1792</v>
       </c>
       <c r="E8" s="17">
-        <f>Comparison!D7</f>
-        <v>1748829</v>
+        <f>Comparison!E10</f>
+        <v>2199275</v>
       </c>
       <c r="F8" s="5">
-        <v>1774126</v>
+        <v>2227620</v>
       </c>
       <c r="G8" s="5">
-        <v>1774995</v>
+        <v>2224625</v>
       </c>
       <c r="H8" s="5">
-        <v>1759294</v>
+        <v>2224167</v>
       </c>
       <c r="I8" s="5">
-        <v>1769869</v>
+        <v>2229609</v>
       </c>
       <c r="J8" s="22">
-        <v>1772879</v>
+        <v>2220606</v>
       </c>
       <c r="K8" s="5">
-        <v>1763650</v>
+        <v>2224119</v>
       </c>
       <c r="L8" s="5">
-        <v>1776479</v>
+        <v>2224072</v>
       </c>
       <c r="M8" s="5">
-        <v>1775310</v>
+        <v>2221270</v>
       </c>
       <c r="N8" s="5">
-        <v>1764049</v>
+        <v>2229248</v>
       </c>
       <c r="O8" s="17">
-        <v>1776189</v>
+        <v>2226422</v>
       </c>
       <c r="P8" s="5">
-        <f>MIN(F8:O8)</f>
-        <v>1759294</v>
+        <f t="shared" ref="P8" si="5">MIN(F8:O8)</f>
+        <v>2220606</v>
       </c>
       <c r="Q8" s="13">
-        <f>P8/E8-1</f>
-        <v>5.9840041536365352E-3</v>
+        <f t="shared" ref="Q8" si="6">P8/E8-1</f>
+        <v>9.6991053870025823E-3</v>
       </c>
       <c r="R8" s="5">
-        <f>AVERAGE(F8:O8)</f>
-        <v>1770684</v>
+        <f t="shared" ref="R8" si="7">AVERAGE(F8:O8)</f>
+        <v>2225175.7999999998</v>
       </c>
       <c r="S8" s="13">
-        <f>R8/E8-1</f>
-        <v>1.2496933662467846E-2</v>
+        <f t="shared" ref="S8" si="8">R8/E8-1</f>
+        <v>1.1776971956667381E-2</v>
       </c>
       <c r="T8" s="21">
-        <f>_xlfn.STDEV.P(F8:O8)</f>
-        <v>5868.8477744783941</v>
+        <f t="shared" ref="T8" si="9">_xlfn.STDEV.P(F8:O8)</f>
+        <v>2890.6367395437292</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="11" t="str">
-        <f>Comparison!B8</f>
-        <v>F1_g-6</v>
-      </c>
-      <c r="D9" s="21">
-        <f>Comparison!C8</f>
-        <v>780</v>
-      </c>
-      <c r="E9" s="17">
-        <f>Comparison!D8</f>
-        <v>474809</v>
-      </c>
-      <c r="F9" s="5">
-        <v>445604</v>
-      </c>
-      <c r="G9" s="5">
-        <v>444138</v>
-      </c>
-      <c r="H9" s="5">
-        <v>444061</v>
-      </c>
-      <c r="I9" s="5">
-        <v>444136</v>
-      </c>
-      <c r="J9" s="22">
-        <v>445286</v>
-      </c>
-      <c r="K9" s="5">
-        <v>444137</v>
-      </c>
-      <c r="L9" s="5">
-        <v>444552</v>
-      </c>
-      <c r="M9" s="5">
-        <v>445200</v>
-      </c>
-      <c r="N9" s="5">
-        <v>445707</v>
-      </c>
-      <c r="O9" s="17">
-        <v>445274</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" ref="P9:P11" si="0">MIN(F9:O9)</f>
-        <v>444061</v>
-      </c>
-      <c r="Q9" s="13">
-        <f t="shared" ref="Q9:Q11" si="1">P9/E9-1</f>
-        <v>-6.4758671381545008E-2</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" ref="R9:R11" si="2">AVERAGE(F9:O9)</f>
-        <v>444809.5</v>
-      </c>
-      <c r="S9" s="13">
-        <f t="shared" ref="S9:S11" si="3">R9/E9-1</f>
-        <v>-6.3182248019730047E-2</v>
-      </c>
-      <c r="T9" s="21">
-        <f t="shared" ref="T9:T11" si="4">_xlfn.STDEV.P(F9:O9)</f>
-        <v>633.66935384315377</v>
-      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="11" t="str">
-        <f>Comparison!B9</f>
-        <v>Beijing-3</v>
-      </c>
-      <c r="D10" s="21">
-        <f>Comparison!C9</f>
-        <v>1075</v>
-      </c>
-      <c r="E10" s="17">
-        <f>Comparison!D9</f>
-        <v>1534878</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1541420</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1546027</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1550195</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1546617</v>
-      </c>
-      <c r="J10" s="22">
-        <v>1543849</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1551528</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1548142</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1546299</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1541368</v>
-      </c>
-      <c r="O10" s="17">
-        <v>1552224</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="0"/>
-        <v>1541368</v>
-      </c>
-      <c r="Q10" s="13">
-        <f t="shared" si="1"/>
-        <v>4.2283490935435264E-3</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="2"/>
-        <v>1546766.9</v>
-      </c>
-      <c r="S10" s="13">
-        <f t="shared" si="3"/>
-        <v>7.7458273556594293E-3</v>
-      </c>
-      <c r="T10" s="21">
-        <f t="shared" si="4"/>
-        <v>3648.7153478998607</v>
-      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="11" t="str">
-        <f>Comparison!B10</f>
-        <v>Beijing-5</v>
-      </c>
-      <c r="D11" s="21">
-        <f>Comparison!C10</f>
-        <v>1792</v>
-      </c>
-      <c r="E11" s="17">
-        <f>Comparison!D10</f>
-        <v>2199275</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2227620</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2224625</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2224167</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2229609</v>
-      </c>
-      <c r="J11" s="22">
-        <v>2220606</v>
-      </c>
-      <c r="K11" s="5">
-        <v>2224119</v>
-      </c>
-      <c r="L11" s="5">
-        <v>2224072</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2221270</v>
-      </c>
-      <c r="N11" s="5">
-        <v>2229248</v>
-      </c>
-      <c r="O11" s="17">
-        <v>2226422</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="0"/>
-        <v>2220606</v>
-      </c>
-      <c r="Q11" s="13">
-        <f t="shared" si="1"/>
-        <v>9.6991053870025823E-3</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" si="2"/>
-        <v>2225175.7999999998</v>
-      </c>
-      <c r="S11" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1776971956667381E-2</v>
-      </c>
-      <c r="T11" s="21">
-        <f t="shared" si="4"/>
-        <v>2890.6367395437292</v>
-      </c>
+      <c r="B11" s="44"/>
+      <c r="E11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="17"/>
+      <c r="B12" s="44"/>
+      <c r="E12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="21"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="17"/>
+      <c r="B13" s="44"/>
+      <c r="E13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="21"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="27"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="22"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="5"/>
       <c r="S14" s="6"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1703,365 +2539,395 @@
       <c r="S15" s="6"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="F18" s="25" t="s">
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="F16" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="26"/>
-    </row>
-    <row r="19" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="1" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H17" s="4">
         <v>3</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I17" s="4">
         <v>4</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J17" s="4">
         <v>5</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K17" s="4">
         <v>6</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L17" s="4">
         <v>7</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M17" s="4">
         <v>8</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N17" s="4">
         <v>9</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P17" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="25" t="s">
+      <c r="Q17" s="50"/>
+      <c r="R17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="T19" s="1" t="s">
+      <c r="S17" s="50"/>
+      <c r="T17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+    <row r="18" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="43" t="s">
         <v>17</v>
       </c>
+      <c r="C18" s="11" t="str">
+        <f>Comparison!C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D18" s="21">
+        <f>Comparison!D6</f>
+        <v>375</v>
+      </c>
+      <c r="E18" s="17">
+        <f>Comparison!E6</f>
+        <v>1602229</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1625766</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1624105</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1609029</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1620742</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1615460</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="5">
+        <f t="shared" ref="P18:P21" si="10">MIN(F18:O18)</f>
+        <v>1609029</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" ref="Q18:Q21" si="11">P18/E18-1</f>
+        <v>4.2440874556632924E-3</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" ref="R18:R21" si="12">AVERAGE(F18:O18)</f>
+        <v>1619020.4</v>
+      </c>
+      <c r="S18" s="13">
+        <f t="shared" ref="S18:S21" si="13">R18/E18-1</f>
+        <v>1.0480025015150662E-2</v>
+      </c>
+      <c r="T18" s="21">
+        <f t="shared" ref="T18:T21" si="14">_xlfn.STDEV.P(F18:O18)</f>
+        <v>6112.6868920303787</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="11" t="str">
+        <f>Comparison!C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D19" s="21">
+        <f>Comparison!D7</f>
+        <v>780</v>
+      </c>
+      <c r="E19" s="17">
+        <f>Comparison!E7</f>
+        <v>474809</v>
+      </c>
+      <c r="F19" s="5">
+        <v>443957</v>
+      </c>
+      <c r="G19" s="5">
+        <v>443706</v>
+      </c>
+      <c r="H19" s="5">
+        <v>441014</v>
+      </c>
+      <c r="I19" s="5">
+        <v>442086</v>
+      </c>
+      <c r="J19" s="22">
+        <v>443625</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="5">
+        <f t="shared" si="10"/>
+        <v>441014</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="11"/>
+        <v>-7.1175988660703515E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="12"/>
+        <v>442877.6</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" si="13"/>
+        <v>-6.7251041997940297E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="14"/>
+        <v>1141.0164941840237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
       <c r="C20" s="11" t="str">
-        <f>Comparison!B6</f>
-        <v>egl-g2-E</v>
+        <f>Comparison!C8</f>
+        <v>Beijing-3</v>
       </c>
       <c r="D20" s="21">
-        <f>Comparison!C6</f>
-        <v>375</v>
+        <f>Comparison!D8</f>
+        <v>1075</v>
       </c>
       <c r="E20" s="17">
-        <f>Comparison!D6</f>
-        <v>1602229</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="16"/>
+        <f>Comparison!E8</f>
+        <v>1534878</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1542191</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1537164</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1542325</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1541168</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1540492</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="5">
-        <f>MIN(F20:O20)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1537164</v>
       </c>
       <c r="Q20" s="13">
-        <f>P20/E20-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R20" s="5" t="e">
-        <f>AVERAGE(F20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="13" t="e">
-        <f>R20/E20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="21" t="e">
-        <f>_xlfn.STDEV.P(F20:O20)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="11"/>
+        <v>1.489369187648748E-3</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="12"/>
+        <v>1540668</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="13"/>
+        <v>3.7722867876144317E-3</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" si="14"/>
+        <v>1877.4541272691592</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="11" t="str">
-        <f>Comparison!B7</f>
+        <f>Comparison!C9</f>
         <v>Hefei-10</v>
       </c>
       <c r="D21" s="21">
-        <f>Comparison!C7</f>
+        <f>Comparison!D9</f>
         <v>1212</v>
       </c>
       <c r="E21" s="17">
-        <f>Comparison!D7</f>
+        <f>Comparison!E9</f>
         <v>1748829</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>1759934</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>1759398</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>1763277</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>1761469</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="22">
         <v>1759289</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="17"/>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:P24" si="5">MIN(F21:O21)</f>
+        <f t="shared" si="10"/>
         <v>1759289</v>
       </c>
       <c r="Q21" s="13">
-        <f t="shared" ref="Q21:Q24" si="6">P21/E21-1</f>
+        <f t="shared" si="11"/>
         <v>5.9811450976625657E-3</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" ref="R21:R24" si="7">AVERAGE(F21:O21)</f>
+        <f t="shared" si="12"/>
         <v>1760673.4</v>
       </c>
       <c r="S21" s="13">
-        <f t="shared" ref="S21:S24" si="8">R21/E21-1</f>
+        <f t="shared" si="13"/>
         <v>6.7727605157508197E-3</v>
       </c>
       <c r="T21" s="21">
-        <f t="shared" ref="T21:T24" si="9">_xlfn.STDEV.P(F21:O21)</f>
+        <f t="shared" si="14"/>
         <v>1516.6827750060327</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="11" t="str">
-        <f>Comparison!B8</f>
-        <v>F1_g-6</v>
+        <f>Comparison!C10</f>
+        <v>Beijing-5</v>
       </c>
       <c r="D22" s="21">
-        <f>Comparison!C8</f>
-        <v>780</v>
+        <f>Comparison!D10</f>
+        <v>1792</v>
       </c>
       <c r="E22" s="17">
-        <f>Comparison!D8</f>
-        <v>474809</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+        <f>Comparison!E10</f>
+        <v>2199275</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2207166</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2213310</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2215951</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2213357</v>
+      </c>
+      <c r="J22" s="22">
+        <v>2213153</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="17"/>
       <c r="P22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="P22" si="15">MIN(F22:O22)</f>
+        <v>2207166</v>
       </c>
       <c r="Q22" s="13">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="R22" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="13" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="21" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="Q22" si="16">P22/E22-1</f>
+        <v>3.5880005911039792E-3</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" ref="R22" si="17">AVERAGE(F22:O22)</f>
+        <v>2212587.4</v>
+      </c>
+      <c r="S22" s="13">
+        <f t="shared" ref="S22" si="18">R22/E22-1</f>
+        <v>6.0530856759613005E-3</v>
+      </c>
+      <c r="T22" s="21">
+        <f t="shared" ref="T22" si="19">_xlfn.STDEV.P(F22:O22)</f>
+        <v>2903.0921859286523</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="11" t="str">
-        <f>Comparison!B9</f>
-        <v>Beijing-3</v>
-      </c>
-      <c r="D23" s="21">
-        <f>Comparison!C9</f>
-        <v>1075</v>
-      </c>
-      <c r="E23" s="17">
-        <f>Comparison!D9</f>
-        <v>1534878</v>
-      </c>
-      <c r="F23">
-        <v>1542191</v>
-      </c>
-      <c r="G23">
-        <v>1537164</v>
-      </c>
-      <c r="H23">
-        <v>1542325</v>
-      </c>
-      <c r="I23">
-        <v>1541168</v>
-      </c>
-      <c r="J23">
-        <v>1540492</v>
-      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="5">
-        <f t="shared" si="5"/>
-        <v>1537164</v>
-      </c>
-      <c r="Q23" s="13">
-        <f t="shared" si="6"/>
-        <v>1.489369187648748E-3</v>
-      </c>
-      <c r="R23" s="5">
-        <f t="shared" si="7"/>
-        <v>1540668</v>
-      </c>
-      <c r="S23" s="13">
-        <f t="shared" si="8"/>
-        <v>3.7722867876144317E-3</v>
-      </c>
-      <c r="T23" s="21">
-        <f t="shared" si="9"/>
-        <v>1877.4541272691592</v>
-      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="21"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="11" t="str">
-        <f>Comparison!B10</f>
-        <v>Beijing-5</v>
-      </c>
-      <c r="D24" s="21">
-        <f>Comparison!C10</f>
-        <v>1792</v>
-      </c>
-      <c r="E24" s="17">
-        <f>Comparison!D10</f>
-        <v>2199275</v>
-      </c>
-      <c r="F24">
-        <v>2207166</v>
-      </c>
-      <c r="G24">
-        <v>2213310</v>
-      </c>
-      <c r="H24">
-        <v>2215951</v>
-      </c>
-      <c r="I24">
-        <v>2213357</v>
-      </c>
-      <c r="J24">
-        <v>2213153</v>
-      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="5">
-        <f t="shared" si="5"/>
-        <v>2207166</v>
-      </c>
-      <c r="Q24" s="13">
-        <f t="shared" si="6"/>
-        <v>3.5880005911039792E-3</v>
-      </c>
-      <c r="R24" s="5">
-        <f t="shared" si="7"/>
-        <v>2212587.4</v>
-      </c>
-      <c r="S24" s="13">
-        <f t="shared" si="8"/>
-        <v>6.0530856759613005E-3</v>
-      </c>
-      <c r="T24" s="21">
-        <f t="shared" si="9"/>
-        <v>2903.0921859286523</v>
-      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -2082,7 +2948,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -2103,7 +2969,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -2124,7 +2990,6 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -2144,57 +3009,16 @@
       <c r="S28" s="13"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="21"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="11"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="21"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2203,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9784B514-066C-4E5B-AFC3-BF5602F4CDA8}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,21 +3041,21 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="26"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2271,33 +3095,33 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="25" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="26"/>
+      <c r="S3" s="50"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f>Comparison!B6</f>
+        <f>Comparison!C6</f>
         <v>egl-g2-E</v>
       </c>
       <c r="D4" s="20">
-        <f>Comparison!C6</f>
+        <f>Comparison!D6</f>
         <v>375</v>
       </c>
       <c r="E4" s="16">
-        <f>Comparison!D6</f>
+        <f>Comparison!E6</f>
         <v>1602229</v>
       </c>
       <c r="F4" s="5">
@@ -2353,215 +3177,215 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="11" t="str">
-        <f>Comparison!B7</f>
-        <v>Hefei-10</v>
+        <f>Comparison!C7</f>
+        <v>F1_g-6</v>
       </c>
       <c r="D5" s="21">
-        <f>Comparison!C7</f>
-        <v>1212</v>
-      </c>
-      <c r="E5" s="17">
         <f>Comparison!D7</f>
-        <v>1748829</v>
+        <v>780</v>
+      </c>
+      <c r="E5" s="21">
+        <f>Comparison!E7</f>
+        <v>474809</v>
       </c>
       <c r="F5" s="5">
-        <v>1761155</v>
+        <v>441888</v>
       </c>
       <c r="G5" s="5">
-        <v>1761054</v>
+        <v>442503</v>
       </c>
       <c r="H5" s="5">
-        <v>1751271</v>
+        <v>442616</v>
       </c>
       <c r="I5" s="5">
-        <v>1758563</v>
+        <v>440299</v>
       </c>
       <c r="J5" s="22">
-        <v>1759826</v>
+        <v>440842</v>
       </c>
       <c r="K5" s="22">
-        <v>1763297</v>
+        <v>442510</v>
       </c>
       <c r="L5" s="22">
-        <v>1756139</v>
+        <v>442407</v>
       </c>
       <c r="M5" s="22">
-        <v>1756357</v>
+        <v>439439</v>
       </c>
       <c r="N5" s="22">
-        <v>1768005</v>
+        <v>441399</v>
       </c>
       <c r="O5" s="17">
-        <v>1761196</v>
+        <v>441882</v>
       </c>
       <c r="P5" s="5">
-        <f>MIN(F5:O5)</f>
-        <v>1751271</v>
+        <f t="shared" ref="P5:P8" si="0">MIN(F5:O5)</f>
+        <v>439439</v>
       </c>
       <c r="Q5" s="13">
-        <f>P5/E5-1</f>
-        <v>1.3963629377142794E-3</v>
+        <f t="shared" ref="Q5:Q8" si="1">P5/E5-1</f>
+        <v>-7.4493111967127823E-2</v>
       </c>
       <c r="R5" s="5">
-        <f>AVERAGE(F5:O5)</f>
-        <v>1759686.3</v>
+        <f t="shared" ref="R5:R8" si="2">AVERAGE(F5:O5)</f>
+        <v>441578.5</v>
       </c>
       <c r="S5" s="13">
-        <f>R5/E5-1</f>
-        <v>6.2083256853586732E-3</v>
+        <f t="shared" ref="S5:S8" si="3">R5/E5-1</f>
+        <v>-6.9987089545480385E-2</v>
       </c>
       <c r="T5" s="21">
-        <f>_xlfn.STDEV.P(F5:O5)</f>
-        <v>4293.145351604112</v>
+        <f t="shared" ref="T5:T8" si="4">_xlfn.STDEV.P(F5:O5)</f>
+        <v>1022.8561238023655</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="11" t="str">
-        <f>Comparison!B8</f>
-        <v>F1_g-6</v>
+        <f>Comparison!C8</f>
+        <v>Beijing-3</v>
       </c>
       <c r="D6" s="21">
-        <f>Comparison!C8</f>
-        <v>780</v>
+        <f>Comparison!D8</f>
+        <v>1075</v>
       </c>
       <c r="E6" s="17">
-        <f>Comparison!D8</f>
-        <v>474809</v>
+        <f>Comparison!E8</f>
+        <v>1534878</v>
       </c>
       <c r="F6" s="5">
-        <v>441888</v>
+        <v>1549577</v>
       </c>
       <c r="G6" s="5">
-        <v>442503</v>
+        <v>1542637</v>
       </c>
       <c r="H6" s="5">
-        <v>442616</v>
+        <v>1538368</v>
       </c>
       <c r="I6" s="5">
-        <v>440299</v>
+        <v>1544190</v>
       </c>
       <c r="J6" s="22">
-        <v>440842</v>
+        <v>1547520</v>
       </c>
       <c r="K6" s="22">
-        <v>442510</v>
+        <v>1541180</v>
       </c>
       <c r="L6" s="22">
-        <v>442407</v>
+        <v>1549478</v>
       </c>
       <c r="M6" s="22">
-        <v>439439</v>
+        <v>1546836</v>
       </c>
       <c r="N6" s="22">
-        <v>441399</v>
+        <v>1542914</v>
       </c>
       <c r="O6" s="17">
-        <v>441882</v>
+        <v>1546513</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" ref="P6:P8" si="0">MIN(F6:O6)</f>
-        <v>439439</v>
+        <f t="shared" si="0"/>
+        <v>1538368</v>
       </c>
       <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q8" si="1">P6/E6-1</f>
-        <v>-7.4493111967127823E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2737963538470574E-3</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" ref="R6:R8" si="2">AVERAGE(F6:O6)</f>
-        <v>441578.5</v>
+        <f t="shared" si="2"/>
+        <v>1544921.3</v>
       </c>
       <c r="S6" s="13">
-        <f t="shared" ref="S6:S8" si="3">R6/E6-1</f>
-        <v>-6.9987089545480385E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.5433865101982569E-3</v>
       </c>
       <c r="T6" s="21">
-        <f t="shared" ref="T6:T8" si="4">_xlfn.STDEV.P(F6:O6)</f>
-        <v>1022.8561238023655</v>
+        <f t="shared" si="4"/>
+        <v>3494.5247187564719</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="31"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="11" t="str">
-        <f>Comparison!B9</f>
-        <v>Beijing-3</v>
+        <f>Comparison!C9</f>
+        <v>Hefei-10</v>
       </c>
       <c r="D7" s="21">
-        <f>Comparison!C9</f>
-        <v>1075</v>
-      </c>
-      <c r="E7" s="17">
         <f>Comparison!D9</f>
-        <v>1534878</v>
+        <v>1212</v>
+      </c>
+      <c r="E7" s="21">
+        <f>Comparison!E9</f>
+        <v>1748829</v>
       </c>
       <c r="F7" s="5">
-        <v>1549577</v>
+        <v>1761155</v>
       </c>
       <c r="G7" s="5">
-        <v>1542637</v>
+        <v>1761054</v>
       </c>
       <c r="H7" s="5">
-        <v>1538368</v>
+        <v>1751271</v>
       </c>
       <c r="I7" s="5">
-        <v>1544190</v>
+        <v>1758563</v>
       </c>
       <c r="J7" s="22">
-        <v>1547520</v>
+        <v>1759826</v>
       </c>
       <c r="K7" s="22">
-        <v>1541180</v>
+        <v>1763297</v>
       </c>
       <c r="L7" s="22">
-        <v>1549478</v>
+        <v>1756139</v>
       </c>
       <c r="M7" s="22">
-        <v>1546836</v>
+        <v>1756357</v>
       </c>
       <c r="N7" s="22">
-        <v>1542914</v>
+        <v>1768005</v>
       </c>
       <c r="O7" s="17">
-        <v>1546513</v>
+        <v>1761196</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="0"/>
-        <v>1538368</v>
+        <v>1751271</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="1"/>
-        <v>2.2737963538470574E-3</v>
+        <v>1.3963629377142794E-3</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="2"/>
-        <v>1544921.3</v>
+        <v>1759686.3</v>
       </c>
       <c r="S7" s="13">
         <f t="shared" si="3"/>
-        <v>6.5433865101982569E-3</v>
+        <v>6.2083256853586732E-3</v>
       </c>
       <c r="T7" s="21">
         <f t="shared" si="4"/>
-        <v>3494.5247187564719</v>
+        <v>4293.145351604112</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="31"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="11" t="str">
-        <f>Comparison!B10</f>
+        <f>Comparison!C10</f>
         <v>Beijing-5</v>
       </c>
       <c r="D8" s="21">
-        <f>Comparison!C10</f>
+        <f>Comparison!D10</f>
         <v>1792</v>
       </c>
-      <c r="E8" s="17">
-        <f>Comparison!D10</f>
+      <c r="E8" s="21">
+        <f>Comparison!E10</f>
         <v>2199275</v>
       </c>
       <c r="F8" s="5">
@@ -2617,7 +3441,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -2639,7 +3463,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="31"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -2661,20 +3485,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="31"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="17"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="5"/>
@@ -2683,20 +3497,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="31"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="17"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="5"/>
@@ -2705,20 +3509,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="17"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="5"/>
@@ -2727,7 +3521,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -2749,19 +3543,19 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="26"/>
+      <c r="F17" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="26"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -2804,232 +3598,292 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="25" t="s">
+      <c r="P18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="25" t="s">
+      <c r="Q18" s="50"/>
+      <c r="R18" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="50"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="str">
-        <f>Comparison!B6</f>
+      <c r="C19" s="11" t="str">
+        <f>Comparison!C6</f>
         <v>egl-g2-E</v>
       </c>
       <c r="D19" s="20">
-        <f>Comparison!C6</f>
+        <f>Comparison!D6</f>
         <v>375</v>
       </c>
       <c r="E19" s="16">
-        <f>Comparison!D6</f>
+        <f>Comparison!E6</f>
         <v>1602229</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="16"/>
+      <c r="F19" s="5">
+        <v>1614299</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1625232</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1617464</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1618932</v>
+      </c>
+      <c r="J19" s="23">
+        <v>1613618</v>
+      </c>
+      <c r="K19" s="22">
+        <v>1618958</v>
+      </c>
+      <c r="L19" s="22">
+        <v>1615979</v>
+      </c>
+      <c r="M19" s="22">
+        <v>1619191</v>
+      </c>
+      <c r="N19" s="22">
+        <v>1611124</v>
+      </c>
+      <c r="O19" s="16">
+        <v>1622446</v>
+      </c>
       <c r="P19" s="5">
         <f>MIN(F19:O19)</f>
-        <v>0</v>
+        <v>1611124</v>
       </c>
       <c r="Q19" s="13">
         <f>P19/E19-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R19" s="5" t="e">
+        <v>5.5516408703124576E-3</v>
+      </c>
+      <c r="R19" s="5">
         <f>AVERAGE(F19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="13" t="e">
+        <v>1617724.3</v>
+      </c>
+      <c r="S19" s="13">
         <f>R19/E19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="21" t="e">
+        <v>9.671089463491267E-3</v>
+      </c>
+      <c r="T19" s="21">
         <f>_xlfn.STDEV.P(F19:O19)</f>
-        <v>#DIV/0!</v>
+        <v>3988.2821126394761</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="11" t="str">
-        <f>Comparison!B7</f>
+        <f>Comparison!C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D20" s="21">
+        <f>Comparison!D7</f>
+        <v>780</v>
+      </c>
+      <c r="E20" s="21">
+        <f>Comparison!E7</f>
+        <v>474809</v>
+      </c>
+      <c r="F20" s="5">
+        <v>440504</v>
+      </c>
+      <c r="G20" s="5">
+        <v>438069</v>
+      </c>
+      <c r="H20" s="5">
+        <v>440419</v>
+      </c>
+      <c r="I20" s="5">
+        <v>440879</v>
+      </c>
+      <c r="J20" s="22">
+        <v>439616</v>
+      </c>
+      <c r="K20" s="22">
+        <v>437617</v>
+      </c>
+      <c r="L20" s="22">
+        <v>439680</v>
+      </c>
+      <c r="M20" s="22">
+        <v>438760</v>
+      </c>
+      <c r="N20" s="22">
+        <v>437936</v>
+      </c>
+      <c r="O20" s="17">
+        <v>438610</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" ref="P20:P23" si="5">MIN(F20:O20)</f>
+        <v>437617</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" ref="Q20:Q23" si="6">P20/E20-1</f>
+        <v>-7.8330444452400894E-2</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" ref="R20:R23" si="7">AVERAGE(F20:O20)</f>
+        <v>439209</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" ref="S20:S23" si="8">R20/E20-1</f>
+        <v>-7.4977517275367611E-2</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" ref="T20:T23" si="9">_xlfn.STDEV.P(F20:O20)</f>
+        <v>1110.518347439609</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="11" t="str">
+        <f>Comparison!C8</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D21" s="21">
+        <f>Comparison!D8</f>
+        <v>1075</v>
+      </c>
+      <c r="E21" s="17">
+        <f>Comparison!E8</f>
+        <v>1534878</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1548149</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1539983</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1542478</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1539455</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1539768</v>
+      </c>
+      <c r="K21" s="22">
+        <v>1540145</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1540744</v>
+      </c>
+      <c r="M21" s="22">
+        <v>1537202</v>
+      </c>
+      <c r="N21" s="22">
+        <v>1541494</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1541303</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="5"/>
+        <v>1537202</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="6"/>
+        <v>1.5141268556848608E-3</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="7"/>
+        <v>1541072.1</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="8"/>
+        <v>4.0355650416514788E-3</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="9"/>
+        <v>2715.4566632520578</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="11" t="str">
+        <f>Comparison!C9</f>
         <v>Hefei-10</v>
       </c>
-      <c r="D20" s="21">
-        <f>Comparison!C7</f>
+      <c r="D22" s="21">
+        <f>Comparison!D9</f>
         <v>1212</v>
       </c>
-      <c r="E20" s="17">
-        <f>Comparison!D7</f>
+      <c r="E22" s="21">
+        <f>Comparison!E9</f>
         <v>1748829</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F22" s="5">
         <v>1750284</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G22" s="5">
         <v>1749482</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H22" s="5">
         <v>1741687</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I22" s="5">
         <v>1746900</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J22" s="22">
         <v>1745935</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="5">
-        <f>MIN(F20:O20)</f>
-        <v>1741687</v>
-      </c>
-      <c r="Q20" s="13">
-        <f>P20/E20-1</f>
-        <v>-4.0838755532988102E-3</v>
-      </c>
-      <c r="R20" s="5">
-        <f>AVERAGE(F20:O20)</f>
-        <v>1746857.6</v>
-      </c>
-      <c r="S20" s="13">
-        <f>R20/E20-1</f>
-        <v>-1.1272685894389012E-3</v>
-      </c>
-      <c r="T20" s="21">
-        <f>_xlfn.STDEV.P(F20:O20)</f>
-        <v>3040.2560813194668</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="11" t="str">
-        <f>Comparison!B8</f>
-        <v>F1_g-6</v>
-      </c>
-      <c r="D21" s="21">
-        <f>Comparison!C8</f>
-        <v>780</v>
-      </c>
-      <c r="E21" s="17">
-        <f>Comparison!D8</f>
-        <v>474809</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="5">
-        <f t="shared" ref="P21:P23" si="5">MIN(F21:O21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13">
-        <f t="shared" ref="Q21:Q23" si="6">P21/E21-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R21" s="5" t="e">
-        <f t="shared" ref="R21:R23" si="7">AVERAGE(F21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="13" t="e">
-        <f t="shared" ref="S21:S23" si="8">R21/E21-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="21" t="e">
-        <f t="shared" ref="T21:T23" si="9">_xlfn.STDEV.P(F21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="11" t="str">
-        <f>Comparison!B9</f>
-        <v>Beijing-3</v>
-      </c>
-      <c r="D22" s="21">
-        <f>Comparison!C9</f>
-        <v>1075</v>
-      </c>
-      <c r="E22" s="17">
-        <f>Comparison!D9</f>
-        <v>1534878</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1548149</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1539983</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1542478</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1539455</v>
-      </c>
-      <c r="J22" s="22">
-        <v>1539768</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="17"/>
+      <c r="K22" s="22">
+        <v>1755945</v>
+      </c>
+      <c r="L22" s="22">
+        <v>1745228</v>
+      </c>
+      <c r="M22" s="22">
+        <v>1746757</v>
+      </c>
+      <c r="N22" s="22">
+        <v>1753277</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1753688</v>
+      </c>
       <c r="P22" s="5">
         <f t="shared" si="5"/>
-        <v>1539455</v>
+        <v>1741687</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="6"/>
-        <v>2.9819959631971482E-3</v>
+        <v>-4.0838755532988102E-3</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="7"/>
-        <v>1541966.6</v>
+        <v>1748918.3</v>
       </c>
       <c r="S22" s="13">
         <f t="shared" si="8"/>
-        <v>4.6183475168710686E-3</v>
+        <v>5.106273969612829E-5</v>
       </c>
       <c r="T22" s="21">
         <f t="shared" si="9"/>
-        <v>3272.9266780665894</v>
+        <v>4205.4792366625716</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="11" t="str">
-        <f>Comparison!B10</f>
+        <f>Comparison!C10</f>
         <v>Beijing-5</v>
       </c>
       <c r="D23" s="21">
-        <f>Comparison!C10</f>
+        <f>Comparison!D10</f>
         <v>1792</v>
       </c>
-      <c r="E23" s="17">
-        <f>Comparison!D10</f>
+      <c r="E23" s="21">
+        <f>Comparison!E10</f>
         <v>2199275</v>
       </c>
       <c r="F23" s="5">
@@ -3047,34 +3901,44 @@
       <c r="J23" s="22">
         <v>2204045</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="17"/>
+      <c r="K23" s="22">
+        <v>2212938</v>
+      </c>
+      <c r="L23" s="22">
+        <v>2199267</v>
+      </c>
+      <c r="M23" s="22">
+        <v>2211527</v>
+      </c>
+      <c r="N23" s="22">
+        <v>2215036</v>
+      </c>
+      <c r="O23" s="17">
+        <v>2204474</v>
+      </c>
       <c r="P23" s="5">
         <f t="shared" si="5"/>
-        <v>2202382</v>
+        <v>2199267</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="6"/>
-        <v>1.4127382887543227E-3</v>
+        <v>-3.6375623785334099E-6</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="7"/>
-        <v>2206029</v>
+        <v>2207338.7000000002</v>
       </c>
       <c r="S23" s="13">
         <f t="shared" si="8"/>
-        <v>3.0710120380579298E-3</v>
+        <v>3.6665264689501598E-3</v>
       </c>
       <c r="T23" s="21">
         <f t="shared" si="9"/>
-        <v>3049.7555311860656</v>
+        <v>4863.9788866729268</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -3095,7 +3959,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -3116,7 +3980,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -3137,7 +4001,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -3158,7 +4022,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -3198,6 +4062,106 @@
       <c r="S29" s="13"/>
       <c r="T29" s="21"/>
     </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>1540145</v>
+      </c>
+      <c r="G31">
+        <v>1540744</v>
+      </c>
+      <c r="H31">
+        <v>1537202</v>
+      </c>
+      <c r="I31">
+        <v>1541494</v>
+      </c>
+      <c r="J31">
+        <v>1541303</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>440504</v>
+      </c>
+      <c r="G32">
+        <v>438069</v>
+      </c>
+      <c r="H32">
+        <v>440419</v>
+      </c>
+      <c r="I32">
+        <v>440879</v>
+      </c>
+      <c r="J32">
+        <v>439616</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>1755945</v>
+      </c>
+      <c r="G33">
+        <v>1745228</v>
+      </c>
+      <c r="H33">
+        <v>1746757</v>
+      </c>
+      <c r="I33">
+        <v>1753277</v>
+      </c>
+      <c r="J33">
+        <v>1753688</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>1614299</v>
+      </c>
+      <c r="G34">
+        <v>1625232</v>
+      </c>
+      <c r="H34">
+        <v>1617464</v>
+      </c>
+      <c r="I34">
+        <v>1618932</v>
+      </c>
+      <c r="J34">
+        <v>1613618</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>2212938</v>
+      </c>
+      <c r="G35">
+        <v>2199267</v>
+      </c>
+      <c r="H35">
+        <v>2211527</v>
+      </c>
+      <c r="I35">
+        <v>2215036</v>
+      </c>
+      <c r="J35">
+        <v>2204474</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:B14"/>
@@ -3215,31 +4179,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A981BF-362D-4F38-A22D-B817C4C20373}">
-  <dimension ref="B1:T29"/>
+  <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="B7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="26"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3279,247 +4243,347 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="25" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="26"/>
+      <c r="S3" s="50"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f>Comparison!B6</f>
+        <f>Comparison!C6</f>
         <v>egl-g2-E</v>
       </c>
-      <c r="D4" s="20">
-        <f>Comparison!C6</f>
+      <c r="D4" s="21">
+        <f>Comparison!D6</f>
         <v>375</v>
       </c>
-      <c r="E4" s="16">
-        <f>Comparison!D6</f>
+      <c r="E4" s="17">
+        <f>Comparison!E6</f>
         <v>1602229</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="16"/>
+      <c r="F4" s="5">
+        <v>1621235</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1619679</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1624716</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1626187</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1628650</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1624527</v>
+      </c>
+      <c r="L4" s="22">
+        <v>1615420</v>
+      </c>
+      <c r="M4" s="22">
+        <v>1618241</v>
+      </c>
+      <c r="N4" s="22">
+        <v>1618615</v>
+      </c>
+      <c r="O4" s="16">
+        <v>1620334</v>
+      </c>
       <c r="P4" s="5">
         <f>MIN(F4:O4)</f>
-        <v>0</v>
+        <v>1615420</v>
       </c>
       <c r="Q4" s="13">
         <f>P4/E4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R4" s="5" t="e">
+        <v>8.2329055334786627E-3</v>
+      </c>
+      <c r="R4" s="5">
         <f>AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="13" t="e">
+        <v>1621760.4</v>
+      </c>
+      <c r="S4" s="13">
         <f>R4/E4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="21" t="e">
+        <v>1.2190142607579668E-2</v>
+      </c>
+      <c r="T4" s="21">
         <f>_xlfn.STDEV.P(F4:O4)</f>
-        <v>#DIV/0!</v>
+        <v>3906.0760412465092</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="11" t="str">
-        <f>Comparison!B7</f>
+        <f>Comparison!C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D5" s="21">
+        <f>Comparison!D7</f>
+        <v>780</v>
+      </c>
+      <c r="E5" s="17">
+        <f>Comparison!E7</f>
+        <v>474809</v>
+      </c>
+      <c r="F5" s="5">
+        <v>441295</v>
+      </c>
+      <c r="G5" s="5">
+        <v>442138</v>
+      </c>
+      <c r="H5" s="5">
+        <v>442030</v>
+      </c>
+      <c r="I5" s="5">
+        <v>443718</v>
+      </c>
+      <c r="J5" s="22">
+        <v>439830</v>
+      </c>
+      <c r="K5" s="22">
+        <v>440099</v>
+      </c>
+      <c r="L5" s="22">
+        <v>442539</v>
+      </c>
+      <c r="M5" s="22">
+        <v>443144</v>
+      </c>
+      <c r="N5" s="22">
+        <v>442822</v>
+      </c>
+      <c r="O5" s="17">
+        <v>441907</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" ref="P5:P8" si="0">MIN(F5:O5)</f>
+        <v>439830</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" ref="Q5:Q8" si="1">P5/E5-1</f>
+        <v>-7.3669622943120294E-2</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" ref="R5:R8" si="2">AVERAGE(F5:O5)</f>
+        <v>441952.2</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" ref="S5:S8" si="3">R5/E5-1</f>
+        <v>-6.9200036225092632E-2</v>
+      </c>
+      <c r="T5" s="21">
+        <f t="shared" ref="T5:T8" si="4">_xlfn.STDEV.P(F5:O5)</f>
+        <v>1185.4086046591699</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="11" t="str">
+        <f>Comparison!C8</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D6" s="21">
+        <f>Comparison!D8</f>
+        <v>1075</v>
+      </c>
+      <c r="E6" s="17">
+        <f>Comparison!E8</f>
+        <v>1534878</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1545265</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1545274</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1546240</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1540668</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1541468</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1543189</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1542734</v>
+      </c>
+      <c r="M6" s="22">
+        <v>1542283</v>
+      </c>
+      <c r="N6" s="22">
+        <v>1544437</v>
+      </c>
+      <c r="O6" s="17">
+        <v>1541353</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>1540668</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7722867876144317E-3</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="2"/>
+        <v>1543291.1</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="3"/>
+        <v>5.4812825514471974E-3</v>
+      </c>
+      <c r="T6" s="21">
+        <f t="shared" si="4"/>
+        <v>1820.2994506399216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="11" t="str">
+        <f>Comparison!C9</f>
         <v>Hefei-10</v>
       </c>
-      <c r="D5" s="21">
-        <f>Comparison!C7</f>
+      <c r="D7" s="21">
+        <f>Comparison!D9</f>
         <v>1212</v>
       </c>
-      <c r="E5" s="17">
-        <f>Comparison!D7</f>
+      <c r="E7" s="17">
+        <f>Comparison!E9</f>
         <v>1748829</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="5">
-        <f>MIN(F5:O5)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
-        <f>P5/E5-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R5" s="5" t="e">
-        <f>AVERAGE(F5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="13" t="e">
-        <f>R5/E5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="21" t="e">
-        <f>_xlfn.STDEV.P(F5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="11" t="str">
-        <f>Comparison!B8</f>
-        <v>F1_g-6</v>
-      </c>
-      <c r="D6" s="21">
-        <f>Comparison!C8</f>
-        <v>780</v>
-      </c>
-      <c r="E6" s="17">
-        <f>Comparison!D8</f>
-        <v>474809</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="5">
-        <f t="shared" ref="P6:P8" si="0">MIN(F6:O6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q8" si="1">P6/E6-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R6" s="5" t="e">
-        <f t="shared" ref="R6:R8" si="2">AVERAGE(F6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="13" t="e">
-        <f t="shared" ref="S6:S8" si="3">R6/E6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="21" t="e">
-        <f t="shared" ref="T6:T8" si="4">_xlfn.STDEV.P(F6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="11" t="str">
-        <f>Comparison!B9</f>
-        <v>Beijing-3</v>
-      </c>
-      <c r="D7" s="21">
-        <f>Comparison!C9</f>
-        <v>1075</v>
-      </c>
-      <c r="E7" s="17">
-        <f>Comparison!D9</f>
-        <v>1534878</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="17"/>
+      <c r="F7" s="5">
+        <v>1765683</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1780129</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1762208</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1760777</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1760968</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1760568</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1771811</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1765638</v>
+      </c>
+      <c r="N7" s="22">
+        <v>1757911</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1769514</v>
+      </c>
       <c r="P7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1757911</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R7" s="5" t="e">
+        <v>5.1931892712209216E-3</v>
+      </c>
+      <c r="R7" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="13" t="e">
+        <v>1765520.7</v>
+      </c>
+      <c r="S7" s="13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="21" t="e">
+        <v>9.5445009203301012E-3</v>
+      </c>
+      <c r="T7" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6368.652668343595</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="11" t="str">
-        <f>Comparison!B10</f>
+        <f>Comparison!C10</f>
         <v>Beijing-5</v>
       </c>
       <c r="D8" s="21">
-        <f>Comparison!C10</f>
+        <f>Comparison!D10</f>
         <v>1792</v>
       </c>
       <c r="E8" s="17">
-        <f>Comparison!D10</f>
+        <f>Comparison!E10</f>
         <v>2199275</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="17"/>
+      <c r="F8" s="5">
+        <v>2209028</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2218745</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2212072</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2224158</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2214009</v>
+      </c>
+      <c r="K8" s="22">
+        <v>2204970</v>
+      </c>
+      <c r="L8" s="22">
+        <v>2219299</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2219243</v>
+      </c>
+      <c r="N8" s="22">
+        <v>2214662</v>
+      </c>
+      <c r="O8" s="17">
+        <v>2217071</v>
+      </c>
       <c r="P8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2204970</v>
       </c>
       <c r="Q8" s="13">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R8" s="5" t="e">
+        <v>2.5894897182026089E-3</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="13" t="e">
+        <v>2215325.7000000002</v>
+      </c>
+      <c r="S8" s="13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="21" t="e">
+        <v>7.2981778085960958E-3</v>
+      </c>
+      <c r="T8" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5324.8649569730878</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -3540,20 +4604,10 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="17"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="5"/>
@@ -3561,20 +4615,10 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="17"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="5"/>
@@ -3582,20 +4626,10 @@
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="17"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="5"/>
@@ -3603,7 +4637,7 @@
       <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
@@ -3624,7 +4658,7 @@
       <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -3646,19 +4680,19 @@
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="26"/>
+      <c r="F17" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="26"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -3701,174 +4735,214 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="25" t="s">
+      <c r="P18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="25" t="s">
+      <c r="Q18" s="50"/>
+      <c r="R18" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="50"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="str">
-        <f>Comparison!B6</f>
+      <c r="C19" s="11" t="str">
+        <f>Comparison!C6</f>
         <v>egl-g2-E</v>
       </c>
-      <c r="D19" s="20">
-        <f>Comparison!C6</f>
+      <c r="D19" s="21">
+        <f>Comparison!D6</f>
         <v>375</v>
       </c>
-      <c r="E19" s="16">
-        <f>Comparison!D6</f>
+      <c r="E19" s="17">
+        <f>Comparison!E6</f>
         <v>1602229</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="23"/>
+      <c r="F19" s="5">
+        <v>1622228</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1616441</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1616141</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1625951</v>
+      </c>
+      <c r="J19" s="23">
+        <v>1618439</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="16"/>
       <c r="P19" s="5">
-        <f>MIN(F19:O19)</f>
-        <v>0</v>
+        <f t="shared" ref="P19:P22" si="5">MIN(F19:O19)</f>
+        <v>1616141</v>
       </c>
       <c r="Q19" s="13">
-        <f>P19/E19-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R19" s="5" t="e">
-        <f>AVERAGE(F19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="13" t="e">
-        <f>R19/E19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="21" t="e">
-        <f>_xlfn.STDEV.P(F19:O19)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="Q19:Q22" si="6">P19/E19-1</f>
+        <v>8.6829036298805562E-3</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" ref="R19:R22" si="7">AVERAGE(F19:O19)</f>
+        <v>1619840</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" ref="S19:S22" si="8">R19/E19-1</f>
+        <v>1.0991562379659925E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" ref="T19:T22" si="9">_xlfn.STDEV.P(F19:O19)</f>
+        <v>3748.2120537664355</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="11" t="str">
-        <f>Comparison!B7</f>
-        <v>Hefei-10</v>
+        <f>Comparison!C7</f>
+        <v>F1_g-6</v>
       </c>
       <c r="D20" s="21">
-        <f>Comparison!C7</f>
-        <v>1212</v>
+        <f>Comparison!D7</f>
+        <v>780</v>
       </c>
       <c r="E20" s="17">
-        <f>Comparison!D7</f>
-        <v>1748829</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="22"/>
+        <f>Comparison!E7</f>
+        <v>474809</v>
+      </c>
+      <c r="F20" s="5">
+        <v>442738</v>
+      </c>
+      <c r="G20" s="5">
+        <v>439602</v>
+      </c>
+      <c r="H20" s="5">
+        <v>441284</v>
+      </c>
+      <c r="I20" s="5">
+        <v>438152</v>
+      </c>
+      <c r="J20" s="22">
+        <v>440968</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="17"/>
       <c r="P20" s="5">
-        <f>MIN(F20:O20)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>438152</v>
       </c>
       <c r="Q20" s="13">
-        <f>P20/E20-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R20" s="5" t="e">
-        <f>AVERAGE(F20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="13" t="e">
-        <f>R20/E20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="21" t="e">
-        <f>_xlfn.STDEV.P(F20:O20)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>-7.7203675583234488E-2</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="7"/>
+        <v>440548.8</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="8"/>
+        <v>-7.2155751049369332E-2</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" si="9"/>
+        <v>1558.8409027222758</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="11" t="str">
-        <f>Comparison!B8</f>
-        <v>F1_g-6</v>
+        <f>Comparison!C8</f>
+        <v>Beijing-3</v>
       </c>
       <c r="D21" s="21">
-        <f>Comparison!C8</f>
-        <v>780</v>
+        <f>Comparison!D8</f>
+        <v>1075</v>
       </c>
       <c r="E21" s="17">
-        <f>Comparison!D8</f>
-        <v>474809</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="22"/>
+        <f>Comparison!E8</f>
+        <v>1534878</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1536913</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1537194</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1536324</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1536020</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1539399</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="17"/>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:P23" si="5">MIN(F21:O21)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1536020</v>
       </c>
       <c r="Q21" s="13">
-        <f t="shared" ref="Q21:Q23" si="6">P21/E21-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R21" s="5" t="e">
-        <f t="shared" ref="R21:R23" si="7">AVERAGE(F21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="13" t="e">
-        <f t="shared" ref="S21:S23" si="8">R21/E21-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="21" t="e">
-        <f t="shared" ref="T21:T23" si="9">_xlfn.STDEV.P(F21:O21)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>7.44033076244488E-4</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="7"/>
+        <v>1537170</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="8"/>
+        <v>1.4932782931282862E-3</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="9"/>
+        <v>1189.393290715901</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="11" t="str">
-        <f>Comparison!B9</f>
-        <v>Beijing-3</v>
+        <f>Comparison!C9</f>
+        <v>Hefei-10</v>
       </c>
       <c r="D22" s="21">
-        <f>Comparison!C9</f>
-        <v>1075</v>
+        <f>Comparison!D9</f>
+        <v>1212</v>
       </c>
       <c r="E22" s="17">
-        <f>Comparison!D9</f>
-        <v>1534878</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="22"/>
+        <f>Comparison!E9</f>
+        <v>1748829</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1745180</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1761084</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1743514</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1762224</v>
+      </c>
+      <c r="J22" s="22">
+        <v>1747257</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -3876,72 +4950,82 @@
       <c r="O22" s="17"/>
       <c r="P22" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1743514</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="R22" s="5" t="e">
+        <v>-3.0391765003896509E-3</v>
+      </c>
+      <c r="R22" s="5">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="13" t="e">
+        <v>1751851.8</v>
+      </c>
+      <c r="S22" s="13">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="21" t="e">
+        <v>1.7284708796572179E-3</v>
+      </c>
+      <c r="T22" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>8098.8895633907741</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="11" t="str">
-        <f>Comparison!B10</f>
+        <f>Comparison!C10</f>
         <v>Beijing-5</v>
       </c>
       <c r="D23" s="21">
-        <f>Comparison!C10</f>
+        <f>Comparison!D10</f>
         <v>1792</v>
       </c>
       <c r="E23" s="17">
-        <f>Comparison!D10</f>
+        <f>Comparison!E10</f>
         <v>2199275</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="22"/>
+      <c r="F23" s="5">
+        <v>2210329</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2207959</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2200799</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2215392</v>
+      </c>
+      <c r="J23" s="22">
+        <v>2207579</v>
+      </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="17"/>
       <c r="P23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="P23" si="10">MIN(F23:O23)</f>
+        <v>2200799</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="R23" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="13" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="21" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="Q23" si="11">P23/E23-1</f>
+        <v>6.9295563310634023E-4</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" ref="R23" si="12">AVERAGE(F23:O23)</f>
+        <v>2208411.6</v>
+      </c>
+      <c r="S23" s="13">
+        <f t="shared" ref="S23" si="13">R23/E23-1</f>
+        <v>4.1543690534380229E-3</v>
+      </c>
+      <c r="T23" s="21">
+        <f t="shared" ref="T23" si="14">_xlfn.STDEV.P(F23:O23)</f>
+        <v>4717.0362559556397</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -3962,7 +5046,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -3983,7 +5067,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -4004,7 +5088,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -4025,7 +5109,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -4065,6 +5149,106 @@
       <c r="S29" s="13"/>
       <c r="T29" s="21"/>
     </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>1536913</v>
+      </c>
+      <c r="F33">
+        <v>1537194</v>
+      </c>
+      <c r="G33">
+        <v>1536324</v>
+      </c>
+      <c r="H33">
+        <v>1536020</v>
+      </c>
+      <c r="I33">
+        <v>1539399</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>442738</v>
+      </c>
+      <c r="F34">
+        <v>439602</v>
+      </c>
+      <c r="G34">
+        <v>441284</v>
+      </c>
+      <c r="H34">
+        <v>438152</v>
+      </c>
+      <c r="I34">
+        <v>440968</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>1745180</v>
+      </c>
+      <c r="F35">
+        <v>1761084</v>
+      </c>
+      <c r="G35">
+        <v>1743514</v>
+      </c>
+      <c r="H35">
+        <v>1762224</v>
+      </c>
+      <c r="I35">
+        <v>1747257</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>1622228</v>
+      </c>
+      <c r="F36">
+        <v>1616441</v>
+      </c>
+      <c r="G36">
+        <v>1616141</v>
+      </c>
+      <c r="H36">
+        <v>1625951</v>
+      </c>
+      <c r="I36">
+        <v>1618439</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>2210329</v>
+      </c>
+      <c r="F37">
+        <v>2207959</v>
+      </c>
+      <c r="G37">
+        <v>2200799</v>
+      </c>
+      <c r="H37">
+        <v>2215392</v>
+      </c>
+      <c r="I37">
+        <v>2207579</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B19:B28"/>
@@ -4082,14 +5266,672 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACEBDDF-2E4A-43BA-9C94-A9709F6384C0}">
-  <dimension ref="A1"/>
+  <dimension ref="C13:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="50"/>
+      <c r="L15" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="50"/>
+      <c r="N15" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="50"/>
+      <c r="P15" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10">
+        <v>375</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1602229</v>
+      </c>
+      <c r="F17" s="36">
+        <v>1614739</v>
+      </c>
+      <c r="G17" s="14">
+        <v>7.8078726574042356E-3</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1625758.6</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1.4685541205408326E-2</v>
+      </c>
+      <c r="J17" s="36">
+        <v>1609826</v>
+      </c>
+      <c r="K17" s="14">
+        <v>4.7415194706874608E-3</v>
+      </c>
+      <c r="L17" s="40">
+        <v>1617199.3</v>
+      </c>
+      <c r="M17" s="12">
+        <v>9.3434209466936036E-3</v>
+      </c>
+      <c r="N17" s="36">
+        <v>1675262</v>
+      </c>
+      <c r="O17" s="14">
+        <v>4.5582000000000004E-2</v>
+      </c>
+      <c r="P17" s="40">
+        <v>1683165</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>5.0514799999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="11">
+        <v>780</v>
+      </c>
+      <c r="E18" s="17">
+        <v>474809</v>
+      </c>
+      <c r="F18" s="37">
+        <v>444061</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-6.4758671381545008E-2</v>
+      </c>
+      <c r="H18" s="41">
+        <v>444809.5</v>
+      </c>
+      <c r="I18" s="13">
+        <v>-6.3182248019730047E-2</v>
+      </c>
+      <c r="J18" s="37">
+        <v>439439</v>
+      </c>
+      <c r="K18" s="15">
+        <v>-7.4493111967127823E-2</v>
+      </c>
+      <c r="L18" s="41">
+        <v>441578.5</v>
+      </c>
+      <c r="M18" s="13">
+        <v>-6.9987089545480385E-2</v>
+      </c>
+      <c r="N18" s="37">
+        <v>460267</v>
+      </c>
+      <c r="O18" s="15">
+        <v>-3.0627000000000001E-2</v>
+      </c>
+      <c r="P18" s="41">
+        <v>461224</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>-2.86106E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1075</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1534878</v>
+      </c>
+      <c r="F19" s="37">
+        <v>1541368</v>
+      </c>
+      <c r="G19" s="15">
+        <v>4.2283490935435264E-3</v>
+      </c>
+      <c r="H19" s="41">
+        <v>1546766.9</v>
+      </c>
+      <c r="I19" s="13">
+        <v>7.7458273556594293E-3</v>
+      </c>
+      <c r="J19" s="37">
+        <v>1538368</v>
+      </c>
+      <c r="K19" s="15">
+        <v>2.2737963538470574E-3</v>
+      </c>
+      <c r="L19" s="41">
+        <v>1544921.3</v>
+      </c>
+      <c r="M19" s="13">
+        <v>6.5433865101982569E-3</v>
+      </c>
+      <c r="N19" s="37">
+        <v>1628115</v>
+      </c>
+      <c r="O19" s="15">
+        <v>6.0746000000000001E-2</v>
+      </c>
+      <c r="P19" s="41">
+        <v>1648438</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>7.3986400000000008E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1748829</v>
+      </c>
+      <c r="F20" s="37">
+        <v>1759294</v>
+      </c>
+      <c r="G20" s="15">
+        <v>5.9840041536365352E-3</v>
+      </c>
+      <c r="H20" s="41">
+        <v>1770684</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1.2496933662467846E-2</v>
+      </c>
+      <c r="J20" s="37">
+        <v>1751271</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1.3963629377142794E-3</v>
+      </c>
+      <c r="L20" s="41">
+        <v>1759686.3</v>
+      </c>
+      <c r="M20" s="13">
+        <v>6.2083256853586732E-3</v>
+      </c>
+      <c r="N20" s="37">
+        <v>1839707</v>
+      </c>
+      <c r="O20" s="15">
+        <v>5.1965000000000004E-2</v>
+      </c>
+      <c r="P20" s="41">
+        <v>1846897</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>5.60762E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1792</v>
+      </c>
+      <c r="E21" s="31">
+        <v>2199275</v>
+      </c>
+      <c r="F21" s="38">
+        <v>2220606</v>
+      </c>
+      <c r="G21" s="33">
+        <v>9.6991053870025823E-3</v>
+      </c>
+      <c r="H21" s="42">
+        <v>2225175.7999999998</v>
+      </c>
+      <c r="I21" s="34">
+        <v>1.1776971956667381E-2</v>
+      </c>
+      <c r="J21" s="38">
+        <v>2202023</v>
+      </c>
+      <c r="K21" s="33">
+        <v>1.2495026770185103E-3</v>
+      </c>
+      <c r="L21" s="42">
+        <v>2215326.9</v>
+      </c>
+      <c r="M21" s="34">
+        <v>7.2987234429526815E-3</v>
+      </c>
+      <c r="N21" s="38">
+        <v>2347314</v>
+      </c>
+      <c r="O21" s="33">
+        <v>6.7312999999999998E-2</v>
+      </c>
+      <c r="P21" s="42">
+        <v>2361021</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>7.3544999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>1536913</v>
+      </c>
+      <c r="E26">
+        <v>1537194</v>
+      </c>
+      <c r="F26">
+        <v>1536324</v>
+      </c>
+      <c r="G26">
+        <v>1536020</v>
+      </c>
+      <c r="H26">
+        <v>1539399</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>442738</v>
+      </c>
+      <c r="E27">
+        <v>439602</v>
+      </c>
+      <c r="F27">
+        <v>441284</v>
+      </c>
+      <c r="G27">
+        <v>438152</v>
+      </c>
+      <c r="H27">
+        <v>440968</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1745180</v>
+      </c>
+      <c r="E28">
+        <v>1761084</v>
+      </c>
+      <c r="F28">
+        <v>1743514</v>
+      </c>
+      <c r="G28">
+        <v>1762224</v>
+      </c>
+      <c r="H28">
+        <v>1747257</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1622228</v>
+      </c>
+      <c r="E29">
+        <v>1616441</v>
+      </c>
+      <c r="F29">
+        <v>1616141</v>
+      </c>
+      <c r="G29">
+        <v>1625951</v>
+      </c>
+      <c r="H29">
+        <v>1618439</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2210329</v>
+      </c>
+      <c r="E30">
+        <v>2207959</v>
+      </c>
+      <c r="F30">
+        <v>2200799</v>
+      </c>
+      <c r="G30">
+        <v>2215392</v>
+      </c>
+      <c r="H30">
+        <v>2207579</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>1540145</v>
+      </c>
+      <c r="E32">
+        <v>1540744</v>
+      </c>
+      <c r="F32">
+        <v>1537202</v>
+      </c>
+      <c r="G32">
+        <v>1541494</v>
+      </c>
+      <c r="H32">
+        <v>1541303</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>440504</v>
+      </c>
+      <c r="E33">
+        <v>438069</v>
+      </c>
+      <c r="F33">
+        <v>440419</v>
+      </c>
+      <c r="G33">
+        <v>440879</v>
+      </c>
+      <c r="H33">
+        <v>439616</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1755945</v>
+      </c>
+      <c r="E34">
+        <v>1745228</v>
+      </c>
+      <c r="F34">
+        <v>1746757</v>
+      </c>
+      <c r="G34">
+        <v>1753277</v>
+      </c>
+      <c r="H34">
+        <v>1753688</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>1614299</v>
+      </c>
+      <c r="E35">
+        <v>1625232</v>
+      </c>
+      <c r="F35">
+        <v>1617464</v>
+      </c>
+      <c r="G35">
+        <v>1618932</v>
+      </c>
+      <c r="H35">
+        <v>1613618</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>2212938</v>
+      </c>
+      <c r="E36">
+        <v>2199267</v>
+      </c>
+      <c r="F36">
+        <v>2211527</v>
+      </c>
+      <c r="G36">
+        <v>2215036</v>
+      </c>
+      <c r="H36">
+        <v>2204474</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>1625766</v>
+      </c>
+      <c r="E38">
+        <v>1624105</v>
+      </c>
+      <c r="F38">
+        <v>1609029</v>
+      </c>
+      <c r="G38">
+        <v>1620742</v>
+      </c>
+      <c r="H38">
+        <v>1615460</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>443957</v>
+      </c>
+      <c r="E39">
+        <v>443706</v>
+      </c>
+      <c r="F39">
+        <v>441014</v>
+      </c>
+      <c r="G39">
+        <v>442086</v>
+      </c>
+      <c r="H39">
+        <v>443625</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>1618958</v>
+      </c>
+      <c r="E41">
+        <v>1615979</v>
+      </c>
+      <c r="F41">
+        <v>1619191</v>
+      </c>
+      <c r="G41">
+        <v>1611124</v>
+      </c>
+      <c r="H41">
+        <v>1622446</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>437617</v>
+      </c>
+      <c r="E42">
+        <v>439680</v>
+      </c>
+      <c r="F42">
+        <v>438760</v>
+      </c>
+      <c r="G42">
+        <v>437936</v>
+      </c>
+      <c r="H42">
+        <v>438610</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G17 K17">
+    <cfRule type="top10" dxfId="29" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18 K18">
+    <cfRule type="top10" dxfId="28" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19 K19">
+    <cfRule type="top10" dxfId="27" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20 K20">
+    <cfRule type="top10" dxfId="26" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21 K21">
+    <cfRule type="top10" dxfId="25" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/Excel Sheets/First Comparison.xlsx
+++ b/Results/Excel Sheets/First Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\IST\Master Thesis\MADCoM\Results\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253B368-2C40-460D-B2F1-64506086B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE36A8A0-DC01-4D37-BD4E-035C7863B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
   </bookViews>
@@ -17,7 +17,9 @@
     <sheet name="UHGS" sheetId="1" r:id="rId2"/>
     <sheet name="MADCoM (Only HD)" sheetId="2" r:id="rId3"/>
     <sheet name="MADCoM (HD+RCO)" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="HD Fraction" sheetId="6" r:id="rId5"/>
+    <sheet name="Mutation Probability" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="26">
   <si>
     <t>Instance</t>
   </si>
@@ -107,10 +109,16 @@
     <t>madcom</t>
   </si>
   <si>
-    <t>madcom_hd</t>
+    <t>gencarp</t>
   </si>
   <si>
-    <t>gencarp</t>
+    <t>madcom -hdf 0</t>
+  </si>
+  <si>
+    <t>madcom -hdf 0.5</t>
+  </si>
+  <si>
+    <t>NºTasks</t>
   </si>
 </sst>
 </file>
@@ -396,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -450,14 +458,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,13 +473,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,7 +503,112 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1005,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEBC759-3513-4B3C-9D29-C75598F3A089}">
   <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,64 +1143,64 @@
   <sheetData>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="46" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="46" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="46" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="48"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="49" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="49" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="49" t="s">
+      <c r="M4" s="44"/>
+      <c r="N4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="49" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="49" t="s">
+      <c r="Q4" s="44"/>
+      <c r="R4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="50"/>
-      <c r="T4" s="49" t="s">
+      <c r="S4" s="44"/>
+      <c r="T4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="50"/>
+      <c r="U4" s="44"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="str">
@@ -1139,7 +1265,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -1213,7 +1339,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1411,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1483,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
@@ -1429,7 +1555,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
@@ -1548,51 +1674,51 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="46" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="46" t="s">
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="49" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="49" t="s">
+      <c r="I14" s="44"/>
+      <c r="J14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="49" t="s">
+      <c r="K14" s="44"/>
+      <c r="L14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="49" t="s">
+      <c r="M14" s="44"/>
+      <c r="N14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="49" t="s">
+      <c r="O14" s="44"/>
+      <c r="P14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="50"/>
+      <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
@@ -1647,7 +1773,7 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1669,11 +1795,11 @@
       </c>
       <c r="H16" s="23">
         <f>UHGS!R18</f>
-        <v>1619020.4</v>
+        <v>1620200.3</v>
       </c>
       <c r="I16" s="12">
         <f>UHGS!S18</f>
-        <v>1.0480025015150662E-2</v>
+        <v>1.1216436601759305E-2</v>
       </c>
       <c r="J16" s="23">
         <f>'MADCoM (Only HD)'!P19</f>
@@ -1693,24 +1819,24 @@
       </c>
       <c r="N16" s="23">
         <f>'MADCoM (HD+RCO)'!P19</f>
-        <v>1616141</v>
+        <v>1615150</v>
       </c>
       <c r="O16" s="14">
         <f>'MADCoM (HD+RCO)'!Q19</f>
-        <v>8.6829036298805562E-3</v>
+        <v>8.0643902962684866E-3</v>
       </c>
       <c r="P16" s="23">
         <f>'MADCoM (HD+RCO)'!R19</f>
-        <v>1619840</v>
+        <v>1618980.2</v>
       </c>
       <c r="Q16" s="12">
         <f>'MADCoM (HD+RCO)'!S19</f>
-        <v>1.0991562379659925E-2</v>
+        <v>1.0454934968721741E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1730,11 +1856,11 @@
       </c>
       <c r="H17" s="22">
         <f>UHGS!R19</f>
-        <v>442877.6</v>
+        <v>442882.9</v>
       </c>
       <c r="I17" s="13">
         <f>UHGS!S19</f>
-        <v>-6.7251041997940297E-2</v>
+        <v>-6.7239879614750309E-2</v>
       </c>
       <c r="J17" s="22">
         <f>'MADCoM (Only HD)'!P20</f>
@@ -1762,15 +1888,15 @@
       </c>
       <c r="P17" s="22">
         <f>'MADCoM (HD+RCO)'!R20</f>
-        <v>440548.8</v>
+        <v>440124.6</v>
       </c>
       <c r="Q17" s="13">
         <f>'MADCoM (HD+RCO)'!S20</f>
-        <v>-7.2155751049369332E-2</v>
+        <v>-7.3049162926566269E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1790,11 +1916,11 @@
       </c>
       <c r="H18" s="22">
         <f>UHGS!R20</f>
-        <v>1540668</v>
+        <v>1540647.7</v>
       </c>
       <c r="I18" s="13">
         <f>UHGS!S20</f>
-        <v>3.7722867876144317E-3</v>
+        <v>3.7590609807425235E-3</v>
       </c>
       <c r="J18" s="22">
         <f>'MADCoM (Only HD)'!P21</f>
@@ -1822,15 +1948,15 @@
       </c>
       <c r="P18" s="22">
         <f>'MADCoM (HD+RCO)'!R21</f>
-        <v>1537170</v>
+        <v>1539651.6</v>
       </c>
       <c r="Q18" s="13">
         <f>'MADCoM (HD+RCO)'!S21</f>
-        <v>1.4932782931282862E-3</v>
+        <v>3.1100843194051819E-3</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="19" t="s">
         <v>8</v>
       </c>
@@ -1842,19 +1968,19 @@
       </c>
       <c r="F19" s="22">
         <f>UHGS!P21</f>
-        <v>1759289</v>
+        <v>1751683</v>
       </c>
       <c r="G19" s="15">
         <f>UHGS!Q21</f>
-        <v>5.9811450976625657E-3</v>
+        <v>1.6319491499741101E-3</v>
       </c>
       <c r="H19" s="22">
         <f>UHGS!R21</f>
-        <v>1760673.4</v>
+        <v>1758796.5</v>
       </c>
       <c r="I19" s="13">
         <f>UHGS!S21</f>
-        <v>6.7727605157508197E-3</v>
+        <v>5.6995280842209173E-3</v>
       </c>
       <c r="J19" s="22">
         <f>'MADCoM (Only HD)'!P22</f>
@@ -1882,15 +2008,15 @@
       </c>
       <c r="P19" s="22">
         <f>'MADCoM (HD+RCO)'!R22</f>
-        <v>1751851.8</v>
+        <v>1751036.5</v>
       </c>
       <c r="Q19" s="13">
         <f>'MADCoM (HD+RCO)'!S22</f>
-        <v>1.7284708796572179E-3</v>
+        <v>1.262273212532472E-3</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
@@ -1910,11 +2036,11 @@
       </c>
       <c r="H20" s="32">
         <f>UHGS!R22</f>
-        <v>2212587.4</v>
+        <v>2214564.6</v>
       </c>
       <c r="I20" s="34">
         <f>UHGS!S22</f>
-        <v>6.0530856759613005E-3</v>
+        <v>6.9521092178104205E-3</v>
       </c>
       <c r="J20" s="32">
         <f>'MADCoM (Only HD)'!P23</f>
@@ -1934,31 +2060,24 @@
       </c>
       <c r="N20" s="32">
         <f>'MADCoM (HD+RCO)'!P23</f>
-        <v>2200799</v>
+        <v>2197230</v>
       </c>
       <c r="O20" s="33">
         <f>'MADCoM (HD+RCO)'!Q23</f>
-        <v>6.9295563310634023E-4</v>
+        <v>-9.2985188300687138E-4</v>
       </c>
       <c r="P20" s="32">
         <f>'MADCoM (HD+RCO)'!R23</f>
-        <v>2208411.6</v>
+        <v>2206541.1</v>
       </c>
       <c r="Q20" s="34">
         <f>'MADCoM (HD+RCO)'!S23</f>
-        <v>4.1543690534380229E-3</v>
+        <v>3.3038614998124327E-3</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="R4:S4"/>
@@ -1975,51 +2094,58 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="14" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="13" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="12" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 K16 O16">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17 K17 O17">
-    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 K18 O18">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 K19 O19">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 K20 O20">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16 M16 Q16">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17 M17 Q17">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 M18 Q18">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19 M19 Q19">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20 M20 Q20">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2030,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DDFC1-B6AB-4CF0-8361-830B07542BB7}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="B13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2170,7 @@
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="24"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="51"/>
@@ -2055,7 +2181,7 @@
       <c r="L2" s="51"/>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
-      <c r="O2" s="50"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
@@ -2097,21 +2223,21 @@
       <c r="O3" s="4">
         <v>10</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="49" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="50"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -2179,7 +2305,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="44"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -2245,7 +2371,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -2311,7 +2437,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -2377,7 +2503,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -2443,7 +2569,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -2465,7 +2591,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -2486,7 +2612,7 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
+      <c r="B11" s="49"/>
       <c r="E11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
@@ -2495,7 +2621,7 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
+      <c r="B12" s="49"/>
       <c r="E12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
@@ -2504,7 +2630,7 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="49"/>
       <c r="E13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
@@ -2541,7 +2667,7 @@
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="51"/>
@@ -2552,7 +2678,7 @@
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
-      <c r="O16" s="50"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
@@ -2595,20 +2721,20 @@
       <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="49" t="s">
+      <c r="P17" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="49" t="s">
+      <c r="Q17" s="44"/>
+      <c r="R17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="50"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="str">
@@ -2638,11 +2764,21 @@
       <c r="J18" s="23">
         <v>1615460</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="16"/>
+      <c r="K18" s="5">
+        <v>1623492</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1626324</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1618946</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1621087</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1617052</v>
+      </c>
       <c r="P18" s="5">
         <f t="shared" ref="P18:P21" si="10">MIN(F18:O18)</f>
         <v>1609029</v>
@@ -2653,19 +2789,19 @@
       </c>
       <c r="R18" s="5">
         <f t="shared" ref="R18:R21" si="12">AVERAGE(F18:O18)</f>
-        <v>1619020.4</v>
+        <v>1620200.3</v>
       </c>
       <c r="S18" s="13">
         <f t="shared" ref="S18:S21" si="13">R18/E18-1</f>
-        <v>1.0480025015150662E-2</v>
+        <v>1.1216436601759305E-2</v>
       </c>
       <c r="T18" s="21">
         <f t="shared" ref="T18:T21" si="14">_xlfn.STDEV.P(F18:O18)</f>
-        <v>6112.6868920303787</v>
+        <v>5043.7269365024122</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -2693,11 +2829,21 @@
       <c r="J19" s="22">
         <v>443625</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="17"/>
+      <c r="K19" s="5">
+        <v>442949</v>
+      </c>
+      <c r="L19" s="5">
+        <v>443012</v>
+      </c>
+      <c r="M19" s="5">
+        <v>442381</v>
+      </c>
+      <c r="N19" s="5">
+        <v>443459</v>
+      </c>
+      <c r="O19" s="17">
+        <v>442640</v>
+      </c>
       <c r="P19" s="5">
         <f t="shared" si="10"/>
         <v>441014</v>
@@ -2708,19 +2854,19 @@
       </c>
       <c r="R19" s="5">
         <f t="shared" si="12"/>
-        <v>442877.6</v>
+        <v>442882.9</v>
       </c>
       <c r="S19" s="13">
         <f t="shared" si="13"/>
-        <v>-6.7251041997940297E-2</v>
+        <v>-6.7239879614750309E-2</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="14"/>
-        <v>1141.0164941840237</v>
+        <v>846.9690017940444</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -2748,11 +2894,21 @@
       <c r="J20" s="22">
         <v>1540492</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="17"/>
+      <c r="K20" s="5">
+        <v>1541798</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1537730</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1540414</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1541009</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1542186</v>
+      </c>
       <c r="P20" s="5">
         <f t="shared" si="10"/>
         <v>1537164</v>
@@ -2763,19 +2919,19 @@
       </c>
       <c r="R20" s="5">
         <f t="shared" si="12"/>
-        <v>1540668</v>
+        <v>1540647.7</v>
       </c>
       <c r="S20" s="13">
         <f t="shared" si="13"/>
-        <v>3.7722867876144317E-3</v>
+        <v>3.7590609807425235E-3</v>
       </c>
       <c r="T20" s="21">
         <f t="shared" si="14"/>
-        <v>1877.4541272691592</v>
+        <v>1732.4524264752556</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -2803,34 +2959,44 @@
       <c r="J21" s="22">
         <v>1759289</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="17"/>
+      <c r="K21" s="5">
+        <v>1751683</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1761838</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1759900</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1757075</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1754102</v>
+      </c>
       <c r="P21" s="5">
         <f t="shared" si="10"/>
-        <v>1759289</v>
+        <v>1751683</v>
       </c>
       <c r="Q21" s="13">
         <f t="shared" si="11"/>
-        <v>5.9811450976625657E-3</v>
+        <v>1.6319491499741101E-3</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="12"/>
-        <v>1760673.4</v>
+        <v>1758796.5</v>
       </c>
       <c r="S21" s="13">
         <f t="shared" si="13"/>
-        <v>6.7727605157508197E-3</v>
+        <v>5.6995280842209173E-3</v>
       </c>
       <c r="T21" s="21">
         <f t="shared" si="14"/>
-        <v>1516.6827750060327</v>
+        <v>3393.9300302157085</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -2858,11 +3024,21 @@
       <c r="J22" s="22">
         <v>2213153</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="17"/>
+      <c r="K22" s="5">
+        <v>2215283</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2221902</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2219764</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2213029</v>
+      </c>
+      <c r="O22" s="17">
+        <v>2212731</v>
+      </c>
       <c r="P22" s="5">
         <f t="shared" ref="P22" si="15">MIN(F22:O22)</f>
         <v>2207166</v>
@@ -2873,19 +3049,19 @@
       </c>
       <c r="R22" s="5">
         <f t="shared" ref="R22" si="17">AVERAGE(F22:O22)</f>
-        <v>2212587.4</v>
+        <v>2214564.6</v>
       </c>
       <c r="S22" s="13">
         <f t="shared" ref="S22" si="18">R22/E22-1</f>
-        <v>6.0530856759613005E-3</v>
+        <v>6.9521092178104205E-3</v>
       </c>
       <c r="T22" s="21">
         <f t="shared" ref="T22" si="19">_xlfn.STDEV.P(F22:O22)</f>
-        <v>2903.0921859286523</v>
+        <v>3857.379607972231</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="11"/>
       <c r="D23" s="21"/>
       <c r="E23" s="17"/>
@@ -2906,7 +3082,7 @@
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -2927,7 +3103,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -2948,7 +3124,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -2969,7 +3145,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -3027,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9784B514-066C-4E5B-AFC3-BF5602F4CDA8}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="C13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3217,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="51"/>
@@ -3052,7 +3228,7 @@
       <c r="L2" s="51"/>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
-      <c r="O2" s="50"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
@@ -3095,21 +3271,21 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="49" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="50"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -3177,7 +3353,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="44"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -3243,7 +3419,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -3309,7 +3485,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -3375,7 +3551,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -3441,7 +3617,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -3463,7 +3639,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -3485,7 +3661,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
@@ -3497,7 +3673,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
@@ -3509,7 +3685,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
@@ -3521,7 +3697,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -3544,7 +3720,7 @@
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="51"/>
@@ -3555,7 +3731,7 @@
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
-      <c r="O17" s="50"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -3598,20 +3774,20 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="49" t="s">
+      <c r="P18" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="49" t="s">
+      <c r="Q18" s="44"/>
+      <c r="R18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="50"/>
+      <c r="S18" s="44"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="str">
@@ -3678,7 +3854,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -3743,7 +3919,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -3808,7 +3984,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -3873,7 +4049,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -3938,7 +4114,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -3959,7 +4135,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -3980,7 +4156,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -4001,7 +4177,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -4022,7 +4198,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -4062,106 +4238,6 @@
       <c r="S29" s="13"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>1540145</v>
-      </c>
-      <c r="G31">
-        <v>1540744</v>
-      </c>
-      <c r="H31">
-        <v>1537202</v>
-      </c>
-      <c r="I31">
-        <v>1541494</v>
-      </c>
-      <c r="J31">
-        <v>1541303</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32">
-        <v>440504</v>
-      </c>
-      <c r="G32">
-        <v>438069</v>
-      </c>
-      <c r="H32">
-        <v>440419</v>
-      </c>
-      <c r="I32">
-        <v>440879</v>
-      </c>
-      <c r="J32">
-        <v>439616</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>1755945</v>
-      </c>
-      <c r="G33">
-        <v>1745228</v>
-      </c>
-      <c r="H33">
-        <v>1746757</v>
-      </c>
-      <c r="I33">
-        <v>1753277</v>
-      </c>
-      <c r="J33">
-        <v>1753688</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34">
-        <v>1614299</v>
-      </c>
-      <c r="G34">
-        <v>1625232</v>
-      </c>
-      <c r="H34">
-        <v>1617464</v>
-      </c>
-      <c r="I34">
-        <v>1618932</v>
-      </c>
-      <c r="J34">
-        <v>1613618</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>2212938</v>
-      </c>
-      <c r="G35">
-        <v>2199267</v>
-      </c>
-      <c r="H35">
-        <v>2211527</v>
-      </c>
-      <c r="I35">
-        <v>2215036</v>
-      </c>
-      <c r="J35">
-        <v>2204474</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:B14"/>
@@ -4179,17 +4255,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A981BF-362D-4F38-A22D-B817C4C20373}">
-  <dimension ref="B1:T37"/>
+  <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="51"/>
@@ -4200,7 +4276,7 @@
       <c r="L2" s="51"/>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
-      <c r="O2" s="50"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
@@ -4243,20 +4319,20 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="49" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="50"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -4323,7 +4399,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -4388,7 +4464,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -4453,7 +4529,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -4518,7 +4594,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -4583,7 +4659,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -4604,7 +4680,7 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -4615,7 +4691,7 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
@@ -4626,7 +4702,7 @@
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
@@ -4637,7 +4713,7 @@
       <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
@@ -4658,7 +4734,7 @@
       <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -4681,7 +4757,7 @@
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="51"/>
@@ -4692,7 +4768,7 @@
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
-      <c r="O17" s="50"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -4735,20 +4811,20 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="49" t="s">
+      <c r="P18" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="49" t="s">
+      <c r="Q18" s="44"/>
+      <c r="R18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="50"/>
+      <c r="S18" s="44"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="str">
@@ -4778,34 +4854,44 @@
       <c r="J19" s="23">
         <v>1618439</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="16"/>
+      <c r="K19" s="22">
+        <v>1615150</v>
+      </c>
+      <c r="L19" s="22">
+        <v>1617012</v>
+      </c>
+      <c r="M19" s="22">
+        <v>1617326</v>
+      </c>
+      <c r="N19" s="22">
+        <v>1622562</v>
+      </c>
+      <c r="O19" s="16">
+        <v>1618552</v>
+      </c>
       <c r="P19" s="5">
         <f t="shared" ref="P19:P22" si="5">MIN(F19:O19)</f>
-        <v>1616141</v>
+        <v>1615150</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" ref="Q19:Q22" si="6">P19/E19-1</f>
-        <v>8.6829036298805562E-3</v>
+        <v>8.0643902962684866E-3</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" ref="R19:R22" si="7">AVERAGE(F19:O19)</f>
-        <v>1619840</v>
+        <v>1618980.2</v>
       </c>
       <c r="S19" s="13">
         <f t="shared" ref="S19:S22" si="8">R19/E19-1</f>
-        <v>1.0991562379659925E-2</v>
+        <v>1.0454934968721741E-2</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" ref="T19:T22" si="9">_xlfn.STDEV.P(F19:O19)</f>
-        <v>3748.2120537664355</v>
+        <v>3289.9090504146161</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -4833,11 +4919,21 @@
       <c r="J20" s="22">
         <v>440968</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="17"/>
+      <c r="K20" s="22">
+        <v>439288</v>
+      </c>
+      <c r="L20" s="22">
+        <v>440028</v>
+      </c>
+      <c r="M20" s="22">
+        <v>438495</v>
+      </c>
+      <c r="N20" s="22">
+        <v>441678</v>
+      </c>
+      <c r="O20" s="17">
+        <v>439013</v>
+      </c>
       <c r="P20" s="5">
         <f t="shared" si="5"/>
         <v>438152</v>
@@ -4848,19 +4944,19 @@
       </c>
       <c r="R20" s="5">
         <f t="shared" si="7"/>
-        <v>440548.8</v>
+        <v>440124.6</v>
       </c>
       <c r="S20" s="13">
         <f t="shared" si="8"/>
-        <v>-7.2155751049369332E-2</v>
+        <v>-7.3049162926566269E-2</v>
       </c>
       <c r="T20" s="21">
         <f t="shared" si="9"/>
-        <v>1558.8409027222758</v>
+        <v>1416.4457772890567</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -4888,11 +4984,21 @@
       <c r="J21" s="22">
         <v>1539399</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="17"/>
+      <c r="K21" s="22">
+        <v>1539984</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1542887</v>
+      </c>
+      <c r="M21" s="22">
+        <v>1544364</v>
+      </c>
+      <c r="N21" s="22">
+        <v>1539822</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1543609</v>
+      </c>
       <c r="P21" s="5">
         <f t="shared" si="5"/>
         <v>1536020</v>
@@ -4903,19 +5009,19 @@
       </c>
       <c r="R21" s="5">
         <f t="shared" si="7"/>
-        <v>1537170</v>
+        <v>1539651.6</v>
       </c>
       <c r="S21" s="13">
         <f t="shared" si="8"/>
-        <v>1.4932782931282862E-3</v>
+        <v>3.1100843194051819E-3</v>
       </c>
       <c r="T21" s="21">
         <f t="shared" si="9"/>
-        <v>1189.393290715901</v>
+        <v>2938.3676148501231</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -4943,11 +5049,21 @@
       <c r="J22" s="22">
         <v>1747257</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="17"/>
+      <c r="K22" s="22">
+        <v>1743655</v>
+      </c>
+      <c r="L22" s="22">
+        <v>1748435</v>
+      </c>
+      <c r="M22" s="22">
+        <v>1753707</v>
+      </c>
+      <c r="N22" s="22">
+        <v>1752295</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1753014</v>
+      </c>
       <c r="P22" s="5">
         <f t="shared" si="5"/>
         <v>1743514</v>
@@ -4958,19 +5074,19 @@
       </c>
       <c r="R22" s="5">
         <f t="shared" si="7"/>
-        <v>1751851.8</v>
+        <v>1751036.5</v>
       </c>
       <c r="S22" s="13">
         <f t="shared" si="8"/>
-        <v>1.7284708796572179E-3</v>
+        <v>1.262273212532472E-3</v>
       </c>
       <c r="T22" s="21">
         <f t="shared" si="9"/>
-        <v>8098.8895633907741</v>
+        <v>6365.248420132556</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -4998,34 +5114,44 @@
       <c r="J23" s="22">
         <v>2207579</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="17"/>
+      <c r="K23" s="22">
+        <v>2212138</v>
+      </c>
+      <c r="L23" s="22">
+        <v>2201416</v>
+      </c>
+      <c r="M23" s="22">
+        <v>2213151</v>
+      </c>
+      <c r="N23" s="22">
+        <v>2199418</v>
+      </c>
+      <c r="O23" s="17">
+        <v>2197230</v>
+      </c>
       <c r="P23" s="5">
         <f t="shared" ref="P23" si="10">MIN(F23:O23)</f>
-        <v>2200799</v>
+        <v>2197230</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" ref="Q23" si="11">P23/E23-1</f>
-        <v>6.9295563310634023E-4</v>
+        <v>-9.2985188300687138E-4</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" ref="R23" si="12">AVERAGE(F23:O23)</f>
-        <v>2208411.6</v>
+        <v>2206541.1</v>
       </c>
       <c r="S23" s="13">
         <f t="shared" ref="S23" si="13">R23/E23-1</f>
-        <v>4.1543690534380229E-3</v>
+        <v>3.3038614998124327E-3</v>
       </c>
       <c r="T23" s="21">
         <f t="shared" ref="T23" si="14">_xlfn.STDEV.P(F23:O23)</f>
-        <v>4717.0362559556397</v>
+        <v>6061.8797488897781</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -5046,7 +5172,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -5067,7 +5193,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -5088,7 +5214,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -5109,7 +5235,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -5149,106 +5275,6 @@
       <c r="S29" s="13"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33">
-        <v>1536913</v>
-      </c>
-      <c r="F33">
-        <v>1537194</v>
-      </c>
-      <c r="G33">
-        <v>1536324</v>
-      </c>
-      <c r="H33">
-        <v>1536020</v>
-      </c>
-      <c r="I33">
-        <v>1539399</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>442738</v>
-      </c>
-      <c r="F34">
-        <v>439602</v>
-      </c>
-      <c r="G34">
-        <v>441284</v>
-      </c>
-      <c r="H34">
-        <v>438152</v>
-      </c>
-      <c r="I34">
-        <v>440968</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>1745180</v>
-      </c>
-      <c r="F35">
-        <v>1761084</v>
-      </c>
-      <c r="G35">
-        <v>1743514</v>
-      </c>
-      <c r="H35">
-        <v>1762224</v>
-      </c>
-      <c r="I35">
-        <v>1747257</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>1622228</v>
-      </c>
-      <c r="F36">
-        <v>1616441</v>
-      </c>
-      <c r="G36">
-        <v>1616141</v>
-      </c>
-      <c r="H36">
-        <v>1625951</v>
-      </c>
-      <c r="I36">
-        <v>1618439</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>2210329</v>
-      </c>
-      <c r="F37">
-        <v>2207959</v>
-      </c>
-      <c r="G37">
-        <v>2200799</v>
-      </c>
-      <c r="H37">
-        <v>2215392</v>
-      </c>
-      <c r="I37">
-        <v>2207579</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B19:B28"/>
@@ -5265,61 +5291,1379 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AACEDC-A0D0-42F4-BC04-689F8C4AA144}">
+  <dimension ref="B2:T36"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="56">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="56">
+        <f>B27</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="56">
+        <v>1</v>
+      </c>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="44"/>
+      <c r="N4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>375</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1602229</v>
+      </c>
+      <c r="F6" s="23">
+        <f>P18</f>
+        <v>1620274</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:I6" si="0">Q18</f>
+        <v>1.1262435020212402E-2</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="0"/>
+        <v>1626975.6</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5445108033870447E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <f>P27</f>
+        <v>1615397</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" ref="K6:M6" si="1">Q27</f>
+        <v>8.2185505317904362E-3</v>
+      </c>
+      <c r="L6" s="23">
+        <f t="shared" si="1"/>
+        <v>1621380.2</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1952848188367504E-2</v>
+      </c>
+      <c r="N6" s="23">
+        <f>Comparison!N6</f>
+        <v>1615420</v>
+      </c>
+      <c r="O6" s="14">
+        <f>Comparison!O6</f>
+        <v>8.2329055334786627E-3</v>
+      </c>
+      <c r="P6" s="23">
+        <f>Comparison!P6</f>
+        <v>1621760.4</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>Comparison!Q6</f>
+        <v>1.2190142607579668E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11">
+        <v>780</v>
+      </c>
+      <c r="E7" s="17">
+        <v>474809</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" ref="F7:F10" si="2">P19</f>
+        <v>444008</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" ref="G7:G10" si="3">Q19</f>
+        <v>-6.4870295213443674E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" ref="H7:H10" si="4">R19</f>
+        <v>444821</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" ref="I7:I10" si="5">S19</f>
+        <v>-6.3158027754318002E-2</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" ref="J7:J10" si="6">P28</f>
+        <v>438336</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" ref="K7:K10" si="7">Q28</f>
+        <v>-7.6816151336642768E-2</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" ref="L7:L10" si="8">R28</f>
+        <v>440418.8</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" ref="M7:M10" si="9">S28</f>
+        <v>-7.242954535402657E-2</v>
+      </c>
+      <c r="N7" s="22">
+        <f>Comparison!N7</f>
+        <v>439830</v>
+      </c>
+      <c r="O7" s="15">
+        <f>Comparison!O7</f>
+        <v>-7.3669622943120294E-2</v>
+      </c>
+      <c r="P7" s="22">
+        <f>Comparison!P7</f>
+        <v>441952.2</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>Comparison!Q7</f>
+        <v>-6.9200036225092632E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="49"/>
+      <c r="C8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1075</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1534878</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="2"/>
+        <v>1543703</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7496426426073555E-3</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="4"/>
+        <v>1546118.8</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="5"/>
+        <v>7.3235788121270851E-3</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="6"/>
+        <v>1545396</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="7"/>
+        <v>6.8526619053761451E-3</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="8"/>
+        <v>1546848.2</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="9"/>
+        <v>7.7987957349052728E-3</v>
+      </c>
+      <c r="N8" s="22">
+        <f>Comparison!N8</f>
+        <v>1540668</v>
+      </c>
+      <c r="O8" s="15">
+        <f>Comparison!O8</f>
+        <v>3.7722867876144317E-3</v>
+      </c>
+      <c r="P8" s="22">
+        <f>Comparison!P8</f>
+        <v>1543291.1</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>Comparison!Q8</f>
+        <v>5.4812825514471974E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="49"/>
+      <c r="C9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1748829</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="2"/>
+        <v>1768517</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1257818803324993E-2</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="4"/>
+        <v>1773346.6</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="5"/>
+        <v>1.4019438149756258E-2</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="6"/>
+        <v>1759054</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="7"/>
+        <v>5.8467694668833392E-3</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="8"/>
+        <v>1763535.6</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="9"/>
+        <v>8.4093985175224262E-3</v>
+      </c>
+      <c r="N9" s="22">
+        <f>Comparison!N9</f>
+        <v>1757911</v>
+      </c>
+      <c r="O9" s="15">
+        <f>Comparison!O9</f>
+        <v>5.1931892712209216E-3</v>
+      </c>
+      <c r="P9" s="22">
+        <f>Comparison!P9</f>
+        <v>1765520.7</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>Comparison!Q9</f>
+        <v>9.5445009203301012E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="50"/>
+      <c r="C10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1792</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2199275</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="2"/>
+        <v>2219441</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="3"/>
+        <v>9.1693853656318325E-3</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="4"/>
+        <v>2227392.6</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="5"/>
+        <v>1.278494049175305E-2</v>
+      </c>
+      <c r="J10" s="32">
+        <f t="shared" si="6"/>
+        <v>2209445</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" si="7"/>
+        <v>4.6242511736822589E-3</v>
+      </c>
+      <c r="L10" s="32">
+        <f t="shared" si="8"/>
+        <v>2216271</v>
+      </c>
+      <c r="M10" s="34">
+        <f t="shared" si="9"/>
+        <v>7.7280012731468783E-3</v>
+      </c>
+      <c r="N10" s="32">
+        <f>Comparison!N10</f>
+        <v>2204970</v>
+      </c>
+      <c r="O10" s="33">
+        <f>Comparison!O10</f>
+        <v>2.5894897182026089E-3</v>
+      </c>
+      <c r="P10" s="32">
+        <f>Comparison!P10</f>
+        <v>2215325.7000000002</v>
+      </c>
+      <c r="Q10" s="34">
+        <f>Comparison!Q10</f>
+        <v>7.2981778085960958E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7</v>
+      </c>
+      <c r="M17" s="4">
+        <v>8</v>
+      </c>
+      <c r="N17" s="4">
+        <v>9</v>
+      </c>
+      <c r="O17" s="2">
+        <v>10</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="44"/>
+      <c r="T17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18:E18" si="10">D6</f>
+        <v>375</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="10"/>
+        <v>1602229</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1621652</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1634999</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1633269</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1624684</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1620274</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="5">
+        <f>MIN(F18:O18)</f>
+        <v>1620274</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>P18/E18-1</f>
+        <v>1.1262435020212402E-2</v>
+      </c>
+      <c r="R18" s="5">
+        <f>AVERAGE(F18:O18)</f>
+        <v>1626975.6</v>
+      </c>
+      <c r="S18" s="13">
+        <f>R18/E18-1</f>
+        <v>1.5445108033870447E-2</v>
+      </c>
+      <c r="T18" s="21">
+        <f>_xlfn.STDEV.P(F18:O18)</f>
+        <v>6041.2816719633265</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="53"/>
+      <c r="C19" s="19" t="str">
+        <f t="shared" ref="C19:E19" si="11">C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="11"/>
+        <v>474809</v>
+      </c>
+      <c r="F19" s="5">
+        <v>444906</v>
+      </c>
+      <c r="G19" s="5">
+        <v>445548</v>
+      </c>
+      <c r="H19" s="5">
+        <v>444660</v>
+      </c>
+      <c r="I19" s="5">
+        <v>444008</v>
+      </c>
+      <c r="J19" s="22">
+        <v>444983</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="5">
+        <f t="shared" ref="P19:P22" si="12">MIN(F19:O19)</f>
+        <v>444008</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" ref="Q19:Q22" si="13">P19/E19-1</f>
+        <v>-6.4870295213443674E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" ref="R19:R22" si="14">AVERAGE(F19:O19)</f>
+        <v>444821</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" ref="S19:S22" si="15">R19/E19-1</f>
+        <v>-6.3158027754318002E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" ref="T19:T22" si="16">_xlfn.STDEV.P(F19:O19)</f>
+        <v>499.77755051622717</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="19" t="str">
+        <f t="shared" ref="C20:E20" si="17">C8</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="17"/>
+        <v>1075</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="17"/>
+        <v>1534878</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1543703</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1544972</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1547652</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1549337</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1544930</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="5">
+        <f t="shared" si="12"/>
+        <v>1543703</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="13"/>
+        <v>5.7496426426073555E-3</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="14"/>
+        <v>1546118.8</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="15"/>
+        <v>7.3235788121270851E-3</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" si="16"/>
+        <v>2062.6196353181554</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="19" t="str">
+        <f t="shared" ref="C21:E21" si="18">C9</f>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="18"/>
+        <v>1212</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="18"/>
+        <v>1748829</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1776990</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1772324</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1770664</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1768517</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1778238</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="5">
+        <f t="shared" si="12"/>
+        <v>1768517</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="13"/>
+        <v>1.1257818803324993E-2</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="14"/>
+        <v>1773346.6</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="15"/>
+        <v>1.4019438149756258E-2</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="16"/>
+        <v>3708.5643367750813</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="30" t="str">
+        <f t="shared" ref="C22:E22" si="19">C10</f>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="19"/>
+        <v>1792</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="19"/>
+        <v>2199275</v>
+      </c>
+      <c r="F22" s="32">
+        <v>2227071</v>
+      </c>
+      <c r="G22" s="32">
+        <v>2228918</v>
+      </c>
+      <c r="H22" s="32">
+        <v>2230846</v>
+      </c>
+      <c r="I22" s="32">
+        <v>2219441</v>
+      </c>
+      <c r="J22" s="32">
+        <v>2230687</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32">
+        <f t="shared" si="12"/>
+        <v>2219441</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" si="13"/>
+        <v>9.1693853656318325E-3</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" si="14"/>
+        <v>2227392.6</v>
+      </c>
+      <c r="S22" s="34">
+        <f t="shared" si="15"/>
+        <v>1.278494049175305E-2</v>
+      </c>
+      <c r="T22" s="54">
+        <f t="shared" si="16"/>
+        <v>4205.6451871264653</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="F25" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="44"/>
+    </row>
+    <row r="26" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>6</v>
+      </c>
+      <c r="L26" s="4">
+        <v>7</v>
+      </c>
+      <c r="M26" s="4">
+        <v>8</v>
+      </c>
+      <c r="N26" s="4">
+        <v>9</v>
+      </c>
+      <c r="O26" s="2">
+        <v>10</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="44"/>
+      <c r="T26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:E27" si="20">D6</f>
+        <v>375</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="20"/>
+        <v>1602229</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1623446</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1621827</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1622575</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1623656</v>
+      </c>
+      <c r="J27" s="23">
+        <v>1615397</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="5">
+        <f>MIN(F27:O27)</f>
+        <v>1615397</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>P27/E27-1</f>
+        <v>8.2185505317904362E-3</v>
+      </c>
+      <c r="R27" s="5">
+        <f>AVERAGE(F27:O27)</f>
+        <v>1621380.2</v>
+      </c>
+      <c r="S27" s="13">
+        <f>R27/E27-1</f>
+        <v>1.1952848188367504E-2</v>
+      </c>
+      <c r="T27" s="21">
+        <f>_xlfn.STDEV.P(F27:O27)</f>
+        <v>3061.7855836096687</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="53"/>
+      <c r="C28" s="19" t="str">
+        <f t="shared" ref="C28:E28" si="21">C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="21"/>
+        <v>780</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="21"/>
+        <v>474809</v>
+      </c>
+      <c r="F28" s="5">
+        <v>441529</v>
+      </c>
+      <c r="G28" s="5">
+        <v>438336</v>
+      </c>
+      <c r="H28" s="5">
+        <v>440769</v>
+      </c>
+      <c r="I28" s="5">
+        <v>441688</v>
+      </c>
+      <c r="J28" s="22">
+        <v>439772</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="5">
+        <f t="shared" ref="P28:P31" si="22">MIN(F28:O28)</f>
+        <v>438336</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" ref="Q28:Q31" si="23">P28/E28-1</f>
+        <v>-7.6816151336642768E-2</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" ref="R28:R31" si="24">AVERAGE(F28:O28)</f>
+        <v>440418.8</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" ref="S28:S31" si="25">R28/E28-1</f>
+        <v>-7.242954535402657E-2</v>
+      </c>
+      <c r="T28" s="21">
+        <f t="shared" ref="T28:T31" si="26">_xlfn.STDEV.P(F28:O28)</f>
+        <v>1242.775828538679</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="53"/>
+      <c r="C29" s="19" t="str">
+        <f t="shared" ref="C29:E29" si="27">C8</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="27"/>
+        <v>1075</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="27"/>
+        <v>1534878</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1546255</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1545396</v>
+      </c>
+      <c r="H29" s="22">
+        <v>1545481</v>
+      </c>
+      <c r="I29" s="22">
+        <v>1549060</v>
+      </c>
+      <c r="J29" s="22">
+        <v>1548049</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="5">
+        <f t="shared" si="22"/>
+        <v>1545396</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="23"/>
+        <v>6.8526619053761451E-3</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="24"/>
+        <v>1546848.2</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="25"/>
+        <v>7.7987957349052728E-3</v>
+      </c>
+      <c r="T29" s="21">
+        <f t="shared" si="26"/>
+        <v>1460.4099972268064</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="53"/>
+      <c r="C30" s="19" t="str">
+        <f t="shared" ref="C30:E30" si="28">C9</f>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="28"/>
+        <v>1212</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="28"/>
+        <v>1748829</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1767092</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1768499</v>
+      </c>
+      <c r="H30" s="22">
+        <v>1760107</v>
+      </c>
+      <c r="I30" s="22">
+        <v>1762926</v>
+      </c>
+      <c r="J30" s="22">
+        <v>1759054</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="5">
+        <f t="shared" si="22"/>
+        <v>1759054</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="23"/>
+        <v>5.8467694668833392E-3</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="24"/>
+        <v>1763535.6</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="25"/>
+        <v>8.4093985175224262E-3</v>
+      </c>
+      <c r="T30" s="21">
+        <f t="shared" si="26"/>
+        <v>3728.135437453956</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="55"/>
+      <c r="C31" s="30" t="str">
+        <f t="shared" ref="C31:E31" si="29">C10</f>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D31" s="24">
+        <f t="shared" si="29"/>
+        <v>1792</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="29"/>
+        <v>2199275</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2222391</v>
+      </c>
+      <c r="G31" s="32">
+        <v>2209445</v>
+      </c>
+      <c r="H31" s="32">
+        <v>2211693</v>
+      </c>
+      <c r="I31" s="32">
+        <v>2218899</v>
+      </c>
+      <c r="J31" s="32">
+        <v>2218927</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32">
+        <f t="shared" si="22"/>
+        <v>2209445</v>
+      </c>
+      <c r="Q31" s="34">
+        <f t="shared" si="23"/>
+        <v>4.6242511736822589E-3</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="24"/>
+        <v>2216271</v>
+      </c>
+      <c r="S31" s="34">
+        <f t="shared" si="25"/>
+        <v>7.7280012731468783E-3</v>
+      </c>
+      <c r="T31" s="54">
+        <f t="shared" si="26"/>
+        <v>4877.857726502486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="28"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="22"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="28"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="22"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="28"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="22"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="22"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="28"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G9 K9 O9">
+    <cfRule type="top10" dxfId="24" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 K10 O10">
+    <cfRule type="top10" dxfId="23" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 K8 O8">
+    <cfRule type="top10" dxfId="22" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 K7 O7">
+    <cfRule type="top10" dxfId="21" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 K6 O6">
+    <cfRule type="top10" dxfId="20" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB94F69-007F-4C31-B54F-A9483762C616}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACEBDDF-2E4A-43BA-9C94-A9709F6384C0}">
-  <dimension ref="C13:Q42"/>
+  <dimension ref="C13:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:H42"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="13" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="46" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="46" t="s">
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="49" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="49" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="49" t="s">
+      <c r="K15" s="44"/>
+      <c r="L15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="49" t="s">
+      <c r="M15" s="44"/>
+      <c r="N15" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="50"/>
-      <c r="P15" s="49" t="s">
+      <c r="O15" s="44"/>
+      <c r="P15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="50"/>
+      <c r="Q15" s="44"/>
     </row>
     <row r="16" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
@@ -5606,7 +6950,10 @@
     <row r="22" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
@@ -5614,104 +6961,197 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>1536913</v>
+        <v>1541798</v>
       </c>
       <c r="E26">
-        <v>1537194</v>
+        <v>1537730</v>
       </c>
       <c r="F26">
-        <v>1536324</v>
+        <v>1540414</v>
       </c>
       <c r="G26">
-        <v>1536020</v>
+        <v>1541009</v>
       </c>
       <c r="H26">
-        <v>1539399</v>
+        <v>1542186</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>1543703</v>
+      </c>
+      <c r="L26">
+        <v>1544972</v>
+      </c>
+      <c r="M26">
+        <v>1547652</v>
+      </c>
+      <c r="N26">
+        <v>1549337</v>
+      </c>
+      <c r="O26">
+        <v>1544930</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>442738</v>
+        <v>1623492</v>
       </c>
       <c r="E27">
-        <v>439602</v>
+        <v>1626324</v>
       </c>
       <c r="F27">
-        <v>441284</v>
+        <v>1618946</v>
       </c>
       <c r="G27">
-        <v>438152</v>
+        <v>1621087</v>
       </c>
       <c r="H27">
-        <v>440968</v>
+        <v>1617052</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>1776990</v>
+      </c>
+      <c r="L27">
+        <v>1772324</v>
+      </c>
+      <c r="M27">
+        <v>1770664</v>
+      </c>
+      <c r="N27">
+        <v>1768517</v>
+      </c>
+      <c r="O27">
+        <v>1778238</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>1745180</v>
+        <v>2215283</v>
       </c>
       <c r="E28">
-        <v>1761084</v>
+        <v>2221902</v>
       </c>
       <c r="F28">
-        <v>1743514</v>
+        <v>2219764</v>
       </c>
       <c r="G28">
-        <v>1762224</v>
+        <v>2213029</v>
       </c>
       <c r="H28">
-        <v>1747257</v>
+        <v>2212731</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>444906</v>
+      </c>
+      <c r="L28">
+        <v>445548</v>
+      </c>
+      <c r="M28">
+        <v>444660</v>
+      </c>
+      <c r="N28">
+        <v>444008</v>
+      </c>
+      <c r="O28">
+        <v>444983</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>1622228</v>
+        <v>1751683</v>
       </c>
       <c r="E29">
-        <v>1616441</v>
+        <v>1761838</v>
       </c>
       <c r="F29">
-        <v>1616141</v>
+        <v>1759900</v>
       </c>
       <c r="G29">
-        <v>1625951</v>
+        <v>1757075</v>
       </c>
       <c r="H29">
-        <v>1618439</v>
+        <v>1754102</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>2227071</v>
+      </c>
+      <c r="L29">
+        <v>2228918</v>
+      </c>
+      <c r="M29">
+        <v>2230846</v>
+      </c>
+      <c r="N29">
+        <v>2219441</v>
+      </c>
+      <c r="O29">
+        <v>2230687</v>
       </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>2210329</v>
+        <v>442949</v>
       </c>
       <c r="E30">
-        <v>2207959</v>
+        <v>443012</v>
       </c>
       <c r="F30">
-        <v>2200799</v>
+        <v>442381</v>
       </c>
       <c r="G30">
-        <v>2215392</v>
+        <v>443459</v>
       </c>
       <c r="H30">
-        <v>2207579</v>
+        <v>442640</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>1621652</v>
+      </c>
+      <c r="L30">
+        <v>1634999</v>
+      </c>
+      <c r="M30">
+        <v>1633269</v>
+      </c>
+      <c r="N30">
+        <v>1624684</v>
+      </c>
+      <c r="O30">
+        <v>1620274</v>
       </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
@@ -5719,189 +7159,189 @@
         <v>14</v>
       </c>
       <c r="D32">
-        <v>1540145</v>
+        <v>1539984</v>
       </c>
       <c r="E32">
-        <v>1540744</v>
+        <v>1542887</v>
       </c>
       <c r="F32">
-        <v>1537202</v>
+        <v>1544364</v>
       </c>
       <c r="G32">
-        <v>1541494</v>
+        <v>1539822</v>
       </c>
       <c r="H32">
-        <v>1541303</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1543609</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>1546255</v>
+      </c>
+      <c r="L32">
+        <v>1545396</v>
+      </c>
+      <c r="M32">
+        <v>1545481</v>
+      </c>
+      <c r="N32">
+        <v>1549060</v>
+      </c>
+      <c r="O32">
+        <v>1548049</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>1615150</v>
+      </c>
+      <c r="E33">
+        <v>1617012</v>
+      </c>
+      <c r="F33">
+        <v>1617326</v>
+      </c>
+      <c r="G33">
+        <v>1622562</v>
+      </c>
+      <c r="H33">
+        <v>1618552</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>1767092</v>
+      </c>
+      <c r="L33">
+        <v>1768499</v>
+      </c>
+      <c r="M33">
+        <v>1760107</v>
+      </c>
+      <c r="N33">
+        <v>1762926</v>
+      </c>
+      <c r="O33">
+        <v>1759054</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>2212138</v>
+      </c>
+      <c r="E34">
+        <v>2201416</v>
+      </c>
+      <c r="F34">
+        <v>2213151</v>
+      </c>
+      <c r="G34">
+        <v>2199418</v>
+      </c>
+      <c r="H34">
+        <v>2197230</v>
+      </c>
+      <c r="J34" t="s">
         <v>13</v>
       </c>
-      <c r="D33">
-        <v>440504</v>
-      </c>
-      <c r="E33">
-        <v>438069</v>
-      </c>
-      <c r="F33">
-        <v>440419</v>
-      </c>
-      <c r="G33">
-        <v>440879</v>
-      </c>
-      <c r="H33">
-        <v>439616</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="K34">
+        <v>441529</v>
+      </c>
+      <c r="L34">
+        <v>438336</v>
+      </c>
+      <c r="M34">
+        <v>440769</v>
+      </c>
+      <c r="N34">
+        <v>441688</v>
+      </c>
+      <c r="O34">
+        <v>439772</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
-        <v>1755945</v>
-      </c>
-      <c r="E34">
-        <v>1745228</v>
-      </c>
-      <c r="F34">
-        <v>1746757</v>
-      </c>
-      <c r="G34">
-        <v>1753277</v>
-      </c>
-      <c r="H34">
-        <v>1753688</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D35">
+        <v>1743655</v>
+      </c>
+      <c r="E35">
+        <v>1748435</v>
+      </c>
+      <c r="F35">
+        <v>1753707</v>
+      </c>
+      <c r="G35">
+        <v>1752295</v>
+      </c>
+      <c r="H35">
+        <v>1753014</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>2222391</v>
+      </c>
+      <c r="L35">
+        <v>2209445</v>
+      </c>
+      <c r="M35">
+        <v>2211693</v>
+      </c>
+      <c r="N35">
+        <v>2218899</v>
+      </c>
+      <c r="O35">
+        <v>2218927</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>439288</v>
+      </c>
+      <c r="E36">
+        <v>440028</v>
+      </c>
+      <c r="F36">
+        <v>438495</v>
+      </c>
+      <c r="G36">
+        <v>441678</v>
+      </c>
+      <c r="H36">
+        <v>439013</v>
+      </c>
+      <c r="J36" t="s">
         <v>7</v>
       </c>
-      <c r="D35">
-        <v>1614299</v>
-      </c>
-      <c r="E35">
-        <v>1625232</v>
-      </c>
-      <c r="F35">
-        <v>1617464</v>
-      </c>
-      <c r="G35">
-        <v>1618932</v>
-      </c>
-      <c r="H35">
-        <v>1613618</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>2212938</v>
-      </c>
-      <c r="E36">
-        <v>2199267</v>
-      </c>
-      <c r="F36">
-        <v>2211527</v>
-      </c>
-      <c r="G36">
-        <v>2215036</v>
-      </c>
-      <c r="H36">
-        <v>2204474</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>1625766</v>
-      </c>
-      <c r="E38">
-        <v>1624105</v>
-      </c>
-      <c r="F38">
-        <v>1609029</v>
-      </c>
-      <c r="G38">
-        <v>1620742</v>
-      </c>
-      <c r="H38">
-        <v>1615460</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39">
-        <v>443957</v>
-      </c>
-      <c r="E39">
-        <v>443706</v>
-      </c>
-      <c r="F39">
-        <v>441014</v>
-      </c>
-      <c r="G39">
-        <v>442086</v>
-      </c>
-      <c r="H39">
-        <v>443625</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>1618958</v>
-      </c>
-      <c r="E41">
-        <v>1615979</v>
-      </c>
-      <c r="F41">
-        <v>1619191</v>
-      </c>
-      <c r="G41">
-        <v>1611124</v>
-      </c>
-      <c r="H41">
-        <v>1622446</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42">
-        <v>437617</v>
-      </c>
-      <c r="E42">
-        <v>439680</v>
-      </c>
-      <c r="F42">
-        <v>438760</v>
-      </c>
-      <c r="G42">
-        <v>437936</v>
-      </c>
-      <c r="H42">
-        <v>438610</v>
+      <c r="K36">
+        <v>1623446</v>
+      </c>
+      <c r="L36">
+        <v>1621827</v>
+      </c>
+      <c r="M36">
+        <v>1622575</v>
+      </c>
+      <c r="N36">
+        <v>1623656</v>
+      </c>
+      <c r="O36">
+        <v>1615397</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Excel Sheets/First Comparison.xlsx
+++ b/Results/Excel Sheets/First Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\IST\Master Thesis\MADCoM\Results\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE36A8A0-DC01-4D37-BD4E-035C7863B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C115F37A-58D5-4168-9F7D-16CC41A92B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="28">
   <si>
     <t>Instance</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>NºTasks</t>
+  </si>
+  <si>
+    <t>madcom -mutprob 0</t>
+  </si>
+  <si>
+    <t>madcom -mutprob 0.5</t>
   </si>
 </sst>
 </file>
@@ -458,11 +464,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,14 +483,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,7 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,7 +509,812 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1131,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEBC759-3513-4B3C-9D29-C75598F3A089}">
   <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1143,64 +1954,64 @@
   <sheetData>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="45" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="45" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="45" t="s">
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="47"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="43" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="43" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="43" t="s">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="43" t="s">
+      <c r="S4" s="51"/>
+      <c r="T4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="44"/>
+      <c r="U4" s="51"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="str">
@@ -1265,7 +2076,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -1339,7 +2150,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +2222,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +2294,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +2366,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
@@ -1674,51 +2485,51 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="45" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="45" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="43" t="s">
+      <c r="G14" s="51"/>
+      <c r="H14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="43" t="s">
+      <c r="I14" s="51"/>
+      <c r="J14" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="43" t="s">
+      <c r="K14" s="51"/>
+      <c r="L14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="43" t="s">
+      <c r="M14" s="51"/>
+      <c r="N14" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="43" t="s">
+      <c r="O14" s="51"/>
+      <c r="P14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="44"/>
+      <c r="Q14" s="51"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
@@ -1773,7 +2584,7 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1836,7 +2647,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="49"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1896,7 +2707,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +2767,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="19" t="s">
         <v>8</v>
       </c>
@@ -2016,7 +2827,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
@@ -2078,6 +2889,13 @@
     <row r="21" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="R4:S4"/>
@@ -2094,58 +2912,51 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="44" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="159" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="43" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="158" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="42" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="157" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="41" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="156" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="40" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="155" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 K16 O16">
-    <cfRule type="top10" dxfId="39" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="154" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17 K17 O17">
-    <cfRule type="top10" dxfId="38" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="153" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 K18 O18">
-    <cfRule type="top10" dxfId="37" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="152" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 K19 O19">
-    <cfRule type="top10" dxfId="36" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="151" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 K20 O20">
-    <cfRule type="top10" dxfId="35" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="150" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16 M16 Q16">
-    <cfRule type="top10" dxfId="34" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="149" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17 M17 Q17">
-    <cfRule type="top10" dxfId="33" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="148" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 M18 Q18">
-    <cfRule type="top10" dxfId="32" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="147" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19 M19 Q19">
-    <cfRule type="top10" dxfId="31" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="146" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20 M20 Q20">
-    <cfRule type="top10" dxfId="30" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2170,18 +2981,18 @@
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="24"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
@@ -2223,21 +3034,21 @@
       <c r="O3" s="4">
         <v>10</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="43" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -2305,7 +3116,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -2371,7 +3182,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -2437,7 +3248,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -2503,7 +3314,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -2569,7 +3380,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -2591,7 +3402,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="49"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -2612,7 +3423,7 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="45"/>
       <c r="E11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
@@ -2621,7 +3432,7 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
+      <c r="B12" s="45"/>
       <c r="E12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
@@ -2630,7 +3441,7 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="45"/>
       <c r="E13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
@@ -2667,18 +3478,18 @@
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="44"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
@@ -2721,20 +3532,20 @@
       <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="43" t="s">
+      <c r="Q17" s="51"/>
+      <c r="R17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="str">
@@ -2801,7 +3612,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -2866,7 +3677,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -2931,7 +3742,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -2996,7 +3807,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -3061,7 +3872,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="11"/>
       <c r="D23" s="21"/>
       <c r="E23" s="17"/>
@@ -3082,7 +3893,7 @@
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -3103,7 +3914,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -3124,7 +3935,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -3145,7 +3956,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -3217,18 +4028,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
@@ -3271,21 +4082,21 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="43" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -3353,7 +4164,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -3419,7 +4230,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -3485,7 +4296,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -3551,7 +4362,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -3617,7 +4428,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -3639,7 +4450,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="49"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -3661,7 +4472,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="49"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
@@ -3673,7 +4484,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
@@ -3685,7 +4496,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="49"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
@@ -3697,7 +4508,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -3720,18 +4531,18 @@
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="44"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -3774,20 +4585,20 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="43" t="s">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="44"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="str">
@@ -3854,7 +4665,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -3919,7 +4730,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -3984,7 +4795,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -4049,7 +4860,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -4114,7 +4925,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -4135,7 +4946,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -4156,7 +4967,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -4177,7 +4988,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -4198,7 +5009,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -4257,7 +5068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A981BF-362D-4F38-A22D-B817C4C20373}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -4265,18 +5076,18 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
@@ -4319,20 +5130,20 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="43" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -4399,7 +5210,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -4464,7 +5275,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -4529,7 +5340,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -4594,7 +5405,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -4659,7 +5470,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -4680,7 +5491,7 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -4691,7 +5502,7 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
@@ -4702,7 +5513,7 @@
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
@@ -4713,7 +5524,7 @@
       <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
@@ -4734,7 +5545,7 @@
       <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -4757,18 +5568,18 @@
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="44"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -4811,20 +5622,20 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="43" t="s">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="44"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="str">
@@ -4891,7 +5702,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -4956,7 +5767,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -5021,7 +5832,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -5086,7 +5897,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -5151,7 +5962,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -5172,7 +5983,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -5193,7 +6004,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -5214,7 +6025,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -5235,7 +6046,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -5294,8 +6105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AACEDC-A0D0-42F4-BC04-689F8C4AA144}">
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,48 +6121,48 @@
         <f>B18</f>
         <v>0</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="56">
         <f>B27</f>
         <v>0.5</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="56">
         <v>1</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="43" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="43" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="44"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -5401,7 +6212,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -5463,7 +6274,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -5523,7 +6334,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
@@ -5583,7 +6394,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
@@ -5643,7 +6454,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
@@ -5776,18 +6587,18 @@
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="44"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
@@ -5830,20 +6641,20 @@
       <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="43" t="s">
+      <c r="Q17" s="51"/>
+      <c r="R17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52">
+      <c r="B18" s="53">
         <v>0</v>
       </c>
       <c r="C18" s="18" t="str">
@@ -5900,7 +6711,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="19" t="str">
         <f t="shared" ref="C19:E19" si="11">C7</f>
         <v>F1_g-6</v>
@@ -5955,7 +6766,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="19" t="str">
         <f t="shared" ref="C20:E20" si="17">C8</f>
         <v>Beijing-3</v>
@@ -6010,7 +6821,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="19" t="str">
         <f t="shared" ref="C21:E21" si="18">C9</f>
         <v>Hefei-10</v>
@@ -6114,7 +6925,7 @@
         <f t="shared" si="15"/>
         <v>1.278494049175305E-2</v>
       </c>
-      <c r="T22" s="54">
+      <c r="T22" s="43">
         <f t="shared" si="16"/>
         <v>4205.6451871264653</v>
       </c>
@@ -6123,18 +6934,18 @@
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="44"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
@@ -6177,20 +6988,20 @@
       <c r="O26" s="2">
         <v>10</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="43" t="s">
+      <c r="Q26" s="51"/>
+      <c r="R26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="S26" s="44"/>
+      <c r="S26" s="51"/>
       <c r="T26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="52">
+      <c r="B27" s="53">
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="str">
@@ -6247,7 +7058,7 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="53"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="19" t="str">
         <f t="shared" ref="C28:E28" si="21">C7</f>
         <v>F1_g-6</v>
@@ -6302,7 +7113,7 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="19" t="str">
         <f t="shared" ref="C29:E29" si="27">C8</f>
         <v>Beijing-3</v>
@@ -6357,7 +7168,7 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="19" t="str">
         <f t="shared" ref="C30:E30" si="28">C9</f>
         <v>Hefei-10</v>
@@ -6461,7 +7272,7 @@
         <f t="shared" si="25"/>
         <v>7.7280012731468783E-3</v>
       </c>
-      <c r="T31" s="54">
+      <c r="T31" s="43">
         <f t="shared" si="26"/>
         <v>4877.857726502486</v>
       </c>
@@ -6558,11 +7369,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
@@ -6570,27 +7380,28 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="F16:O16"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
   </mergeCells>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="24" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="144" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="23" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="143" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="22" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="142" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="21" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="141" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="20" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="140" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6598,72 +7409,1478 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB94F69-007F-4C31-B54F-A9483762C616}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:T49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="56">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="56">
+        <f>B27</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="51"/>
+      <c r="N4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="51"/>
+      <c r="P4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="51"/>
+    </row>
+    <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>375</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1602229</v>
+      </c>
+      <c r="F6" s="23">
+        <f>P18</f>
+        <v>1612530</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:I10" si="0">Q18</f>
+        <v>6.429168364821658E-3</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="0"/>
+        <v>1618795.6</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0339720476910674E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <f>P27</f>
+        <v>1613111</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" ref="K6:M10" si="1">Q27</f>
+        <v>6.7917881900776411E-3</v>
+      </c>
+      <c r="L6" s="23">
+        <f t="shared" si="1"/>
+        <v>1615329</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="1"/>
+        <v>8.1761096572336989E-3</v>
+      </c>
+      <c r="N6" s="23">
+        <f>Comparison!N6</f>
+        <v>1615420</v>
+      </c>
+      <c r="O6" s="14">
+        <f>Comparison!O6</f>
+        <v>8.2329055334786627E-3</v>
+      </c>
+      <c r="P6" s="23">
+        <f>Comparison!P6</f>
+        <v>1621760.4</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>Comparison!Q6</f>
+        <v>1.2190142607579668E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11">
+        <v>780</v>
+      </c>
+      <c r="E7" s="17">
+        <v>474809</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" ref="F7:F10" si="2">P19</f>
+        <v>438422</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>-7.6635025873561746E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="0"/>
+        <v>440105.4</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>-7.3089600239254038E-2</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" ref="J7:J10" si="3">P28</f>
+        <v>439328</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="1"/>
+        <v>-7.4726890181104455E-2</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" si="1"/>
+        <v>440381.6</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.2507892647359351E-2</v>
+      </c>
+      <c r="N7" s="22">
+        <f>Comparison!N7</f>
+        <v>439830</v>
+      </c>
+      <c r="O7" s="15">
+        <f>Comparison!O7</f>
+        <v>-7.3669622943120294E-2</v>
+      </c>
+      <c r="P7" s="22">
+        <f>Comparison!P7</f>
+        <v>441952.2</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>Comparison!Q7</f>
+        <v>-6.9200036225092632E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="45"/>
+      <c r="C8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1075</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1534878</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="2"/>
+        <v>1539963</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>3.3129668937856849E-3</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="0"/>
+        <v>1546492.6</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5671160834933637E-3</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="3"/>
+        <v>1544811</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>6.4715241211352748E-3</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="1"/>
+        <v>1551337.4</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0723588454587318E-2</v>
+      </c>
+      <c r="N8" s="22">
+        <f>Comparison!N8</f>
+        <v>1540668</v>
+      </c>
+      <c r="O8" s="15">
+        <f>Comparison!O8</f>
+        <v>3.7722867876144317E-3</v>
+      </c>
+      <c r="P8" s="22">
+        <f>Comparison!P8</f>
+        <v>1543291.1</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>Comparison!Q8</f>
+        <v>5.4812825514471974E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+      <c r="C9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1748829</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="2"/>
+        <v>1754557</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>3.2753345238443199E-3</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="0"/>
+        <v>1761429</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2048210545456737E-3</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="3"/>
+        <v>1755539</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>3.8368531171428799E-3</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="1"/>
+        <v>1761406</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="1"/>
+        <v>7.1916693970650591E-3</v>
+      </c>
+      <c r="N9" s="22">
+        <f>Comparison!N9</f>
+        <v>1757911</v>
+      </c>
+      <c r="O9" s="15">
+        <f>Comparison!O9</f>
+        <v>5.1931892712209216E-3</v>
+      </c>
+      <c r="P9" s="22">
+        <f>Comparison!P9</f>
+        <v>1765520.7</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>Comparison!Q9</f>
+        <v>9.5445009203301012E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="46"/>
+      <c r="C10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1792</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2199275</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="2"/>
+        <v>2205729</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>2.9346034488637596E-3</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="0"/>
+        <v>2213915.4</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="0"/>
+        <v>6.6569210307942939E-3</v>
+      </c>
+      <c r="J10" s="32">
+        <f t="shared" si="3"/>
+        <v>2202401</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" si="1"/>
+        <v>1.4213774994031869E-3</v>
+      </c>
+      <c r="L10" s="32">
+        <f t="shared" si="1"/>
+        <v>2209938.4</v>
+      </c>
+      <c r="M10" s="34">
+        <f t="shared" si="1"/>
+        <v>4.8485978333767665E-3</v>
+      </c>
+      <c r="N10" s="32">
+        <f>Comparison!N10</f>
+        <v>2204970</v>
+      </c>
+      <c r="O10" s="33">
+        <f>Comparison!O10</f>
+        <v>2.5894897182026089E-3</v>
+      </c>
+      <c r="P10" s="32">
+        <f>Comparison!P10</f>
+        <v>2215325.7000000002</v>
+      </c>
+      <c r="Q10" s="34">
+        <f>Comparison!Q10</f>
+        <v>7.2981778085960958E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7</v>
+      </c>
+      <c r="M17" s="4">
+        <v>8</v>
+      </c>
+      <c r="N17" s="4">
+        <v>9</v>
+      </c>
+      <c r="O17" s="2">
+        <v>10</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="51"/>
+      <c r="T17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="53">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18:E18" si="4">D6</f>
+        <v>375</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="4"/>
+        <v>1602229</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1612530</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1621726</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1618473</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1620487</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1620762</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="5">
+        <f>MIN(F18:O18)</f>
+        <v>1612530</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>P18/E18-1</f>
+        <v>6.429168364821658E-3</v>
+      </c>
+      <c r="R18" s="5">
+        <f>AVERAGE(F18:O18)</f>
+        <v>1618795.6</v>
+      </c>
+      <c r="S18" s="13">
+        <f>R18/E18-1</f>
+        <v>1.0339720476910674E-2</v>
+      </c>
+      <c r="T18" s="21">
+        <f>_xlfn.STDEV.P(F18:O18)</f>
+        <v>3306.8601784774633</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19" s="19" t="str">
+        <f t="shared" ref="C19:E22" si="5">C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="5"/>
+        <v>780</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="5"/>
+        <v>474809</v>
+      </c>
+      <c r="F19" s="5">
+        <v>438422</v>
+      </c>
+      <c r="G19" s="5">
+        <v>439556</v>
+      </c>
+      <c r="H19" s="5">
+        <v>440640</v>
+      </c>
+      <c r="I19" s="5">
+        <v>440996</v>
+      </c>
+      <c r="J19" s="22">
+        <v>440913</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="5">
+        <f t="shared" ref="P19:P22" si="6">MIN(F19:O19)</f>
+        <v>438422</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" ref="Q19:Q22" si="7">P19/E19-1</f>
+        <v>-7.6635025873561746E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" ref="R19:R22" si="8">AVERAGE(F19:O19)</f>
+        <v>440105.4</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" ref="S19:S22" si="9">R19/E19-1</f>
+        <v>-7.3089600239254038E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" ref="T19:T22" si="10">_xlfn.STDEV.P(F19:O19)</f>
+        <v>986.5960875657272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="54"/>
+      <c r="C20" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="5"/>
+        <v>1075</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="5"/>
+        <v>1534878</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1545043</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1539963</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1542107</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1555455</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1549895</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="5">
+        <f t="shared" si="6"/>
+        <v>1539963</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="7"/>
+        <v>3.3129668937856849E-3</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="8"/>
+        <v>1546492.6</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="9"/>
+        <v>7.5671160834933637E-3</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" si="10"/>
+        <v>5583.3940072325186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="54"/>
+      <c r="C21" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="5"/>
+        <v>1212</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="5"/>
+        <v>1748829</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1754557</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1764297</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1761706</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1760685</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1765900</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="5">
+        <f t="shared" si="6"/>
+        <v>1754557</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="7"/>
+        <v>3.2753345238443199E-3</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="8"/>
+        <v>1761429</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="9"/>
+        <v>7.2048210545456737E-3</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="10"/>
+        <v>3900.5105819623154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="5"/>
+        <v>1792</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="5"/>
+        <v>2199275</v>
+      </c>
+      <c r="F22" s="32">
+        <v>2205729</v>
+      </c>
+      <c r="G22" s="32">
+        <v>2219628</v>
+      </c>
+      <c r="H22" s="32">
+        <v>2219855</v>
+      </c>
+      <c r="I22" s="32">
+        <v>2209528</v>
+      </c>
+      <c r="J22" s="32">
+        <v>2214837</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32">
+        <f t="shared" si="6"/>
+        <v>2205729</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" si="7"/>
+        <v>2.9346034488637596E-3</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" si="8"/>
+        <v>2213915.4</v>
+      </c>
+      <c r="S22" s="34">
+        <f t="shared" si="9"/>
+        <v>6.6569210307942939E-3</v>
+      </c>
+      <c r="T22" s="43">
+        <f t="shared" si="10"/>
+        <v>5568.2747274178209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="F25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="51"/>
+    </row>
+    <row r="26" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>6</v>
+      </c>
+      <c r="L26" s="4">
+        <v>7</v>
+      </c>
+      <c r="M26" s="4">
+        <v>8</v>
+      </c>
+      <c r="N26" s="4">
+        <v>9</v>
+      </c>
+      <c r="O26" s="2">
+        <v>10</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="51"/>
+      <c r="T26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:E27" si="11">D6</f>
+        <v>375</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="11"/>
+        <v>1602229</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1613975</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1613966</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1622120</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1613111</v>
+      </c>
+      <c r="J27" s="23">
+        <v>1613473</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="5">
+        <f>MIN(F27:O27)</f>
+        <v>1613111</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>P27/E27-1</f>
+        <v>6.7917881900776411E-3</v>
+      </c>
+      <c r="R27" s="5">
+        <f>AVERAGE(F27:O27)</f>
+        <v>1615329</v>
+      </c>
+      <c r="S27" s="13">
+        <f>R27/E27-1</f>
+        <v>8.1761096572336989E-3</v>
+      </c>
+      <c r="T27" s="21">
+        <f>_xlfn.STDEV.P(F27:O27)</f>
+        <v>3410.9537082757365</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="54"/>
+      <c r="C28" s="19" t="str">
+        <f t="shared" ref="C28:E31" si="12">C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="12"/>
+        <v>474809</v>
+      </c>
+      <c r="F28" s="5">
+        <v>440199</v>
+      </c>
+      <c r="G28" s="5">
+        <v>441627</v>
+      </c>
+      <c r="H28" s="5">
+        <v>439332</v>
+      </c>
+      <c r="I28" s="5">
+        <v>441422</v>
+      </c>
+      <c r="J28" s="22">
+        <v>439328</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="5">
+        <f t="shared" ref="P28:P31" si="13">MIN(F28:O28)</f>
+        <v>439328</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" ref="Q28:Q31" si="14">P28/E28-1</f>
+        <v>-7.4726890181104455E-2</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" ref="R28:R31" si="15">AVERAGE(F28:O28)</f>
+        <v>440381.6</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" ref="S28:S31" si="16">R28/E28-1</f>
+        <v>-7.2507892647359351E-2</v>
+      </c>
+      <c r="T28" s="21">
+        <f t="shared" ref="T28:T31" si="17">_xlfn.STDEV.P(F28:O28)</f>
+        <v>987.77823422061692</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="54"/>
+      <c r="C29" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="12"/>
+        <v>1075</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="12"/>
+        <v>1534878</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1544811</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1545911</v>
+      </c>
+      <c r="H29" s="22">
+        <v>1557121</v>
+      </c>
+      <c r="I29" s="22">
+        <v>1554298</v>
+      </c>
+      <c r="J29" s="22">
+        <v>1554546</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="5">
+        <f t="shared" si="13"/>
+        <v>1544811</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="14"/>
+        <v>6.4715241211352748E-3</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="15"/>
+        <v>1551337.4</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="16"/>
+        <v>1.0723588454587318E-2</v>
+      </c>
+      <c r="T29" s="21">
+        <f t="shared" si="17"/>
+        <v>4990.9920697192056</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="54"/>
+      <c r="C30" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="12"/>
+        <v>1212</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="12"/>
+        <v>1748829</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1755539</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1760969</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22">
+        <v>1764796</v>
+      </c>
+      <c r="J30" s="22">
+        <v>1764320</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="5">
+        <f t="shared" si="13"/>
+        <v>1755539</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="14"/>
+        <v>3.8368531171428799E-3</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="15"/>
+        <v>1761406</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="16"/>
+        <v>7.1916693970650591E-3</v>
+      </c>
+      <c r="T30" s="21">
+        <f t="shared" si="17"/>
+        <v>3694.46051542035</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="55"/>
+      <c r="C31" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D31" s="24">
+        <f t="shared" si="12"/>
+        <v>1792</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="12"/>
+        <v>2199275</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2208944</v>
+      </c>
+      <c r="G31" s="32">
+        <v>2202401</v>
+      </c>
+      <c r="H31" s="32">
+        <v>2205117</v>
+      </c>
+      <c r="I31" s="32">
+        <v>2227335</v>
+      </c>
+      <c r="J31" s="32">
+        <v>2205895</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32">
+        <f t="shared" si="13"/>
+        <v>2202401</v>
+      </c>
+      <c r="Q31" s="34">
+        <f t="shared" si="14"/>
+        <v>1.4213774994031869E-3</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="15"/>
+        <v>2209938.4</v>
+      </c>
+      <c r="S31" s="34">
+        <f t="shared" si="16"/>
+        <v>4.8485978333767665E-3</v>
+      </c>
+      <c r="T31" s="43">
+        <f t="shared" si="17"/>
+        <v>8944.6956706195433</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>1545043</v>
+      </c>
+      <c r="F39">
+        <v>1539963</v>
+      </c>
+      <c r="G39">
+        <v>1542107</v>
+      </c>
+      <c r="H39">
+        <v>1555455</v>
+      </c>
+      <c r="I39">
+        <v>1549895</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>2205729</v>
+      </c>
+      <c r="F40">
+        <v>2219628</v>
+      </c>
+      <c r="G40">
+        <v>2219855</v>
+      </c>
+      <c r="H40">
+        <v>2209528</v>
+      </c>
+      <c r="I40">
+        <v>2214837</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>1612530</v>
+      </c>
+      <c r="F41">
+        <v>1621726</v>
+      </c>
+      <c r="G41">
+        <v>1618473</v>
+      </c>
+      <c r="H41">
+        <v>1620487</v>
+      </c>
+      <c r="I41">
+        <v>1620762</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>438422</v>
+      </c>
+      <c r="F42">
+        <v>439556</v>
+      </c>
+      <c r="G42">
+        <v>440640</v>
+      </c>
+      <c r="H42">
+        <v>440996</v>
+      </c>
+      <c r="I42">
+        <v>440913</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>1754557</v>
+      </c>
+      <c r="F43">
+        <v>1764297</v>
+      </c>
+      <c r="G43">
+        <v>1761706</v>
+      </c>
+      <c r="H43">
+        <v>1760685</v>
+      </c>
+      <c r="I43">
+        <v>1765900</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>1544811</v>
+      </c>
+      <c r="F45">
+        <v>1545911</v>
+      </c>
+      <c r="G45">
+        <v>1557121</v>
+      </c>
+      <c r="H45">
+        <v>1554298</v>
+      </c>
+      <c r="I45">
+        <v>1554546</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>2208944</v>
+      </c>
+      <c r="F46">
+        <v>2202401</v>
+      </c>
+      <c r="G46">
+        <v>2205117</v>
+      </c>
+      <c r="H46">
+        <v>2227335</v>
+      </c>
+      <c r="I46">
+        <v>2205895</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1613975</v>
+      </c>
+      <c r="F47">
+        <v>1613966</v>
+      </c>
+      <c r="G47">
+        <v>1622120</v>
+      </c>
+      <c r="H47">
+        <v>1613111</v>
+      </c>
+      <c r="I47">
+        <v>1613473</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>440199</v>
+      </c>
+      <c r="F48">
+        <v>441627</v>
+      </c>
+      <c r="G48">
+        <v>439332</v>
+      </c>
+      <c r="H48">
+        <v>441422</v>
+      </c>
+      <c r="I48">
+        <v>439328</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>1755539</v>
+      </c>
+      <c r="F49">
+        <v>1760969</v>
+      </c>
+      <c r="H49">
+        <v>1764796</v>
+      </c>
+      <c r="I49">
+        <v>1764320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G9 K9 O9">
+    <cfRule type="top10" dxfId="4" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 K10 O10">
+    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 K8 O8">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 K7 O7">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 K6 O6">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACEBDDF-2E4A-43BA-9C94-A9709F6384C0}">
-  <dimension ref="C13:Q36"/>
+  <dimension ref="C13:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:H36"/>
+    <sheetView topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="13" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="45" t="s">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="45" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43" t="s">
+      <c r="G15" s="51"/>
+      <c r="H15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="43" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="43" t="s">
+      <c r="K15" s="51"/>
+      <c r="L15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="43" t="s">
+      <c r="M15" s="51"/>
+      <c r="N15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="43" t="s">
+      <c r="O15" s="51"/>
+      <c r="P15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="44"/>
+      <c r="Q15" s="51"/>
     </row>
     <row r="16" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
@@ -6952,9 +9169,6 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -6975,24 +9189,6 @@
       <c r="H26">
         <v>1542186</v>
       </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26">
-        <v>1543703</v>
-      </c>
-      <c r="L26">
-        <v>1544972</v>
-      </c>
-      <c r="M26">
-        <v>1547652</v>
-      </c>
-      <c r="N26">
-        <v>1549337</v>
-      </c>
-      <c r="O26">
-        <v>1544930</v>
-      </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
@@ -7013,24 +9209,6 @@
       <c r="H27">
         <v>1617052</v>
       </c>
-      <c r="J27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>1776990</v>
-      </c>
-      <c r="L27">
-        <v>1772324</v>
-      </c>
-      <c r="M27">
-        <v>1770664</v>
-      </c>
-      <c r="N27">
-        <v>1768517</v>
-      </c>
-      <c r="O27">
-        <v>1778238</v>
-      </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
@@ -7051,24 +9229,6 @@
       <c r="H28">
         <v>2212731</v>
       </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28">
-        <v>444906</v>
-      </c>
-      <c r="L28">
-        <v>445548</v>
-      </c>
-      <c r="M28">
-        <v>444660</v>
-      </c>
-      <c r="N28">
-        <v>444008</v>
-      </c>
-      <c r="O28">
-        <v>444983</v>
-      </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -7089,24 +9249,6 @@
       <c r="H29">
         <v>1754102</v>
       </c>
-      <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29">
-        <v>2227071</v>
-      </c>
-      <c r="L29">
-        <v>2228918</v>
-      </c>
-      <c r="M29">
-        <v>2230846</v>
-      </c>
-      <c r="N29">
-        <v>2219441</v>
-      </c>
-      <c r="O29">
-        <v>2230687</v>
-      </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
@@ -7127,32 +9269,11 @@
       <c r="H30">
         <v>442640</v>
       </c>
-      <c r="J30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30">
-        <v>1621652</v>
-      </c>
-      <c r="L30">
-        <v>1634999</v>
-      </c>
-      <c r="M30">
-        <v>1633269</v>
-      </c>
-      <c r="N30">
-        <v>1624684</v>
-      </c>
-      <c r="O30">
-        <v>1620274</v>
-      </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
@@ -7173,26 +9294,8 @@
       <c r="H32">
         <v>1543609</v>
       </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32">
-        <v>1546255</v>
-      </c>
-      <c r="L32">
-        <v>1545396</v>
-      </c>
-      <c r="M32">
-        <v>1545481</v>
-      </c>
-      <c r="N32">
-        <v>1549060</v>
-      </c>
-      <c r="O32">
-        <v>1548049</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
@@ -7211,26 +9314,8 @@
       <c r="H33">
         <v>1618552</v>
       </c>
-      <c r="J33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33">
-        <v>1767092</v>
-      </c>
-      <c r="L33">
-        <v>1768499</v>
-      </c>
-      <c r="M33">
-        <v>1760107</v>
-      </c>
-      <c r="N33">
-        <v>1762926</v>
-      </c>
-      <c r="O33">
-        <v>1759054</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -7249,26 +9334,8 @@
       <c r="H34">
         <v>2197230</v>
       </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34">
-        <v>441529</v>
-      </c>
-      <c r="L34">
-        <v>438336</v>
-      </c>
-      <c r="M34">
-        <v>440769</v>
-      </c>
-      <c r="N34">
-        <v>441688</v>
-      </c>
-      <c r="O34">
-        <v>439772</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>8</v>
       </c>
@@ -7287,26 +9354,8 @@
       <c r="H35">
         <v>1753014</v>
       </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35">
-        <v>2222391</v>
-      </c>
-      <c r="L35">
-        <v>2209445</v>
-      </c>
-      <c r="M35">
-        <v>2211693</v>
-      </c>
-      <c r="N35">
-        <v>2218899</v>
-      </c>
-      <c r="O35">
-        <v>2218927</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
@@ -7325,23 +9374,422 @@
       <c r="H36">
         <v>439013</v>
       </c>
-      <c r="J36" t="s">
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>1543703</v>
+      </c>
+      <c r="E40">
+        <v>1544972</v>
+      </c>
+      <c r="F40">
+        <v>1547652</v>
+      </c>
+      <c r="G40">
+        <v>1549337</v>
+      </c>
+      <c r="H40">
+        <v>1544930</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>2227071</v>
+      </c>
+      <c r="E41">
+        <v>2228918</v>
+      </c>
+      <c r="F41">
+        <v>2230846</v>
+      </c>
+      <c r="G41">
+        <v>2219441</v>
+      </c>
+      <c r="H41">
+        <v>2230687</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="K36">
+      <c r="D42">
+        <v>1621652</v>
+      </c>
+      <c r="E42">
+        <v>1634999</v>
+      </c>
+      <c r="F42">
+        <v>1633269</v>
+      </c>
+      <c r="G42">
+        <v>1624684</v>
+      </c>
+      <c r="H42">
+        <v>1620274</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>444906</v>
+      </c>
+      <c r="E43">
+        <v>445548</v>
+      </c>
+      <c r="F43">
+        <v>444660</v>
+      </c>
+      <c r="G43">
+        <v>444008</v>
+      </c>
+      <c r="H43">
+        <v>444983</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>1776990</v>
+      </c>
+      <c r="E44">
+        <v>1772324</v>
+      </c>
+      <c r="F44">
+        <v>1770664</v>
+      </c>
+      <c r="G44">
+        <v>1768517</v>
+      </c>
+      <c r="H44">
+        <v>1778238</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>1546255</v>
+      </c>
+      <c r="E46">
+        <v>1545396</v>
+      </c>
+      <c r="F46">
+        <v>1545481</v>
+      </c>
+      <c r="G46">
+        <v>1549060</v>
+      </c>
+      <c r="H46">
+        <v>1548049</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>2222391</v>
+      </c>
+      <c r="E47">
+        <v>2209445</v>
+      </c>
+      <c r="F47">
+        <v>2211693</v>
+      </c>
+      <c r="G47">
+        <v>2218899</v>
+      </c>
+      <c r="H47">
+        <v>2218927</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
         <v>1623446</v>
       </c>
-      <c r="L36">
+      <c r="E48">
         <v>1621827</v>
       </c>
-      <c r="M36">
+      <c r="F48">
         <v>1622575</v>
       </c>
-      <c r="N36">
+      <c r="G48">
         <v>1623656</v>
       </c>
-      <c r="O36">
+      <c r="H48">
         <v>1615397</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>441529</v>
+      </c>
+      <c r="E49">
+        <v>438336</v>
+      </c>
+      <c r="F49">
+        <v>440769</v>
+      </c>
+      <c r="G49">
+        <v>441688</v>
+      </c>
+      <c r="H49">
+        <v>439772</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>1767092</v>
+      </c>
+      <c r="E50">
+        <v>1768499</v>
+      </c>
+      <c r="F50">
+        <v>1760107</v>
+      </c>
+      <c r="G50">
+        <v>1762926</v>
+      </c>
+      <c r="H50">
+        <v>1759054</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>1545043</v>
+      </c>
+      <c r="E52">
+        <v>1539963</v>
+      </c>
+      <c r="F52">
+        <v>1542107</v>
+      </c>
+      <c r="G52">
+        <v>1555455</v>
+      </c>
+      <c r="H52">
+        <v>1549895</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2205729</v>
+      </c>
+      <c r="E53">
+        <v>2219628</v>
+      </c>
+      <c r="F53">
+        <v>2219855</v>
+      </c>
+      <c r="G53">
+        <v>2209528</v>
+      </c>
+      <c r="H53">
+        <v>2214837</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>1612530</v>
+      </c>
+      <c r="E54">
+        <v>1621726</v>
+      </c>
+      <c r="F54">
+        <v>1618473</v>
+      </c>
+      <c r="G54">
+        <v>1620487</v>
+      </c>
+      <c r="H54">
+        <v>1620762</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>438422</v>
+      </c>
+      <c r="E55">
+        <v>439556</v>
+      </c>
+      <c r="F55">
+        <v>440640</v>
+      </c>
+      <c r="G55">
+        <v>440996</v>
+      </c>
+      <c r="H55">
+        <v>440913</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>1754557</v>
+      </c>
+      <c r="E56">
+        <v>1764297</v>
+      </c>
+      <c r="F56">
+        <v>1761706</v>
+      </c>
+      <c r="G56">
+        <v>1760685</v>
+      </c>
+      <c r="H56">
+        <v>1765900</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>1544811</v>
+      </c>
+      <c r="E58">
+        <v>1545911</v>
+      </c>
+      <c r="F58">
+        <v>1557121</v>
+      </c>
+      <c r="G58">
+        <v>1554298</v>
+      </c>
+      <c r="H58">
+        <v>1554546</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2208944</v>
+      </c>
+      <c r="E59">
+        <v>2202401</v>
+      </c>
+      <c r="F59">
+        <v>2205117</v>
+      </c>
+      <c r="G59">
+        <v>2227335</v>
+      </c>
+      <c r="H59">
+        <v>2205895</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>1613975</v>
+      </c>
+      <c r="E60">
+        <v>1613966</v>
+      </c>
+      <c r="F60">
+        <v>1622120</v>
+      </c>
+      <c r="G60">
+        <v>1613111</v>
+      </c>
+      <c r="H60">
+        <v>1613473</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>440199</v>
+      </c>
+      <c r="E61">
+        <v>441627</v>
+      </c>
+      <c r="F61">
+        <v>439332</v>
+      </c>
+      <c r="G61">
+        <v>441422</v>
+      </c>
+      <c r="H61">
+        <v>439328</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>1755539</v>
+      </c>
+      <c r="E62">
+        <v>1760969</v>
+      </c>
+      <c r="G62">
+        <v>1764796</v>
+      </c>
+      <c r="H62">
+        <v>1764320</v>
       </c>
     </row>
   </sheetData>
@@ -7357,19 +9805,19 @@
     <mergeCell ref="H15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="G17 K17">
-    <cfRule type="top10" dxfId="29" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="139" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 K18">
-    <cfRule type="top10" dxfId="28" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="138" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 K19">
-    <cfRule type="top10" dxfId="27" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="137" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 K20">
-    <cfRule type="top10" dxfId="26" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21 K21">
-    <cfRule type="top10" dxfId="25" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="135" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/Excel Sheets/First Comparison.xlsx
+++ b/Results/Excel Sheets/First Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\IST\Master Thesis\MADCoM\Results\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C115F37A-58D5-4168-9F7D-16CC41A92B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5719F54E-9728-4723-83F9-17D45CCC4B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="MADCoM (HD+RCO)" sheetId="5" r:id="rId4"/>
     <sheet name="HD Fraction" sheetId="6" r:id="rId5"/>
     <sheet name="Mutation Probability" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="Cut Probabilities" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="28">
   <si>
     <t>Instance</t>
   </si>
@@ -509,917 +510,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="160">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <b/>
@@ -1943,7 +1034,7 @@
   <dimension ref="A2:U21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,49 +2005,49 @@
     <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="159" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="158" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="157" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="156" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="155" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 K16 O16">
-    <cfRule type="top10" dxfId="154" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17 K17 O17">
-    <cfRule type="top10" dxfId="153" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 K18 O18">
-    <cfRule type="top10" dxfId="152" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 K19 O19">
-    <cfRule type="top10" dxfId="151" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 K20 O20">
-    <cfRule type="top10" dxfId="150" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16 M16 Q16">
-    <cfRule type="top10" dxfId="149" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17 M17 Q17">
-    <cfRule type="top10" dxfId="148" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 M18 Q18">
-    <cfRule type="top10" dxfId="147" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19 M19 Q19">
-    <cfRule type="top10" dxfId="146" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20 M20 Q20">
-    <cfRule type="top10" dxfId="145" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5068,7 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A981BF-362D-4F38-A22D-B817C4C20373}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -6103,10 +5194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AACEDC-A0D0-42F4-BC04-689F8C4AA144}">
-  <dimension ref="B2:T36"/>
+  <dimension ref="B2:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6226,35 +5317,35 @@
       </c>
       <c r="F6" s="23">
         <f>P18</f>
-        <v>1620274</v>
+        <v>1616041</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" ref="G6:I6" si="0">Q18</f>
-        <v>1.1262435020212402E-2</v>
+        <v>8.6204905790621122E-3</v>
       </c>
       <c r="H6" s="23">
         <f t="shared" si="0"/>
-        <v>1626975.6</v>
+        <v>1624028.7</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>1.5445108033870447E-2</v>
+        <v>1.3605857839297686E-2</v>
       </c>
       <c r="J6" s="23">
         <f>P27</f>
-        <v>1615397</v>
+        <v>1612162</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" ref="K6:M6" si="1">Q27</f>
-        <v>8.2185505317904362E-3</v>
+        <v>6.1994883378093668E-3</v>
       </c>
       <c r="L6" s="23">
         <f t="shared" si="1"/>
-        <v>1621380.2</v>
+        <v>1619536.5</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="1"/>
-        <v>1.1952848188367504E-2</v>
+        <v>1.0802138770425351E-2</v>
       </c>
       <c r="N6" s="23">
         <f>Comparison!N6</f>
@@ -6286,19 +5377,19 @@
       </c>
       <c r="F7" s="22">
         <f t="shared" ref="F7:F10" si="2">P19</f>
-        <v>444008</v>
+        <v>439818</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" ref="G7:G10" si="3">Q19</f>
-        <v>-6.4870295213443674E-2</v>
+        <v>-7.3694896263550191E-2</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H10" si="4">R19</f>
-        <v>444821</v>
+        <v>443416.9</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" ref="I7:I10" si="5">S19</f>
-        <v>-6.3158027754318002E-2</v>
+        <v>-6.6115216855619829E-2</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" ref="J7:J10" si="6">P28</f>
@@ -6310,11 +5401,11 @@
       </c>
       <c r="L7" s="22">
         <f t="shared" ref="L7:L10" si="8">R28</f>
-        <v>440418.8</v>
+        <v>441571.1</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" ref="M7:M10" si="9">S28</f>
-        <v>-7.242954535402657E-2</v>
+        <v>-7.0002674759745531E-2</v>
       </c>
       <c r="N7" s="22">
         <f>Comparison!N7</f>
@@ -6346,35 +5437,35 @@
       </c>
       <c r="F8" s="22">
         <f t="shared" si="2"/>
-        <v>1543703</v>
+        <v>1540580</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="3"/>
-        <v>5.7496426426073555E-3</v>
+        <v>3.7149532405833519E-3</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="4"/>
-        <v>1546118.8</v>
+        <v>1547427.5</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="5"/>
-        <v>7.3235788121270851E-3</v>
+        <v>8.1762198689407928E-3</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="6"/>
-        <v>1545396</v>
+        <v>1545164</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="7"/>
-        <v>6.8526619053761451E-3</v>
+        <v>6.7015098268397022E-3</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="8"/>
-        <v>1546848.2</v>
+        <v>1547062.8</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="9"/>
-        <v>7.7987957349052728E-3</v>
+        <v>7.9386114075516989E-3</v>
       </c>
       <c r="N8" s="22">
         <f>Comparison!N8</f>
@@ -6406,19 +5497,19 @@
       </c>
       <c r="F9" s="22">
         <f t="shared" si="2"/>
-        <v>1768517</v>
+        <v>1763137</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>1.1257818803324993E-2</v>
+        <v>8.1814745752728513E-3</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="4"/>
-        <v>1773346.6</v>
+        <v>1769719.1</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="5"/>
-        <v>1.4019438149756258E-2</v>
+        <v>1.1945193040600266E-2</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="6"/>
@@ -6430,11 +5521,11 @@
       </c>
       <c r="L9" s="22">
         <f t="shared" si="8"/>
-        <v>1763535.6</v>
+        <v>1764753.1</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="9"/>
-        <v>8.4093985175224262E-3</v>
+        <v>9.1055786471976319E-3</v>
       </c>
       <c r="N9" s="22">
         <f>Comparison!N9</f>
@@ -6466,19 +5557,19 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>2219441</v>
+        <v>2207218</v>
       </c>
       <c r="G10" s="33">
         <f t="shared" si="3"/>
-        <v>9.1693853656318325E-3</v>
+        <v>3.6116447465641688E-3</v>
       </c>
       <c r="H10" s="32">
         <f t="shared" si="4"/>
-        <v>2227392.6</v>
+        <v>2223009.7999999998</v>
       </c>
       <c r="I10" s="34">
         <f t="shared" si="5"/>
-        <v>1.278494049175305E-2</v>
+        <v>1.0792101942685539E-2</v>
       </c>
       <c r="J10" s="32">
         <f t="shared" si="6"/>
@@ -6490,11 +5581,11 @@
       </c>
       <c r="L10" s="32">
         <f t="shared" si="8"/>
-        <v>2216271</v>
+        <v>2217255.4</v>
       </c>
       <c r="M10" s="34">
         <f t="shared" si="9"/>
-        <v>7.7280012731468783E-3</v>
+        <v>8.1756033238225001E-3</v>
       </c>
       <c r="N10" s="32">
         <f>Comparison!N10</f>
@@ -6684,30 +5775,40 @@
       <c r="J18" s="23">
         <v>1620274</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="16"/>
+      <c r="K18" s="22">
+        <v>1623222</v>
+      </c>
+      <c r="L18" s="22">
+        <v>1616041</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1619111</v>
+      </c>
+      <c r="N18" s="22">
+        <v>1625517</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1621518</v>
+      </c>
       <c r="P18" s="5">
         <f>MIN(F18:O18)</f>
-        <v>1620274</v>
+        <v>1616041</v>
       </c>
       <c r="Q18" s="13">
         <f>P18/E18-1</f>
-        <v>1.1262435020212402E-2</v>
+        <v>8.6204905790621122E-3</v>
       </c>
       <c r="R18" s="5">
         <f>AVERAGE(F18:O18)</f>
-        <v>1626975.6</v>
+        <v>1624028.7</v>
       </c>
       <c r="S18" s="13">
         <f>R18/E18-1</f>
-        <v>1.5445108033870447E-2</v>
+        <v>1.3605857839297686E-2</v>
       </c>
       <c r="T18" s="21">
         <f>_xlfn.STDEV.P(F18:O18)</f>
-        <v>6041.2816719633265</v>
+        <v>5683.8636516017868</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -6739,30 +5840,40 @@
       <c r="J19" s="22">
         <v>444983</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="17"/>
+      <c r="K19" s="22">
+        <v>443543</v>
+      </c>
+      <c r="L19" s="22">
+        <v>439818</v>
+      </c>
+      <c r="M19" s="22">
+        <v>441461</v>
+      </c>
+      <c r="N19" s="22">
+        <v>441940</v>
+      </c>
+      <c r="O19" s="17">
+        <v>443302</v>
+      </c>
       <c r="P19" s="5">
         <f t="shared" ref="P19:P22" si="12">MIN(F19:O19)</f>
-        <v>444008</v>
+        <v>439818</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" ref="Q19:Q22" si="13">P19/E19-1</f>
-        <v>-6.4870295213443674E-2</v>
+        <v>-7.3694896263550191E-2</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" ref="R19:R22" si="14">AVERAGE(F19:O19)</f>
-        <v>444821</v>
+        <v>443416.9</v>
       </c>
       <c r="S19" s="13">
         <f t="shared" ref="S19:S22" si="15">R19/E19-1</f>
-        <v>-6.3158027754318002E-2</v>
+        <v>-6.6115216855619829E-2</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" ref="T19:T22" si="16">_xlfn.STDEV.P(F19:O19)</f>
-        <v>499.77755051622717</v>
+        <v>1734.7718841392375</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -6794,30 +5905,40 @@
       <c r="J20" s="22">
         <v>1544930</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="17"/>
+      <c r="K20" s="22">
+        <v>1540580</v>
+      </c>
+      <c r="L20" s="22">
+        <v>1550677</v>
+      </c>
+      <c r="M20" s="22">
+        <v>1546208</v>
+      </c>
+      <c r="N20" s="22">
+        <v>1553215</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1553001</v>
+      </c>
       <c r="P20" s="5">
         <f t="shared" si="12"/>
-        <v>1543703</v>
+        <v>1540580</v>
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="13"/>
-        <v>5.7496426426073555E-3</v>
+        <v>3.7149532405833519E-3</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="14"/>
-        <v>1546118.8</v>
+        <v>1547427.5</v>
       </c>
       <c r="S20" s="13">
         <f t="shared" si="15"/>
-        <v>7.3235788121270851E-3</v>
+        <v>8.1762198689407928E-3</v>
       </c>
       <c r="T20" s="21">
         <f t="shared" si="16"/>
-        <v>2062.6196353181554</v>
+        <v>3915.7275505325956</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -6849,30 +5970,40 @@
       <c r="J21" s="22">
         <v>1778238</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="17"/>
+      <c r="K21" s="22">
+        <v>1764372</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1763137</v>
+      </c>
+      <c r="M21" s="22">
+        <v>1764860</v>
+      </c>
+      <c r="N21" s="22">
+        <v>1768904</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1769185</v>
+      </c>
       <c r="P21" s="5">
         <f t="shared" si="12"/>
-        <v>1768517</v>
+        <v>1763137</v>
       </c>
       <c r="Q21" s="13">
         <f t="shared" si="13"/>
-        <v>1.1257818803324993E-2</v>
+        <v>8.1814745752728513E-3</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="14"/>
-        <v>1773346.6</v>
+        <v>1769719.1</v>
       </c>
       <c r="S21" s="13">
         <f t="shared" si="15"/>
-        <v>1.4019438149756258E-2</v>
+        <v>1.1945193040600266E-2</v>
       </c>
       <c r="T21" s="21">
         <f t="shared" si="16"/>
-        <v>3708.5643367750813</v>
+        <v>4806.631366144069</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6904,30 +6035,40 @@
       <c r="J22" s="32">
         <v>2230687</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="31"/>
+      <c r="K22" s="32">
+        <v>2207218</v>
+      </c>
+      <c r="L22" s="32">
+        <v>2216492</v>
+      </c>
+      <c r="M22" s="32">
+        <v>2220740</v>
+      </c>
+      <c r="N22" s="32">
+        <v>2218764</v>
+      </c>
+      <c r="O22" s="31">
+        <v>2229921</v>
+      </c>
       <c r="P22" s="32">
         <f t="shared" si="12"/>
-        <v>2219441</v>
+        <v>2207218</v>
       </c>
       <c r="Q22" s="34">
         <f t="shared" si="13"/>
-        <v>9.1693853656318325E-3</v>
+        <v>3.6116447465641688E-3</v>
       </c>
       <c r="R22" s="32">
         <f t="shared" si="14"/>
-        <v>2227392.6</v>
+        <v>2223009.7999999998</v>
       </c>
       <c r="S22" s="34">
         <f t="shared" si="15"/>
-        <v>1.278494049175305E-2</v>
+        <v>1.0792101942685539E-2</v>
       </c>
       <c r="T22" s="43">
         <f t="shared" si="16"/>
-        <v>4205.6451871264653</v>
+        <v>7397.8922376579667</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7031,30 +6172,40 @@
       <c r="J27" s="23">
         <v>1615397</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="16"/>
+      <c r="K27" s="22">
+        <v>1617516</v>
+      </c>
+      <c r="L27" s="22">
+        <v>1613436</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1624793</v>
+      </c>
+      <c r="N27" s="22">
+        <v>1620557</v>
+      </c>
+      <c r="O27" s="16">
+        <v>1612162</v>
+      </c>
       <c r="P27" s="5">
         <f>MIN(F27:O27)</f>
-        <v>1615397</v>
+        <v>1612162</v>
       </c>
       <c r="Q27" s="13">
         <f>P27/E27-1</f>
-        <v>8.2185505317904362E-3</v>
+        <v>6.1994883378093668E-3</v>
       </c>
       <c r="R27" s="5">
         <f>AVERAGE(F27:O27)</f>
-        <v>1621380.2</v>
+        <v>1619536.5</v>
       </c>
       <c r="S27" s="13">
         <f>R27/E27-1</f>
-        <v>1.1952848188367504E-2</v>
+        <v>1.0802138770425351E-2</v>
       </c>
       <c r="T27" s="21">
         <f>_xlfn.STDEV.P(F27:O27)</f>
-        <v>3061.7855836096687</v>
+        <v>4338.4650108073938</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
@@ -7086,11 +6237,21 @@
       <c r="J28" s="22">
         <v>439772</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="17"/>
+      <c r="K28" s="22">
+        <v>442412</v>
+      </c>
+      <c r="L28" s="22">
+        <v>443919</v>
+      </c>
+      <c r="M28" s="22">
+        <v>442436</v>
+      </c>
+      <c r="N28" s="22">
+        <v>442381</v>
+      </c>
+      <c r="O28" s="17">
+        <v>442469</v>
+      </c>
       <c r="P28" s="5">
         <f t="shared" ref="P28:P31" si="22">MIN(F28:O28)</f>
         <v>438336</v>
@@ -7101,15 +6262,15 @@
       </c>
       <c r="R28" s="5">
         <f t="shared" ref="R28:R31" si="24">AVERAGE(F28:O28)</f>
-        <v>440418.8</v>
+        <v>441571.1</v>
       </c>
       <c r="S28" s="13">
         <f t="shared" ref="S28:S31" si="25">R28/E28-1</f>
-        <v>-7.242954535402657E-2</v>
+        <v>-7.0002674759745531E-2</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ref="T28:T31" si="26">_xlfn.STDEV.P(F28:O28)</f>
-        <v>1242.775828538679</v>
+        <v>1509.6819830679572</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
@@ -7141,30 +6302,40 @@
       <c r="J29" s="22">
         <v>1548049</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="17"/>
+      <c r="K29" s="22">
+        <v>1553181</v>
+      </c>
+      <c r="L29" s="22">
+        <v>1545733</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1545900</v>
+      </c>
+      <c r="N29" s="22">
+        <v>1545164</v>
+      </c>
+      <c r="O29" s="17">
+        <v>1546409</v>
+      </c>
       <c r="P29" s="5">
         <f t="shared" si="22"/>
-        <v>1545396</v>
+        <v>1545164</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="23"/>
-        <v>6.8526619053761451E-3</v>
+        <v>6.7015098268397022E-3</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="24"/>
-        <v>1546848.2</v>
+        <v>1547062.8</v>
       </c>
       <c r="S29" s="13">
         <f t="shared" si="25"/>
-        <v>7.7987957349052728E-3</v>
+        <v>7.9386114075516989E-3</v>
       </c>
       <c r="T29" s="21">
         <f t="shared" si="26"/>
-        <v>1460.4099972268064</v>
+        <v>2355.4191049577566</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -7196,11 +6367,21 @@
       <c r="J30" s="22">
         <v>1759054</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="17"/>
+      <c r="K30" s="22">
+        <v>1767063</v>
+      </c>
+      <c r="L30" s="22">
+        <v>1763394</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1772096</v>
+      </c>
+      <c r="N30" s="22">
+        <v>1760496</v>
+      </c>
+      <c r="O30" s="17">
+        <v>1766804</v>
+      </c>
       <c r="P30" s="5">
         <f t="shared" si="22"/>
         <v>1759054</v>
@@ -7211,15 +6392,15 @@
       </c>
       <c r="R30" s="5">
         <f t="shared" si="24"/>
-        <v>1763535.6</v>
+        <v>1764753.1</v>
       </c>
       <c r="S30" s="13">
         <f t="shared" si="25"/>
-        <v>8.4093985175224262E-3</v>
+        <v>9.1055786471976319E-3</v>
       </c>
       <c r="T30" s="21">
         <f t="shared" si="26"/>
-        <v>3728.135437453956</v>
+        <v>4004.2048261795999</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7251,11 +6432,21 @@
       <c r="J31" s="32">
         <v>2218927</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="31"/>
+      <c r="K31" s="32">
+        <v>2220247</v>
+      </c>
+      <c r="L31" s="32">
+        <v>2223731</v>
+      </c>
+      <c r="M31" s="32">
+        <v>2211646</v>
+      </c>
+      <c r="N31" s="32">
+        <v>2214176</v>
+      </c>
+      <c r="O31" s="31">
+        <v>2221399</v>
+      </c>
       <c r="P31" s="32">
         <f t="shared" si="22"/>
         <v>2209445</v>
@@ -7266,15 +6457,15 @@
       </c>
       <c r="R31" s="32">
         <f t="shared" si="24"/>
-        <v>2216271</v>
+        <v>2217255.4</v>
       </c>
       <c r="S31" s="34">
         <f t="shared" si="25"/>
-        <v>7.7280012731468783E-3</v>
+        <v>8.1756033238225001E-3</v>
       </c>
       <c r="T31" s="43">
         <f t="shared" si="26"/>
-        <v>4877.857726502486</v>
+        <v>4825.0726046350846</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7323,12 +6514,9 @@
       <c r="B34" s="28"/>
       <c r="C34" s="26"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
       <c r="P34" s="22"/>
       <c r="Q34" s="29"/>
       <c r="R34" s="22"/>
@@ -7339,12 +6527,24 @@
       <c r="B35" s="28"/>
       <c r="C35" s="26"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>1540580</v>
+      </c>
+      <c r="H35">
+        <v>1550677</v>
+      </c>
+      <c r="I35">
+        <v>1546208</v>
+      </c>
+      <c r="J35">
+        <v>1553215</v>
+      </c>
+      <c r="K35">
+        <v>1553001</v>
+      </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="22"/>
@@ -7355,17 +6555,194 @@
       <c r="B36" s="28"/>
       <c r="C36" s="26"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>1764372</v>
+      </c>
+      <c r="H36">
+        <v>1763137</v>
+      </c>
+      <c r="I36">
+        <v>1764860</v>
+      </c>
+      <c r="J36">
+        <v>1768904</v>
+      </c>
+      <c r="K36">
+        <v>1769185</v>
+      </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="22"/>
       <c r="S36" s="29"/>
       <c r="T36" s="22"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>2207218</v>
+      </c>
+      <c r="H37">
+        <v>2216492</v>
+      </c>
+      <c r="I37">
+        <v>2220740</v>
+      </c>
+      <c r="J37">
+        <v>2218764</v>
+      </c>
+      <c r="K37">
+        <v>2229921</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>1623222</v>
+      </c>
+      <c r="H38">
+        <v>1616041</v>
+      </c>
+      <c r="I38">
+        <v>1619111</v>
+      </c>
+      <c r="J38">
+        <v>1625517</v>
+      </c>
+      <c r="K38">
+        <v>1621518</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>443543</v>
+      </c>
+      <c r="H39">
+        <v>439818</v>
+      </c>
+      <c r="I39">
+        <v>441461</v>
+      </c>
+      <c r="J39">
+        <v>441940</v>
+      </c>
+      <c r="K39">
+        <v>443302</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>1553181</v>
+      </c>
+      <c r="H41">
+        <v>1545733</v>
+      </c>
+      <c r="I41">
+        <v>1545900</v>
+      </c>
+      <c r="J41">
+        <v>1545164</v>
+      </c>
+      <c r="K41">
+        <v>1546409</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>1767063</v>
+      </c>
+      <c r="H42">
+        <v>1763394</v>
+      </c>
+      <c r="I42">
+        <v>1772096</v>
+      </c>
+      <c r="J42">
+        <v>1760496</v>
+      </c>
+      <c r="K42">
+        <v>1766804</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>2220247</v>
+      </c>
+      <c r="H43">
+        <v>2223731</v>
+      </c>
+      <c r="I43">
+        <v>2211646</v>
+      </c>
+      <c r="J43">
+        <v>2214176</v>
+      </c>
+      <c r="K43">
+        <v>2221399</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>1617516</v>
+      </c>
+      <c r="H44">
+        <v>1613436</v>
+      </c>
+      <c r="I44">
+        <v>1624793</v>
+      </c>
+      <c r="J44">
+        <v>1620557</v>
+      </c>
+      <c r="K44">
+        <v>1612162</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>442412</v>
+      </c>
+      <c r="H45">
+        <v>443919</v>
+      </c>
+      <c r="I45">
+        <v>442436</v>
+      </c>
+      <c r="J45">
+        <v>442381</v>
+      </c>
+      <c r="K45">
+        <v>442469</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -7389,19 +6766,19 @@
     <mergeCell ref="P17:Q17"/>
   </mergeCells>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="144" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="143" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="142" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="141" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="140" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7411,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB94F69-007F-4C31-B54F-A9483762C616}">
   <dimension ref="B2:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7536,27 +6913,27 @@
       </c>
       <c r="H6" s="23">
         <f t="shared" si="0"/>
-        <v>1618795.6</v>
+        <v>1621087.1</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>1.0339720476910674E-2</v>
+        <v>1.1769915536418374E-2</v>
       </c>
       <c r="J6" s="23">
         <f>P27</f>
-        <v>1613111</v>
+        <v>1609241</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" ref="K6:M10" si="1">Q27</f>
-        <v>6.7917881900776411E-3</v>
+        <v>4.3764031233988199E-3</v>
       </c>
       <c r="L6" s="23">
         <f t="shared" si="1"/>
-        <v>1615329</v>
+        <v>1616613.1</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="1"/>
-        <v>8.1761096572336989E-3</v>
+        <v>8.9775556427951209E-3</v>
       </c>
       <c r="N6" s="23">
         <f>Comparison!N6</f>
@@ -7596,11 +6973,11 @@
       </c>
       <c r="H7" s="22">
         <f t="shared" si="0"/>
-        <v>440105.4</v>
+        <v>442772.5</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" si="0"/>
-        <v>-7.3089600239254038E-2</v>
+        <v>-6.7472394162705451E-2</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" ref="J7:J10" si="3">P28</f>
@@ -7612,11 +6989,11 @@
       </c>
       <c r="L7" s="22">
         <f t="shared" si="1"/>
-        <v>440381.6</v>
+        <v>440683.6</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="1"/>
-        <v>-7.2507892647359351E-2</v>
+        <v>-7.187184741654018E-2</v>
       </c>
       <c r="N7" s="22">
         <f>Comparison!N7</f>
@@ -7656,27 +7033,27 @@
       </c>
       <c r="H8" s="22">
         <f t="shared" si="0"/>
-        <v>1546492.6</v>
+        <v>1546385.8</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="0"/>
-        <v>7.5671160834933637E-3</v>
+        <v>7.4975340059602047E-3</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="3"/>
-        <v>1544811</v>
+        <v>1536093</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="1"/>
-        <v>6.4715241211352748E-3</v>
+        <v>7.9159385957705553E-4</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="1"/>
-        <v>1551337.4</v>
+        <v>1546272.7</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="1"/>
-        <v>1.0723588454587318E-2</v>
+        <v>7.4238473676735417E-3</v>
       </c>
       <c r="N8" s="22">
         <f>Comparison!N8</f>
@@ -7716,11 +7093,11 @@
       </c>
       <c r="H9" s="22">
         <f t="shared" si="0"/>
-        <v>1761429</v>
+        <v>1766640.7</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="0"/>
-        <v>7.2048210545456737E-3</v>
+        <v>1.0184929458511904E-2</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="3"/>
@@ -7732,11 +7109,11 @@
       </c>
       <c r="L9" s="22">
         <f t="shared" si="1"/>
-        <v>1761406</v>
+        <v>1761541.111111111</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="1"/>
-        <v>7.1916693970650591E-3</v>
+        <v>7.2689274429409423E-3</v>
       </c>
       <c r="N9" s="22">
         <f>Comparison!N9</f>
@@ -7776,11 +7153,11 @@
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
-        <v>2213915.4</v>
+        <v>2218642.1</v>
       </c>
       <c r="I10" s="34">
         <f t="shared" si="0"/>
-        <v>6.6569210307942939E-3</v>
+        <v>8.8061292926078227E-3</v>
       </c>
       <c r="J10" s="32">
         <f t="shared" si="3"/>
@@ -7792,11 +7169,11 @@
       </c>
       <c r="L10" s="32">
         <f t="shared" si="1"/>
-        <v>2209938.4</v>
+        <v>2212412.4</v>
       </c>
       <c r="M10" s="34">
         <f t="shared" si="1"/>
-        <v>4.8485978333767665E-3</v>
+        <v>5.9735139989314234E-3</v>
       </c>
       <c r="N10" s="32">
         <f>Comparison!N10</f>
@@ -7986,11 +7363,21 @@
       <c r="J18" s="23">
         <v>1620762</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="16"/>
+      <c r="K18" s="22">
+        <v>1625816</v>
+      </c>
+      <c r="L18" s="22">
+        <v>1621845</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1620684</v>
+      </c>
+      <c r="N18" s="22">
+        <v>1621084</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1627464</v>
+      </c>
       <c r="P18" s="5">
         <f>MIN(F18:O18)</f>
         <v>1612530</v>
@@ -8001,15 +7388,15 @@
       </c>
       <c r="R18" s="5">
         <f>AVERAGE(F18:O18)</f>
-        <v>1618795.6</v>
+        <v>1621087.1</v>
       </c>
       <c r="S18" s="13">
         <f>R18/E18-1</f>
-        <v>1.0339720476910674E-2</v>
+        <v>1.1769915536418374E-2</v>
       </c>
       <c r="T18" s="21">
         <f>_xlfn.STDEV.P(F18:O18)</f>
-        <v>3306.8601784774633</v>
+        <v>3803.8893635330664</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -8041,11 +7428,21 @@
       <c r="J19" s="22">
         <v>440913</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="17"/>
+      <c r="K19" s="22">
+        <v>444664</v>
+      </c>
+      <c r="L19" s="22">
+        <v>446355</v>
+      </c>
+      <c r="M19" s="22">
+        <v>446300</v>
+      </c>
+      <c r="N19" s="22">
+        <v>445379</v>
+      </c>
+      <c r="O19" s="17">
+        <v>444500</v>
+      </c>
       <c r="P19" s="5">
         <f t="shared" ref="P19:P22" si="6">MIN(F19:O19)</f>
         <v>438422</v>
@@ -8056,15 +7453,15 @@
       </c>
       <c r="R19" s="5">
         <f t="shared" ref="R19:R22" si="8">AVERAGE(F19:O19)</f>
-        <v>440105.4</v>
+        <v>442772.5</v>
       </c>
       <c r="S19" s="13">
         <f t="shared" ref="S19:S22" si="9">R19/E19-1</f>
-        <v>-7.3089600239254038E-2</v>
+        <v>-6.7472394162705451E-2</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" ref="T19:T22" si="10">_xlfn.STDEV.P(F19:O19)</f>
-        <v>986.5960875657272</v>
+        <v>2811.8926810957773</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -8096,11 +7493,21 @@
       <c r="J20" s="22">
         <v>1549895</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="17"/>
+      <c r="K20" s="22">
+        <v>1545624</v>
+      </c>
+      <c r="L20" s="22">
+        <v>1549046</v>
+      </c>
+      <c r="M20" s="22">
+        <v>1545101</v>
+      </c>
+      <c r="N20" s="22">
+        <v>1547007</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1544617</v>
+      </c>
       <c r="P20" s="5">
         <f t="shared" si="6"/>
         <v>1539963</v>
@@ -8111,15 +7518,15 @@
       </c>
       <c r="R20" s="5">
         <f t="shared" si="8"/>
-        <v>1546492.6</v>
+        <v>1546385.8</v>
       </c>
       <c r="S20" s="13">
         <f t="shared" si="9"/>
-        <v>7.5671160834933637E-3</v>
+        <v>7.4975340059602047E-3</v>
       </c>
       <c r="T20" s="21">
         <f t="shared" si="10"/>
-        <v>5583.3940072325186</v>
+        <v>4107.928086030719</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -8151,11 +7558,21 @@
       <c r="J21" s="22">
         <v>1765900</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="17"/>
+      <c r="K21" s="22">
+        <v>1772709</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1768464</v>
+      </c>
+      <c r="M21" s="22">
+        <v>1768102</v>
+      </c>
+      <c r="N21" s="22">
+        <v>1775590</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1774397</v>
+      </c>
       <c r="P21" s="5">
         <f t="shared" si="6"/>
         <v>1754557</v>
@@ -8166,15 +7583,15 @@
       </c>
       <c r="R21" s="5">
         <f t="shared" si="8"/>
-        <v>1761429</v>
+        <v>1766640.7</v>
       </c>
       <c r="S21" s="13">
         <f t="shared" si="9"/>
-        <v>7.2048210545456737E-3</v>
+        <v>1.0184929458511904E-2</v>
       </c>
       <c r="T21" s="21">
         <f t="shared" si="10"/>
-        <v>3900.5105819623154</v>
+        <v>6280.2328308749829</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8206,11 +7623,21 @@
       <c r="J22" s="32">
         <v>2214837</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="31"/>
+      <c r="K22" s="32">
+        <v>2226277</v>
+      </c>
+      <c r="L22" s="32">
+        <v>2224313</v>
+      </c>
+      <c r="M22" s="32">
+        <v>2224914</v>
+      </c>
+      <c r="N22" s="32">
+        <v>2220776</v>
+      </c>
+      <c r="O22" s="31">
+        <v>2220564</v>
+      </c>
       <c r="P22" s="32">
         <f t="shared" si="6"/>
         <v>2205729</v>
@@ -8221,15 +7648,15 @@
       </c>
       <c r="R22" s="32">
         <f t="shared" si="8"/>
-        <v>2213915.4</v>
+        <v>2218642.1</v>
       </c>
       <c r="S22" s="34">
         <f t="shared" si="9"/>
-        <v>6.6569210307942939E-3</v>
+        <v>8.8061292926078227E-3</v>
       </c>
       <c r="T22" s="43">
         <f t="shared" si="10"/>
-        <v>5568.2747274178209</v>
+        <v>6362.1666505994635</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8333,30 +7760,40 @@
       <c r="J27" s="23">
         <v>1613473</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="16"/>
+      <c r="K27" s="22">
+        <v>1622283</v>
+      </c>
+      <c r="L27" s="22">
+        <v>1616209</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1609241</v>
+      </c>
+      <c r="N27" s="22">
+        <v>1618152</v>
+      </c>
+      <c r="O27" s="16">
+        <v>1623601</v>
+      </c>
       <c r="P27" s="5">
         <f>MIN(F27:O27)</f>
-        <v>1613111</v>
+        <v>1609241</v>
       </c>
       <c r="Q27" s="13">
         <f>P27/E27-1</f>
-        <v>6.7917881900776411E-3</v>
+        <v>4.3764031233988199E-3</v>
       </c>
       <c r="R27" s="5">
         <f>AVERAGE(F27:O27)</f>
-        <v>1615329</v>
+        <v>1616613.1</v>
       </c>
       <c r="S27" s="13">
         <f>R27/E27-1</f>
-        <v>8.1761096572336989E-3</v>
+        <v>8.9775556427951209E-3</v>
       </c>
       <c r="T27" s="21">
         <f>_xlfn.STDEV.P(F27:O27)</f>
-        <v>3410.9537082757365</v>
+        <v>4519.684401592659</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
@@ -8388,11 +7825,21 @@
       <c r="J28" s="22">
         <v>439328</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="17"/>
+      <c r="K28" s="22">
+        <v>441506</v>
+      </c>
+      <c r="L28" s="22">
+        <v>440515</v>
+      </c>
+      <c r="M28" s="22">
+        <v>440637</v>
+      </c>
+      <c r="N28" s="22">
+        <v>440746</v>
+      </c>
+      <c r="O28" s="17">
+        <v>441524</v>
+      </c>
       <c r="P28" s="5">
         <f t="shared" ref="P28:P31" si="13">MIN(F28:O28)</f>
         <v>439328</v>
@@ -8403,15 +7850,15 @@
       </c>
       <c r="R28" s="5">
         <f t="shared" ref="R28:R31" si="15">AVERAGE(F28:O28)</f>
-        <v>440381.6</v>
+        <v>440683.6</v>
       </c>
       <c r="S28" s="13">
         <f t="shared" ref="S28:S31" si="16">R28/E28-1</f>
-        <v>-7.2507892647359351E-2</v>
+        <v>-7.187184741654018E-2</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ref="T28:T31" si="17">_xlfn.STDEV.P(F28:O28)</f>
-        <v>987.77823422061692</v>
+        <v>821.68451366689385</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
@@ -8443,30 +7890,40 @@
       <c r="J29" s="22">
         <v>1554546</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="17"/>
+      <c r="K29" s="22">
+        <v>1541726</v>
+      </c>
+      <c r="L29" s="22">
+        <v>1536093</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1548198</v>
+      </c>
+      <c r="N29" s="22">
+        <v>1538302</v>
+      </c>
+      <c r="O29" s="17">
+        <v>1541721</v>
+      </c>
       <c r="P29" s="5">
         <f t="shared" si="13"/>
-        <v>1544811</v>
+        <v>1536093</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="14"/>
-        <v>6.4715241211352748E-3</v>
+        <v>7.9159385957705553E-4</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="15"/>
-        <v>1551337.4</v>
+        <v>1546272.7</v>
       </c>
       <c r="S29" s="13">
         <f t="shared" si="16"/>
-        <v>1.0723588454587318E-2</v>
+        <v>7.4238473676735417E-3</v>
       </c>
       <c r="T29" s="21">
         <f t="shared" si="17"/>
-        <v>4990.9920697192056</v>
+        <v>6819.541950160582</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -8496,11 +7953,21 @@
       <c r="J30" s="22">
         <v>1764320</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="17"/>
+      <c r="K30" s="22">
+        <v>1757911</v>
+      </c>
+      <c r="L30" s="22">
+        <v>1767829</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1759482</v>
+      </c>
+      <c r="N30" s="22">
+        <v>1761745</v>
+      </c>
+      <c r="O30" s="17">
+        <v>1761279</v>
+      </c>
       <c r="P30" s="5">
         <f t="shared" si="13"/>
         <v>1755539</v>
@@ -8511,15 +7978,15 @@
       </c>
       <c r="R30" s="5">
         <f t="shared" si="15"/>
-        <v>1761406</v>
+        <v>1761541.111111111</v>
       </c>
       <c r="S30" s="13">
         <f t="shared" si="16"/>
-        <v>7.1916693970650591E-3</v>
+        <v>7.2689274429409423E-3</v>
       </c>
       <c r="T30" s="21">
         <f t="shared" si="17"/>
-        <v>3694.46051542035</v>
+        <v>3523.4868917796771</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8551,11 +8018,21 @@
       <c r="J31" s="32">
         <v>2205895</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="31"/>
+      <c r="K31" s="32">
+        <v>2216813</v>
+      </c>
+      <c r="L31" s="32">
+        <v>2213325</v>
+      </c>
+      <c r="M31" s="32">
+        <v>2215178</v>
+      </c>
+      <c r="N31" s="32">
+        <v>2218873</v>
+      </c>
+      <c r="O31" s="31">
+        <v>2210243</v>
+      </c>
       <c r="P31" s="32">
         <f t="shared" si="13"/>
         <v>2202401</v>
@@ -8566,24 +8043,27 @@
       </c>
       <c r="R31" s="32">
         <f t="shared" si="15"/>
-        <v>2209938.4</v>
+        <v>2212412.4</v>
       </c>
       <c r="S31" s="34">
         <f t="shared" si="16"/>
-        <v>4.8485978333767665E-3</v>
+        <v>5.9735139989314234E-3</v>
       </c>
       <c r="T31" s="43">
         <f t="shared" si="17"/>
-        <v>8944.6956706195433</v>
+        <v>7105.8679582440873</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>14</v>
       </c>
@@ -8602,8 +8082,26 @@
       <c r="I39">
         <v>1549895</v>
       </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>1545624</v>
+      </c>
+      <c r="M39">
+        <v>1549046</v>
+      </c>
+      <c r="N39">
+        <v>1545101</v>
+      </c>
+      <c r="O39">
+        <v>1547007</v>
+      </c>
+      <c r="P39">
+        <v>1544617</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>15</v>
       </c>
@@ -8622,8 +8120,26 @@
       <c r="I40">
         <v>2214837</v>
       </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>1772709</v>
+      </c>
+      <c r="M40">
+        <v>1768464</v>
+      </c>
+      <c r="N40">
+        <v>1768102</v>
+      </c>
+      <c r="O40">
+        <v>1775590</v>
+      </c>
+      <c r="P40">
+        <v>1774397</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>7</v>
       </c>
@@ -8642,8 +8158,26 @@
       <c r="I41">
         <v>1620762</v>
       </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41">
+        <v>2226277</v>
+      </c>
+      <c r="M41">
+        <v>2224313</v>
+      </c>
+      <c r="N41">
+        <v>2224914</v>
+      </c>
+      <c r="O41">
+        <v>2220776</v>
+      </c>
+      <c r="P41">
+        <v>2220564</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>13</v>
       </c>
@@ -8662,8 +8196,26 @@
       <c r="I42">
         <v>440913</v>
       </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>1625816</v>
+      </c>
+      <c r="M42">
+        <v>1621845</v>
+      </c>
+      <c r="N42">
+        <v>1620684</v>
+      </c>
+      <c r="O42">
+        <v>1621084</v>
+      </c>
+      <c r="P42">
+        <v>1627464</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>8</v>
       </c>
@@ -8682,13 +8234,34 @@
       <c r="I43">
         <v>1765900</v>
       </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>444664</v>
+      </c>
+      <c r="M43">
+        <v>446355</v>
+      </c>
+      <c r="N43">
+        <v>446300</v>
+      </c>
+      <c r="O43">
+        <v>445379</v>
+      </c>
+      <c r="P43">
+        <v>444500</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>14</v>
       </c>
@@ -8707,8 +8280,26 @@
       <c r="I45">
         <v>1554546</v>
       </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45">
+        <v>1541726</v>
+      </c>
+      <c r="M45">
+        <v>1536093</v>
+      </c>
+      <c r="N45">
+        <v>1548198</v>
+      </c>
+      <c r="O45">
+        <v>1538302</v>
+      </c>
+      <c r="P45">
+        <v>1541721</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>15</v>
       </c>
@@ -8727,8 +8318,26 @@
       <c r="I46">
         <v>2205895</v>
       </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>1757911</v>
+      </c>
+      <c r="M46">
+        <v>1767829</v>
+      </c>
+      <c r="N46">
+        <v>1759482</v>
+      </c>
+      <c r="O46">
+        <v>1761745</v>
+      </c>
+      <c r="P46">
+        <v>1761279</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>7</v>
       </c>
@@ -8747,8 +8356,26 @@
       <c r="I47">
         <v>1613473</v>
       </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47">
+        <v>2216813</v>
+      </c>
+      <c r="M47">
+        <v>2213325</v>
+      </c>
+      <c r="N47">
+        <v>2215178</v>
+      </c>
+      <c r="O47">
+        <v>2218873</v>
+      </c>
+      <c r="P47">
+        <v>2210243</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>13</v>
       </c>
@@ -8767,8 +8394,26 @@
       <c r="I48">
         <v>439328</v>
       </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>1622283</v>
+      </c>
+      <c r="M48">
+        <v>1616209</v>
+      </c>
+      <c r="N48">
+        <v>1609241</v>
+      </c>
+      <c r="O48">
+        <v>1618152</v>
+      </c>
+      <c r="P48">
+        <v>1623601</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>8</v>
       </c>
@@ -8783,6 +8428,24 @@
       </c>
       <c r="I49">
         <v>1764320</v>
+      </c>
+      <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>441506</v>
+      </c>
+      <c r="M49">
+        <v>440515</v>
+      </c>
+      <c r="N49">
+        <v>440637</v>
+      </c>
+      <c r="O49">
+        <v>440746</v>
+      </c>
+      <c r="P49">
+        <v>441524</v>
       </c>
     </row>
   </sheetData>
@@ -8792,6 +8455,10 @@
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="F16:O16"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="F3:I3"/>
@@ -8801,36 +8468,44 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="4" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E7D71B-F90D-4553-8E3F-F9F38F3C3226}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACEBDDF-2E4A-43BA-9C94-A9709F6384C0}">
   <dimension ref="C13:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:H62"/>
+    <sheetView topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9295,7 +8970,7 @@
         <v>1543609</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
@@ -9315,7 +8990,7 @@
         <v>1618552</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -9335,7 +9010,7 @@
         <v>2197230</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>8</v>
       </c>
@@ -9355,7 +9030,7 @@
         <v>1753014</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
@@ -9375,12 +9050,15 @@
         <v>439013</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9399,8 +9077,26 @@
       <c r="H40">
         <v>1544930</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>1545624</v>
+      </c>
+      <c r="L40">
+        <v>1549046</v>
+      </c>
+      <c r="M40">
+        <v>1545101</v>
+      </c>
+      <c r="N40">
+        <v>1547007</v>
+      </c>
+      <c r="O40">
+        <v>1544617</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -9419,8 +9115,26 @@
       <c r="H41">
         <v>2230687</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>1772709</v>
+      </c>
+      <c r="L41">
+        <v>1768464</v>
+      </c>
+      <c r="M41">
+        <v>1768102</v>
+      </c>
+      <c r="N41">
+        <v>1775590</v>
+      </c>
+      <c r="O41">
+        <v>1774397</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -9439,8 +9153,26 @@
       <c r="H42">
         <v>1620274</v>
       </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>2226277</v>
+      </c>
+      <c r="L42">
+        <v>2224313</v>
+      </c>
+      <c r="M42">
+        <v>2224914</v>
+      </c>
+      <c r="N42">
+        <v>2220776</v>
+      </c>
+      <c r="O42">
+        <v>2220564</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>13</v>
       </c>
@@ -9459,8 +9191,26 @@
       <c r="H43">
         <v>444983</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>1625816</v>
+      </c>
+      <c r="L43">
+        <v>1621845</v>
+      </c>
+      <c r="M43">
+        <v>1620684</v>
+      </c>
+      <c r="N43">
+        <v>1621084</v>
+      </c>
+      <c r="O43">
+        <v>1627464</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>8</v>
       </c>
@@ -9479,13 +9229,34 @@
       <c r="H44">
         <v>1778238</v>
       </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44">
+        <v>444664</v>
+      </c>
+      <c r="L44">
+        <v>446355</v>
+      </c>
+      <c r="M44">
+        <v>446300</v>
+      </c>
+      <c r="N44">
+        <v>445379</v>
+      </c>
+      <c r="O44">
+        <v>444500</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -9504,8 +9275,26 @@
       <c r="H46">
         <v>1548049</v>
       </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>1541726</v>
+      </c>
+      <c r="L46">
+        <v>1536093</v>
+      </c>
+      <c r="M46">
+        <v>1548198</v>
+      </c>
+      <c r="N46">
+        <v>1538302</v>
+      </c>
+      <c r="O46">
+        <v>1541721</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -9524,8 +9313,26 @@
       <c r="H47">
         <v>2218927</v>
       </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>1757911</v>
+      </c>
+      <c r="L47">
+        <v>1767829</v>
+      </c>
+      <c r="M47">
+        <v>1759482</v>
+      </c>
+      <c r="N47">
+        <v>1761745</v>
+      </c>
+      <c r="O47">
+        <v>1761279</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -9544,8 +9351,26 @@
       <c r="H48">
         <v>1615397</v>
       </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>2216813</v>
+      </c>
+      <c r="L48">
+        <v>2213325</v>
+      </c>
+      <c r="M48">
+        <v>2215178</v>
+      </c>
+      <c r="N48">
+        <v>2218873</v>
+      </c>
+      <c r="O48">
+        <v>2210243</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>13</v>
       </c>
@@ -9564,8 +9389,26 @@
       <c r="H49">
         <v>439772</v>
       </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>1622283</v>
+      </c>
+      <c r="L49">
+        <v>1616209</v>
+      </c>
+      <c r="M49">
+        <v>1609241</v>
+      </c>
+      <c r="N49">
+        <v>1618152</v>
+      </c>
+      <c r="O49">
+        <v>1623601</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>8</v>
       </c>
@@ -9584,13 +9427,34 @@
       <c r="H50">
         <v>1759054</v>
       </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50">
+        <v>441506</v>
+      </c>
+      <c r="L50">
+        <v>440515</v>
+      </c>
+      <c r="M50">
+        <v>440637</v>
+      </c>
+      <c r="N50">
+        <v>440746</v>
+      </c>
+      <c r="O50">
+        <v>441524</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -9609,8 +9473,26 @@
       <c r="H52">
         <v>1549895</v>
       </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52">
+        <v>1540580</v>
+      </c>
+      <c r="L52">
+        <v>1550677</v>
+      </c>
+      <c r="M52">
+        <v>1546208</v>
+      </c>
+      <c r="N52">
+        <v>1553215</v>
+      </c>
+      <c r="O52">
+        <v>1553001</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -9629,8 +9511,26 @@
       <c r="H53">
         <v>2214837</v>
       </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <v>1764372</v>
+      </c>
+      <c r="L53">
+        <v>1763137</v>
+      </c>
+      <c r="M53">
+        <v>1764860</v>
+      </c>
+      <c r="N53">
+        <v>1768904</v>
+      </c>
+      <c r="O53">
+        <v>1769185</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>7</v>
       </c>
@@ -9649,8 +9549,26 @@
       <c r="H54">
         <v>1620762</v>
       </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <v>2207218</v>
+      </c>
+      <c r="L54">
+        <v>2216492</v>
+      </c>
+      <c r="M54">
+        <v>2220740</v>
+      </c>
+      <c r="N54">
+        <v>2218764</v>
+      </c>
+      <c r="O54">
+        <v>2229921</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>13</v>
       </c>
@@ -9669,8 +9587,26 @@
       <c r="H55">
         <v>440913</v>
       </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <v>1623222</v>
+      </c>
+      <c r="L55">
+        <v>1616041</v>
+      </c>
+      <c r="M55">
+        <v>1619111</v>
+      </c>
+      <c r="N55">
+        <v>1625517</v>
+      </c>
+      <c r="O55">
+        <v>1621518</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>8</v>
       </c>
@@ -9689,13 +9625,34 @@
       <c r="H56">
         <v>1765900</v>
       </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <v>443543</v>
+      </c>
+      <c r="L56">
+        <v>439818</v>
+      </c>
+      <c r="M56">
+        <v>441461</v>
+      </c>
+      <c r="N56">
+        <v>441940</v>
+      </c>
+      <c r="O56">
+        <v>443302</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -9714,8 +9671,26 @@
       <c r="H58">
         <v>1554546</v>
       </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58">
+        <v>1553181</v>
+      </c>
+      <c r="L58">
+        <v>1545733</v>
+      </c>
+      <c r="M58">
+        <v>1545900</v>
+      </c>
+      <c r="N58">
+        <v>1545164</v>
+      </c>
+      <c r="O58">
+        <v>1546409</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -9734,8 +9709,26 @@
       <c r="H59">
         <v>2205895</v>
       </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>1767063</v>
+      </c>
+      <c r="L59">
+        <v>1763394</v>
+      </c>
+      <c r="M59">
+        <v>1772096</v>
+      </c>
+      <c r="N59">
+        <v>1760496</v>
+      </c>
+      <c r="O59">
+        <v>1766804</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>7</v>
       </c>
@@ -9754,8 +9747,26 @@
       <c r="H60">
         <v>1613473</v>
       </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60">
+        <v>2220247</v>
+      </c>
+      <c r="L60">
+        <v>2223731</v>
+      </c>
+      <c r="M60">
+        <v>2211646</v>
+      </c>
+      <c r="N60">
+        <v>2214176</v>
+      </c>
+      <c r="O60">
+        <v>2221399</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>13</v>
       </c>
@@ -9774,8 +9785,26 @@
       <c r="H61">
         <v>439328</v>
       </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>1617516</v>
+      </c>
+      <c r="L61">
+        <v>1613436</v>
+      </c>
+      <c r="M61">
+        <v>1624793</v>
+      </c>
+      <c r="N61">
+        <v>1620557</v>
+      </c>
+      <c r="O61">
+        <v>1612162</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>8</v>
       </c>
@@ -9790,6 +9819,24 @@
       </c>
       <c r="H62">
         <v>1764320</v>
+      </c>
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62">
+        <v>442412</v>
+      </c>
+      <c r="L62">
+        <v>443919</v>
+      </c>
+      <c r="M62">
+        <v>442436</v>
+      </c>
+      <c r="N62">
+        <v>442381</v>
+      </c>
+      <c r="O62">
+        <v>442469</v>
       </c>
     </row>
   </sheetData>
@@ -9805,19 +9852,19 @@
     <mergeCell ref="H15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="G17 K17">
-    <cfRule type="top10" dxfId="139" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 K18">
-    <cfRule type="top10" dxfId="138" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 K19">
-    <cfRule type="top10" dxfId="137" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 K20">
-    <cfRule type="top10" dxfId="136" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21 K21">
-    <cfRule type="top10" dxfId="135" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
